--- a/log/lqr_steering/MoscowRaceway_errors.xlsx
+++ b/log/lqr_steering/MoscowRaceway_errors.xlsx
@@ -423,7 +423,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>-5.378513669712973E-06</v>
+        <v>-5.378513669712972E-06</v>
       </c>
       <c r="B9">
         <v>-1.709999999999212E-05</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>-5.579861419868113E-06</v>
+        <v>-5.579861419978509E-06</v>
       </c>
       <c r="B11">
         <v>-1.709999999999212E-05</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>-1.63407901875962E-05</v>
+        <v>-1.634079018758443E-05</v>
       </c>
       <c r="B30">
         <v>-3.820000000009927E-05</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>-0.0006549867348906477</v>
+        <v>-0.0006549867348906478</v>
       </c>
       <c r="B180">
         <v>0.002622380789211398</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390">
-        <v>0.06673255491262581</v>
+        <v>0.06673255491262582</v>
       </c>
       <c r="B390">
         <v>-0.05023330676037485</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396">
-        <v>0.07557904085419778</v>
+        <v>0.07557904085419777</v>
       </c>
       <c r="B396">
         <v>-0.04990363974726719</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397">
-        <v>0.07690219859899053</v>
+        <v>0.07690219859899054</v>
       </c>
       <c r="B397">
         <v>-0.0371087519986939</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413">
-        <v>0.0894794116031413</v>
+        <v>0.08947941160314131</v>
       </c>
       <c r="B413">
         <v>-0.0635514818316012</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416">
-        <v>0.09255485895029084</v>
+        <v>0.09255485895029085</v>
       </c>
       <c r="B416">
         <v>-0.06948360675483922</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423">
-        <v>0.09912716981986136</v>
+        <v>0.09912716981986137</v>
       </c>
       <c r="B423">
         <v>-0.06982406505527372</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441">
-        <v>0.09965980852085105</v>
+        <v>0.09965980852085106</v>
       </c>
       <c r="B441">
         <v>-0.1019171416399929</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442">
-        <v>0.09807759493858492</v>
+        <v>0.09807759493858494</v>
       </c>
       <c r="B442">
         <v>-0.1116771136175929</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445">
-        <v>0.09443388917556089</v>
+        <v>0.09443388917556088</v>
       </c>
       <c r="B445">
         <v>-0.1005597907337887</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448">
-        <v>0.09294326246536785</v>
+        <v>0.09294326246536784</v>
       </c>
       <c r="B448">
         <v>-0.1003420332379861</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451">
-        <v>0.09266665681621583</v>
+        <v>0.09266665681621582</v>
       </c>
       <c r="B451">
         <v>-0.09461207137354277</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453">
-        <v>0.09149619861735578</v>
+        <v>0.09149619861735579</v>
       </c>
       <c r="B453">
         <v>-0.08651075313678547</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457">
-        <v>0.08846993185847604</v>
+        <v>0.08846993185847607</v>
       </c>
       <c r="B457">
         <v>-0.08825014562041611</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458">
-        <v>0.08829946647881473</v>
+        <v>0.08829946647881474</v>
       </c>
       <c r="B458">
         <v>-0.07538251230374771</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460">
-        <v>0.08699093954333931</v>
+        <v>0.08699093954333924</v>
       </c>
       <c r="B460">
         <v>-0.08302095320803682</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463">
-        <v>0.08439921836286615</v>
+        <v>0.08439921836286614</v>
       </c>
       <c r="B463">
         <v>-0.06722018486144155</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479">
-        <v>0.06401530781767348</v>
+        <v>0.06401530781767349</v>
       </c>
       <c r="B479">
         <v>-0.07136609021368256</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486">
-        <v>0.05977571563108668</v>
+        <v>0.05977571563108667</v>
       </c>
       <c r="B486">
         <v>-0.05468606965742051</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490">
-        <v>0.05728536474493312</v>
+        <v>0.05728536474493313</v>
       </c>
       <c r="B490">
         <v>-0.05419461923070124</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491">
-        <v>0.05631426221348697</v>
+        <v>0.05631426221348696</v>
       </c>
       <c r="B491">
         <v>-0.04797691716748487</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495">
-        <v>0.05038066828132044</v>
+        <v>0.05038066828132043</v>
       </c>
       <c r="B495">
         <v>-0.05685146195288171</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496">
-        <v>0.04941947331243736</v>
+        <v>0.04941947331243737</v>
       </c>
       <c r="B496">
         <v>-0.05117522413606412</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498">
-        <v>0.04716937127498001</v>
+        <v>0.04716937127498002</v>
       </c>
       <c r="B498">
         <v>-0.04919489871419014</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499">
-        <v>0.04620873338242738</v>
+        <v>0.04620873338242737</v>
       </c>
       <c r="B499">
         <v>-0.05252008867024571</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503">
-        <v>0.04226569490665276</v>
+        <v>0.04226569490665275</v>
       </c>
       <c r="B503">
         <v>-0.04722033243929635</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525">
-        <v>0.02330069322006188</v>
+        <v>0.02330069322006187</v>
       </c>
       <c r="B525">
         <v>-0.02884592277093656</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527">
-        <v>0.02266871575481239</v>
+        <v>0.02266871575481238</v>
       </c>
       <c r="B527">
         <v>-0.0238063122718386</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530">
-        <v>0.02118859632501594</v>
+        <v>0.02118859632501595</v>
       </c>
       <c r="B530">
         <v>-0.02060900126843457</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568">
-        <v>0.05491988216083561</v>
+        <v>0.0549198821608356</v>
       </c>
       <c r="B568">
         <v>-0.04309815797983418</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577">
-        <v>0.06656628312980094</v>
+        <v>0.06656628312980095</v>
       </c>
       <c r="B577">
         <v>-0.07862580316762013</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591">
-        <v>0.09376865749243411</v>
+        <v>0.0937686574924341</v>
       </c>
       <c r="B591">
         <v>-0.04987606232061115</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592">
-        <v>0.09651559780899491</v>
+        <v>0.09651559780899492</v>
       </c>
       <c r="B592">
         <v>-0.06278614251687387</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654">
-        <v>0.09815149948645785</v>
+        <v>0.09815149948645784</v>
       </c>
       <c r="B654">
         <v>-0.1069539762717282</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="665" spans="1:2">
       <c r="A665">
-        <v>0.08380275542914914</v>
+        <v>0.08380275542914915</v>
       </c>
       <c r="B665">
         <v>-0.09897091967673521</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="733" spans="1:2">
       <c r="A733">
-        <v>0.03086925987025659</v>
+        <v>0.0308692598702566</v>
       </c>
       <c r="B733">
         <v>-0.03746296848632724</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="929" spans="1:2">
       <c r="A929">
-        <v>-0.05446019022380767</v>
+        <v>-0.05446019022380768</v>
       </c>
       <c r="B929">
         <v>0.05064993988037703</v>
@@ -7911,7 +7911,7 @@
     </row>
     <row r="945" spans="1:2">
       <c r="A945">
-        <v>-0.05183098064702625</v>
+        <v>-0.05183098064702626</v>
       </c>
       <c r="B945">
         <v>0.04839634971384132</v>
@@ -8007,7 +8007,7 @@
     </row>
     <row r="957" spans="1:2">
       <c r="A957">
-        <v>-0.05471534195763915</v>
+        <v>-0.05471534195763916</v>
       </c>
       <c r="B957">
         <v>0.04686116707314447</v>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="967" spans="1:2">
       <c r="A967">
-        <v>-0.05134966682938688</v>
+        <v>-0.05134966682938689</v>
       </c>
       <c r="B967">
         <v>0.0692021479964855</v>
@@ -8143,7 +8143,7 @@
     </row>
     <row r="974" spans="1:2">
       <c r="A974">
-        <v>-0.05491192605143727</v>
+        <v>-0.05491192605143726</v>
       </c>
       <c r="B974">
         <v>0.04146124804875262</v>
@@ -8183,7 +8183,7 @@
     </row>
     <row r="979" spans="1:2">
       <c r="A979">
-        <v>-0.0594631048845177</v>
+        <v>-0.05946310488451769</v>
       </c>
       <c r="B979">
         <v>0.05002735777692724</v>
@@ -8199,7 +8199,7 @@
     </row>
     <row r="981" spans="1:2">
       <c r="A981">
-        <v>-0.05997640564241813</v>
+        <v>-0.05997640564241812</v>
       </c>
       <c r="B981">
         <v>0.04045658872903157</v>
@@ -8335,7 +8335,7 @@
     </row>
     <row r="998" spans="1:2">
       <c r="A998">
-        <v>-0.06141748597986829</v>
+        <v>-0.06141748597986828</v>
       </c>
       <c r="B998">
         <v>0.06338352258309099</v>
@@ -8447,7 +8447,7 @@
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012">
-        <v>-0.06292964906097533</v>
+        <v>-0.06292964906097531</v>
       </c>
       <c r="B1012">
         <v>0.03640155315081595</v>
@@ -8479,7 +8479,7 @@
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016">
-        <v>-0.06439869422860937</v>
+        <v>-0.06439869422860939</v>
       </c>
       <c r="B1016">
         <v>0.04088109319876798</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019">
-        <v>-0.06475294227217682</v>
+        <v>-0.06475294227217683</v>
       </c>
       <c r="B1019">
         <v>0.03556538047732971</v>
@@ -8551,7 +8551,7 @@
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025">
-        <v>-0.06433239343434771</v>
+        <v>-0.06433239343434773</v>
       </c>
       <c r="B1025">
         <v>0.06675685733840986</v>
@@ -8623,7 +8623,7 @@
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034">
-        <v>-0.06096836530275625</v>
+        <v>-0.06096836530275626</v>
       </c>
       <c r="B1034">
         <v>0.06142932505836329</v>
@@ -8631,7 +8631,7 @@
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035">
-        <v>-0.06059354285343043</v>
+        <v>-0.06059354285343044</v>
       </c>
       <c r="B1035">
         <v>0.07270551931231894</v>
@@ -8703,7 +8703,7 @@
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044">
-        <v>-0.06538237225594631</v>
+        <v>-0.06538237225594633</v>
       </c>
       <c r="B1044">
         <v>0.04104393431778064</v>
@@ -8719,7 +8719,7 @@
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046">
-        <v>-0.06428486905139588</v>
+        <v>-0.0642848690513959</v>
       </c>
       <c r="B1046">
         <v>0.02039039994580794</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048">
-        <v>-0.06482155113799293</v>
+        <v>-0.06482155113799291</v>
       </c>
       <c r="B1048">
         <v>0.04891121359441986</v>
@@ -8775,7 +8775,7 @@
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053">
-        <v>-0.06089106513020496</v>
+        <v>-0.06089106513020495</v>
       </c>
       <c r="B1053">
         <v>0.02544883654296815</v>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056">
-        <v>-0.05986840524814595</v>
+        <v>-0.05986840524814596</v>
       </c>
       <c r="B1056">
         <v>0.07158909702404381</v>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057">
-        <v>-0.05953309486393031</v>
+        <v>-0.0595330948639303</v>
       </c>
       <c r="B1057">
         <v>0.03387693742531539</v>
@@ -8847,7 +8847,7 @@
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062">
-        <v>-0.05923843690557565</v>
+        <v>-0.05923843690557564</v>
       </c>
       <c r="B1062">
         <v>0.0532005549313439</v>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067">
-        <v>-0.06181005849209828</v>
+        <v>-0.06181005849209827</v>
       </c>
       <c r="B1067">
         <v>0.06250945515047324</v>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069">
-        <v>-0.06379474339028152</v>
+        <v>-0.06379474339028153</v>
       </c>
       <c r="B1069">
         <v>0.03231941651128611</v>
@@ -9095,7 +9095,7 @@
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093">
-        <v>-0.06933960476907339</v>
+        <v>-0.06933960476907337</v>
       </c>
       <c r="B1093">
         <v>0.04870466044615895</v>
@@ -9127,7 +9127,7 @@
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097">
-        <v>-0.07454454471599381</v>
+        <v>-0.07454454471599382</v>
       </c>
       <c r="B1097">
         <v>0.04178383237726546</v>
@@ -9167,7 +9167,7 @@
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102">
-        <v>-0.07042926699131979</v>
+        <v>-0.07042926699131981</v>
       </c>
       <c r="B1102">
         <v>0.003512202249760232</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105">
-        <v>-0.06785224633822354</v>
+        <v>-0.06785224633822352</v>
       </c>
       <c r="B1105">
         <v>0.07541435194426116</v>
@@ -9199,7 +9199,7 @@
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106">
-        <v>-0.06607718341048824</v>
+        <v>-0.06607718341048822</v>
       </c>
       <c r="B1106">
         <v>0.02529540421530152</v>
@@ -9591,7 +9591,7 @@
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155">
-        <v>-0.03182221469169771</v>
+        <v>-0.03182221469169772</v>
       </c>
       <c r="B1155">
         <v>0.02990921601957774</v>
@@ -10015,7 +10015,7 @@
     </row>
     <row r="1208" spans="1:2">
       <c r="A1208">
-        <v>-0.008969628335734614</v>
+        <v>-0.008969628335734612</v>
       </c>
       <c r="B1208">
         <v>0.009435657077923487</v>
@@ -10071,7 +10071,7 @@
     </row>
     <row r="1215" spans="1:2">
       <c r="A1215">
-        <v>-0.006717800947075825</v>
+        <v>-0.006717800947075826</v>
       </c>
       <c r="B1215">
         <v>0.007501165284590883</v>
@@ -10143,7 +10143,7 @@
     </row>
     <row r="1224" spans="1:2">
       <c r="A1224">
-        <v>-0.006708118940436115</v>
+        <v>-0.006708118940436114</v>
       </c>
       <c r="B1224">
         <v>0.006700275367979014</v>
@@ -10191,7 +10191,7 @@
     </row>
     <row r="1230" spans="1:2">
       <c r="A1230">
-        <v>-0.005855481298297199</v>
+        <v>-0.005855481298297198</v>
       </c>
       <c r="B1230">
         <v>0.01020402139948029</v>
@@ -10215,7 +10215,7 @@
     </row>
     <row r="1233" spans="1:2">
       <c r="A1233">
-        <v>-0.004930038084230322</v>
+        <v>-0.004930038084230321</v>
       </c>
       <c r="B1233">
         <v>0.01028261508787587</v>
@@ -10223,7 +10223,7 @@
     </row>
     <row r="1234" spans="1:2">
       <c r="A1234">
-        <v>-0.004374876832995844</v>
+        <v>-0.004374876832995845</v>
       </c>
       <c r="B1234">
         <v>0.01216796337389248</v>
@@ -10287,7 +10287,7 @@
     </row>
     <row r="1242" spans="1:2">
       <c r="A1242">
-        <v>-0.003135310138363228</v>
+        <v>-0.003135310138363227</v>
       </c>
       <c r="B1242">
         <v>0.00975637409491803</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="1259" spans="1:2">
       <c r="A1259">
-        <v>-0.003059485528529002</v>
+        <v>-0.003059485528529003</v>
       </c>
       <c r="B1259">
         <v>0.008278375937731397</v>
@@ -10447,7 +10447,7 @@
     </row>
     <row r="1262" spans="1:2">
       <c r="A1262">
-        <v>-0.0009731780084205395</v>
+        <v>-0.0009731780084205394</v>
       </c>
       <c r="B1262">
         <v>0.0138045240477549</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="1264" spans="1:2">
       <c r="A1264">
-        <v>0.0004323148169640815</v>
+        <v>0.0004323148169640814</v>
       </c>
       <c r="B1264">
         <v>0.0105062036557797</v>
@@ -11151,7 +11151,7 @@
     </row>
     <row r="1350" spans="1:2">
       <c r="A1350">
-        <v>0.05750604731120688</v>
+        <v>0.05750604731120689</v>
       </c>
       <c r="B1350">
         <v>-0.0107388533060182</v>
@@ -11191,7 +11191,7 @@
     </row>
     <row r="1355" spans="1:2">
       <c r="A1355">
-        <v>0.06110210139276462</v>
+        <v>0.06110210139276463</v>
       </c>
       <c r="B1355">
         <v>-0.02892853154400932</v>
@@ -11431,7 +11431,7 @@
     </row>
     <row r="1385" spans="1:2">
       <c r="A1385">
-        <v>0.05769425413384908</v>
+        <v>0.05769425413384909</v>
       </c>
       <c r="B1385">
         <v>-0.04049386664560295</v>
@@ -11559,7 +11559,7 @@
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401">
-        <v>0.04675426604140769</v>
+        <v>0.04675426604140768</v>
       </c>
       <c r="B1401">
         <v>-0.03431125168867011</v>
@@ -11615,7 +11615,7 @@
     </row>
     <row r="1408" spans="1:2">
       <c r="A1408">
-        <v>0.0413457972632469</v>
+        <v>0.04134579726324689</v>
       </c>
       <c r="B1408">
         <v>-0.06190014413840794</v>
@@ -11663,7 +11663,7 @@
     </row>
     <row r="1414" spans="1:2">
       <c r="A1414">
-        <v>0.04069291615345852</v>
+        <v>0.04069291615345853</v>
       </c>
       <c r="B1414">
         <v>-0.02458635577820711</v>
@@ -11703,7 +11703,7 @@
     </row>
     <row r="1419" spans="1:2">
       <c r="A1419">
-        <v>0.0402977464668162</v>
+        <v>0.04029774646681621</v>
       </c>
       <c r="B1419">
         <v>-0.02495337413730114</v>
@@ -11727,7 +11727,7 @@
     </row>
     <row r="1422" spans="1:2">
       <c r="A1422">
-        <v>0.03707518615614945</v>
+        <v>0.03707518615614946</v>
       </c>
       <c r="B1422">
         <v>-0.01703119345085602</v>
@@ -11767,7 +11767,7 @@
     </row>
     <row r="1427" spans="1:2">
       <c r="A1427">
-        <v>0.02897703622377274</v>
+        <v>0.02897703622377273</v>
       </c>
       <c r="B1427">
         <v>-0.03689096638726674</v>
@@ -11799,7 +11799,7 @@
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431">
-        <v>0.02515201551607365</v>
+        <v>0.02515201551607366</v>
       </c>
       <c r="B1431">
         <v>-0.03618838118477097</v>
@@ -11919,7 +11919,7 @@
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446">
-        <v>0.02231860104807186</v>
+        <v>0.02231860104807185</v>
       </c>
       <c r="B1446">
         <v>-0.00338157707713993</v>
@@ -11927,7 +11927,7 @@
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447">
-        <v>0.02178570068096304</v>
+        <v>0.02178570068096303</v>
       </c>
       <c r="B1447">
         <v>-0.01115010060746213</v>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="1465" spans="1:2">
       <c r="A1465">
-        <v>0.0137625548405416</v>
+        <v>0.01376255484054161</v>
       </c>
       <c r="B1465">
         <v>-0.01471684175970456</v>
@@ -12255,7 +12255,7 @@
     </row>
     <row r="1488" spans="1:2">
       <c r="A1488">
-        <v>0.008766672432345666</v>
+        <v>0.008766672432345664</v>
       </c>
       <c r="B1488">
         <v>-0.01179019485272326</v>
@@ -12279,7 +12279,7 @@
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491">
-        <v>0.008428489521169934</v>
+        <v>0.008428489521169936</v>
       </c>
       <c r="B1491">
         <v>-0.009239618976491837</v>
@@ -12327,7 +12327,7 @@
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497">
-        <v>0.007083467592852874</v>
+        <v>0.007083467592852873</v>
       </c>
       <c r="B1497">
         <v>-0.01313057628794789</v>
@@ -12335,7 +12335,7 @@
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498">
-        <v>0.006588375156115609</v>
+        <v>0.00658837515611561</v>
       </c>
       <c r="B1498">
         <v>-0.01017276393627009</v>
@@ -12351,7 +12351,7 @@
     </row>
     <row r="1500" spans="1:2">
       <c r="A1500">
-        <v>0.005724385161266373</v>
+        <v>0.005724385161266372</v>
       </c>
       <c r="B1500">
         <v>-0.01355255196367589</v>
@@ -12455,7 +12455,7 @@
     </row>
     <row r="1513" spans="1:2">
       <c r="A1513">
-        <v>0.006067066684930272</v>
+        <v>0.006067066684930273</v>
       </c>
       <c r="B1513">
         <v>-0.002615819966433008</v>
@@ -12479,7 +12479,7 @@
     </row>
     <row r="1516" spans="1:2">
       <c r="A1516">
-        <v>0.006681772417564312</v>
+        <v>0.006681772417564311</v>
       </c>
       <c r="B1516">
         <v>-0.0002742953215912891</v>
@@ -12519,7 +12519,7 @@
     </row>
     <row r="1521" spans="1:2">
       <c r="A1521">
-        <v>0.004813567061441556</v>
+        <v>0.004813567061441557</v>
       </c>
       <c r="B1521">
         <v>-0.007954721929658959</v>
@@ -12527,7 +12527,7 @@
     </row>
     <row r="1522" spans="1:2">
       <c r="A1522">
-        <v>0.004220943546876905</v>
+        <v>0.004220943546876904</v>
       </c>
       <c r="B1522">
         <v>-0.007326997479953246</v>
@@ -12543,7 +12543,7 @@
     </row>
     <row r="1524" spans="1:2">
       <c r="A1524">
-        <v>0.003344661465502826</v>
+        <v>0.003344661465502825</v>
       </c>
       <c r="B1524">
         <v>-0.005536736392132369</v>
@@ -12591,7 +12591,7 @@
     </row>
     <row r="1530" spans="1:2">
       <c r="A1530">
-        <v>-0.0009447007035332188</v>
+        <v>-0.0009447007035332187</v>
       </c>
       <c r="B1530">
         <v>-0.01351469933883509</v>
@@ -12647,7 +12647,7 @@
     </row>
     <row r="1537" spans="1:2">
       <c r="A1537">
-        <v>-0.009911448288617078</v>
+        <v>-0.00991144828861708</v>
       </c>
       <c r="B1537">
         <v>-0.02328547655629087</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548">
-        <v>-0.02069546986091468</v>
+        <v>-0.02069546986091467</v>
       </c>
       <c r="B1548">
         <v>-0.009483079160122365</v>
@@ -12759,7 +12759,7 @@
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551">
-        <v>-0.02228445310903583</v>
+        <v>-0.02228445310903584</v>
       </c>
       <c r="B1551">
         <v>-0.003106570536945075</v>
@@ -12791,7 +12791,7 @@
     </row>
     <row r="1555" spans="1:2">
       <c r="A1555">
-        <v>-0.02451731588335402</v>
+        <v>-0.02451731588335403</v>
       </c>
       <c r="B1555">
         <v>-0.006262082574709726</v>
@@ -12959,7 +12959,7 @@
     </row>
     <row r="1576" spans="1:2">
       <c r="A1576">
-        <v>-0.03448838069522588</v>
+        <v>-0.03448838069522589</v>
       </c>
       <c r="B1576">
         <v>0.01474749465117231</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="1581" spans="1:2">
       <c r="A1581">
-        <v>-0.03440233089374915</v>
+        <v>-0.03440233089374914</v>
       </c>
       <c r="B1581">
         <v>0.01399272444985966</v>
@@ -13023,7 +13023,7 @@
     </row>
     <row r="1584" spans="1:2">
       <c r="A1584">
-        <v>-0.03273533976531819</v>
+        <v>-0.03273533976531818</v>
       </c>
       <c r="B1584">
         <v>0.01944622165123056</v>
@@ -13031,7 +13031,7 @@
     </row>
     <row r="1585" spans="1:2">
       <c r="A1585">
-        <v>-0.03200407590419688</v>
+        <v>-0.03200407590419687</v>
       </c>
       <c r="B1585">
         <v>0.02552677231422651</v>
@@ -13223,7 +13223,7 @@
     </row>
     <row r="1609" spans="1:2">
       <c r="A1609">
-        <v>-0.02688537880320535</v>
+        <v>-0.02688537880320534</v>
       </c>
       <c r="B1609">
         <v>0.02049608970060657</v>
@@ -13247,7 +13247,7 @@
     </row>
     <row r="1612" spans="1:2">
       <c r="A1612">
-        <v>-0.02641329180471048</v>
+        <v>-0.02641329180471049</v>
       </c>
       <c r="B1612">
         <v>0.01904278024956607</v>
@@ -13263,7 +13263,7 @@
     </row>
     <row r="1614" spans="1:2">
       <c r="A1614">
-        <v>-0.02591452380501821</v>
+        <v>-0.02591452380501822</v>
       </c>
       <c r="B1614">
         <v>0.02289237175348635</v>
@@ -13439,7 +13439,7 @@
     </row>
     <row r="1636" spans="1:2">
       <c r="A1636">
-        <v>-0.01595840953963261</v>
+        <v>-0.01595840953963262</v>
       </c>
       <c r="B1636">
         <v>0.0238681978528037</v>
@@ -13495,7 +13495,7 @@
     </row>
     <row r="1643" spans="1:2">
       <c r="A1643">
-        <v>-0.01050762453349719</v>
+        <v>-0.01050762453349718</v>
       </c>
       <c r="B1643">
         <v>0.02556629855911829</v>
@@ -13527,7 +13527,7 @@
     </row>
     <row r="1647" spans="1:2">
       <c r="A1647">
-        <v>-0.01098796938797977</v>
+        <v>-0.01098796938797978</v>
       </c>
       <c r="B1647">
         <v>0.01468428766974483</v>
@@ -13583,7 +13583,7 @@
     </row>
     <row r="1654" spans="1:2">
       <c r="A1654">
-        <v>-0.01163340813422106</v>
+        <v>-0.01163340813422105</v>
       </c>
       <c r="B1654">
         <v>0.00330175005093869</v>
@@ -13615,7 +13615,7 @@
     </row>
     <row r="1658" spans="1:2">
       <c r="A1658">
-        <v>-0.008466541119311517</v>
+        <v>-0.008466541119311518</v>
       </c>
       <c r="B1658">
         <v>0.007214562761977295</v>
@@ -13639,7 +13639,7 @@
     </row>
     <row r="1661" spans="1:2">
       <c r="A1661">
-        <v>-0.004819220768860426</v>
+        <v>-0.004819220768860425</v>
       </c>
       <c r="B1661">
         <v>0.01346113310168873</v>
@@ -13663,7 +13663,7 @@
     </row>
     <row r="1664" spans="1:2">
       <c r="A1664">
-        <v>-0.001757445175088556</v>
+        <v>-0.001757445175088555</v>
       </c>
       <c r="B1664">
         <v>0.01723852328488107</v>
@@ -13751,7 +13751,7 @@
     </row>
     <row r="1675" spans="1:2">
       <c r="A1675">
-        <v>0.0007322568822554752</v>
+        <v>0.0007322568822554753</v>
       </c>
       <c r="B1675">
         <v>0.003148869486314876</v>
@@ -13775,7 +13775,7 @@
     </row>
     <row r="1678" spans="1:2">
       <c r="A1678">
-        <v>0.0001201932614354004</v>
+        <v>0.0001201932614354003</v>
       </c>
       <c r="B1678">
         <v>-0.003776154723714953</v>
@@ -13815,7 +13815,7 @@
     </row>
     <row r="1683" spans="1:2">
       <c r="A1683">
-        <v>-0.0004408256134844853</v>
+        <v>-0.0004408256134844852</v>
       </c>
       <c r="B1683">
         <v>-0.01095809218886279</v>
@@ -13903,7 +13903,7 @@
     </row>
     <row r="1694" spans="1:2">
       <c r="A1694">
-        <v>0.005578055742268029</v>
+        <v>0.00557805574226803</v>
       </c>
       <c r="B1694">
         <v>0.003768885784581233</v>
@@ -13943,7 +13943,7 @@
     </row>
     <row r="1699" spans="1:2">
       <c r="A1699">
-        <v>0.005903013716415961</v>
+        <v>0.00590301371641596</v>
       </c>
       <c r="B1699">
         <v>0.004684755913606953</v>
@@ -14031,7 +14031,7 @@
     </row>
     <row r="1710" spans="1:2">
       <c r="A1710">
-        <v>-0.007681959615538539</v>
+        <v>-0.00768195961553854</v>
       </c>
       <c r="B1710">
         <v>-0.01549600998613032</v>
@@ -14223,7 +14223,7 @@
     </row>
     <row r="1734" spans="1:2">
       <c r="A1734">
-        <v>-0.03105425928499464</v>
+        <v>-0.03105425928499463</v>
       </c>
       <c r="B1734">
         <v>0.007940036374287196</v>
@@ -14239,7 +14239,7 @@
     </row>
     <row r="1736" spans="1:2">
       <c r="A1736">
-        <v>-0.0333004439657655</v>
+        <v>-0.03330044396576549</v>
       </c>
       <c r="B1736">
         <v>0.007965510473825876</v>
@@ -14263,7 +14263,7 @@
     </row>
     <row r="1739" spans="1:2">
       <c r="A1739">
-        <v>-0.03523769489183024</v>
+        <v>-0.03523769489183023</v>
       </c>
       <c r="B1739">
         <v>0.01579882616849337</v>
@@ -14287,7 +14287,7 @@
     </row>
     <row r="1742" spans="1:2">
       <c r="A1742">
-        <v>-0.03604095879040159</v>
+        <v>-0.0360409587904016</v>
       </c>
       <c r="B1742">
         <v>0.01566179736042317</v>
@@ -14391,7 +14391,7 @@
     </row>
     <row r="1755" spans="1:2">
       <c r="A1755">
-        <v>-0.04251285051406714</v>
+        <v>-0.04251285051406715</v>
       </c>
       <c r="B1755">
         <v>0.03128504467241733</v>
@@ -14399,7 +14399,7 @@
     </row>
     <row r="1756" spans="1:2">
       <c r="A1756">
-        <v>-0.04381832127161207</v>
+        <v>-0.04381832127161208</v>
       </c>
       <c r="B1756">
         <v>0.03521884227630423</v>
@@ -14423,7 +14423,7 @@
     </row>
     <row r="1759" spans="1:2">
       <c r="A1759">
-        <v>-0.04815050194056193</v>
+        <v>-0.04815050194056194</v>
       </c>
       <c r="B1759">
         <v>0.0321488095089153</v>
@@ -14439,7 +14439,7 @@
     </row>
     <row r="1761" spans="1:2">
       <c r="A1761">
-        <v>-0.05208620573646969</v>
+        <v>-0.0520862057364697</v>
       </c>
       <c r="B1761">
         <v>0.02392476295507029</v>
@@ -14447,7 +14447,7 @@
     </row>
     <row r="1762" spans="1:2">
       <c r="A1762">
-        <v>-0.05338822570351775</v>
+        <v>-0.05338822570351776</v>
       </c>
       <c r="B1762">
         <v>0.02796135165564628</v>
@@ -14455,7 +14455,7 @@
     </row>
     <row r="1763" spans="1:2">
       <c r="A1763">
-        <v>-0.05522228332796231</v>
+        <v>-0.0552222833279623</v>
       </c>
       <c r="B1763">
         <v>0.01792804908024204</v>
@@ -14783,7 +14783,7 @@
     </row>
     <row r="1804" spans="1:2">
       <c r="A1804">
-        <v>-0.06574259020640472</v>
+        <v>-0.06574259020640473</v>
       </c>
       <c r="B1804">
         <v>0.06800661561673937</v>
@@ -14895,7 +14895,7 @@
     </row>
     <row r="1818" spans="1:2">
       <c r="A1818">
-        <v>-0.05715464678275048</v>
+        <v>-0.05715464678275049</v>
       </c>
       <c r="B1818">
         <v>0.05741006726041764</v>
@@ -14943,7 +14943,7 @@
     </row>
     <row r="1824" spans="1:2">
       <c r="A1824">
-        <v>-0.05539783852436037</v>
+        <v>-0.05539783852436036</v>
       </c>
       <c r="B1824">
         <v>0.05089901119234375</v>
@@ -14975,7 +14975,7 @@
     </row>
     <row r="1828" spans="1:2">
       <c r="A1828">
-        <v>-0.05489342850900669</v>
+        <v>-0.0548934285090067</v>
       </c>
       <c r="B1828">
         <v>0.03856392763476846</v>
@@ -14991,7 +14991,7 @@
     </row>
     <row r="1830" spans="1:2">
       <c r="A1830">
-        <v>-0.05414253351698167</v>
+        <v>-0.05414253351698168</v>
       </c>
       <c r="B1830">
         <v>0.04456719970315426</v>
@@ -15087,7 +15087,7 @@
     </row>
     <row r="1842" spans="1:2">
       <c r="A1842">
-        <v>-0.04639154098943937</v>
+        <v>-0.04639154098943938</v>
       </c>
       <c r="B1842">
         <v>0.04283123991822047</v>
@@ -15159,7 +15159,7 @@
     </row>
     <row r="1851" spans="1:2">
       <c r="A1851">
-        <v>-0.04465498142710324</v>
+        <v>-0.04465498142710323</v>
       </c>
       <c r="B1851">
         <v>0.03209434201992067</v>
@@ -15175,7 +15175,7 @@
     </row>
     <row r="1853" spans="1:2">
       <c r="A1853">
-        <v>-0.04293637733952392</v>
+        <v>-0.04293637733952391</v>
       </c>
       <c r="B1853">
         <v>0.03246416129812646</v>
@@ -15183,7 +15183,7 @@
     </row>
     <row r="1854" spans="1:2">
       <c r="A1854">
-        <v>-0.04240157326858519</v>
+        <v>-0.0424015732685852</v>
       </c>
       <c r="B1854">
         <v>0.03601753402959273</v>
@@ -15191,7 +15191,7 @@
     </row>
     <row r="1855" spans="1:2">
       <c r="A1855">
-        <v>-0.04154439878184366</v>
+        <v>-0.04154439878184365</v>
       </c>
       <c r="B1855">
         <v>0.03972174559910746</v>
@@ -15359,7 +15359,7 @@
     </row>
     <row r="1876" spans="1:2">
       <c r="A1876">
-        <v>-0.02684062148795398</v>
+        <v>-0.02684062148795397</v>
       </c>
       <c r="B1876">
         <v>0.03770317810484425</v>
@@ -15487,7 +15487,7 @@
     </row>
     <row r="1892" spans="1:2">
       <c r="A1892">
-        <v>-0.0219786479251536</v>
+        <v>-0.02197864792515359</v>
       </c>
       <c r="B1892">
         <v>0.01736684373495345</v>
@@ -15559,7 +15559,7 @@
     </row>
     <row r="1901" spans="1:2">
       <c r="A1901">
-        <v>-0.01368618161591397</v>
+        <v>-0.01368618161591398</v>
       </c>
       <c r="B1901">
         <v>0.02475200164482194</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="1906" spans="1:2">
       <c r="A1906">
-        <v>-0.009965631561005935</v>
+        <v>-0.009965631561005937</v>
       </c>
       <c r="B1906">
         <v>0.02522319375384363</v>
@@ -15615,7 +15615,7 @@
     </row>
     <row r="1908" spans="1:2">
       <c r="A1908">
-        <v>-0.009862936364586673</v>
+        <v>-0.009862936364586671</v>
       </c>
       <c r="B1908">
         <v>0.02108618508166105</v>
@@ -15775,7 +15775,7 @@
     </row>
     <row r="1928" spans="1:2">
       <c r="A1928">
-        <v>-0.007099080849668869</v>
+        <v>-0.00709908084966887</v>
       </c>
       <c r="B1928">
         <v>0.01190716361634614</v>
@@ -15855,7 +15855,7 @@
     </row>
     <row r="1938" spans="1:2">
       <c r="A1938">
-        <v>0.001753099089469781</v>
+        <v>0.00175309908946978</v>
       </c>
       <c r="B1938">
         <v>0.02021801298755488</v>
@@ -15999,7 +15999,7 @@
     </row>
     <row r="1956" spans="1:2">
       <c r="A1956">
-        <v>0.004237818155923872</v>
+        <v>0.004237818155923873</v>
       </c>
       <c r="B1956">
         <v>-0.009811048501419783</v>
@@ -16023,7 +16023,7 @@
     </row>
     <row r="1959" spans="1:2">
       <c r="A1959">
-        <v>0.007788492586655054</v>
+        <v>0.007788492586655053</v>
       </c>
       <c r="B1959">
         <v>-0.004452287181792247</v>
@@ -16143,7 +16143,7 @@
     </row>
     <row r="1974" spans="1:2">
       <c r="A1974">
-        <v>0.01539922383565171</v>
+        <v>0.01539922383565172</v>
       </c>
       <c r="B1974">
         <v>-0.00555203998000886</v>
@@ -16303,7 +16303,7 @@
     </row>
     <row r="1994" spans="1:2">
       <c r="A1994">
-        <v>0.02340877584517029</v>
+        <v>0.0234087758451703</v>
       </c>
       <c r="B1994">
         <v>-0.01473924842567254</v>
@@ -16399,7 +16399,7 @@
     </row>
     <row r="2006" spans="1:2">
       <c r="A2006">
-        <v>0.03086970792995802</v>
+        <v>0.03086970792995803</v>
       </c>
       <c r="B2006">
         <v>-0.01308508549709586</v>
@@ -16559,7 +16559,7 @@
     </row>
     <row r="2026" spans="1:2">
       <c r="A2026">
-        <v>0.04300447323204197</v>
+        <v>0.04300447323204196</v>
       </c>
       <c r="B2026">
         <v>-0.01496710064917517</v>
@@ -16727,7 +16727,7 @@
     </row>
     <row r="2047" spans="1:2">
       <c r="A2047">
-        <v>0.04130967176801109</v>
+        <v>0.0413096717680111</v>
       </c>
       <c r="B2047">
         <v>-0.04265262194783004</v>
@@ -16823,7 +16823,7 @@
     </row>
     <row r="2059" spans="1:2">
       <c r="A2059">
-        <v>0.05567954183144622</v>
+        <v>0.05567954183144621</v>
       </c>
       <c r="B2059">
         <v>-0.01778875911270905</v>
@@ -16895,7 +16895,7 @@
     </row>
     <row r="2068" spans="1:2">
       <c r="A2068">
-        <v>0.05310297477778395</v>
+        <v>0.05310297477778394</v>
       </c>
       <c r="B2068">
         <v>-0.05627162826300003</v>
@@ -16911,7 +16911,7 @@
     </row>
     <row r="2070" spans="1:2">
       <c r="A2070">
-        <v>0.05458079680224993</v>
+        <v>0.05458079680224994</v>
       </c>
       <c r="B2070">
         <v>-0.05413329945660994</v>
@@ -16959,7 +16959,7 @@
     </row>
     <row r="2076" spans="1:2">
       <c r="A2076">
-        <v>0.05954009743744249</v>
+        <v>0.05954009743744248</v>
       </c>
       <c r="B2076">
         <v>-0.04647678946460676</v>
@@ -16975,7 +16975,7 @@
     </row>
     <row r="2078" spans="1:2">
       <c r="A2078">
-        <v>0.06104776856877445</v>
+        <v>0.06104776856877444</v>
       </c>
       <c r="B2078">
         <v>-0.05875185439904929</v>
@@ -17079,7 +17079,7 @@
     </row>
     <row r="2091" spans="1:2">
       <c r="A2091">
-        <v>0.04619059277927373</v>
+        <v>0.04619059277927374</v>
       </c>
       <c r="B2091">
         <v>-0.09724851165288406</v>
@@ -17087,7 +17087,7 @@
     </row>
     <row r="2092" spans="1:2">
       <c r="A2092">
-        <v>0.04282849241954063</v>
+        <v>0.04282849241954062</v>
       </c>
       <c r="B2092">
         <v>-0.1047660442458618</v>
@@ -17135,7 +17135,7 @@
     </row>
     <row r="2098" spans="1:2">
       <c r="A2098">
-        <v>0.02507707909610386</v>
+        <v>0.02507707909610387</v>
       </c>
       <c r="B2098">
         <v>-0.09793272710078416</v>
@@ -17207,7 +17207,7 @@
     </row>
     <row r="2107" spans="1:2">
       <c r="A2107">
-        <v>0.0008686463609163306</v>
+        <v>0.0008686463609163305</v>
       </c>
       <c r="B2107">
         <v>-0.05523485820574647</v>
@@ -17343,7 +17343,7 @@
     </row>
     <row r="2124" spans="1:2">
       <c r="A2124">
-        <v>-0.07191516681901991</v>
+        <v>-0.07191516681901992</v>
       </c>
       <c r="B2124">
         <v>0.01005985626072992</v>
@@ -17415,7 +17415,7 @@
     </row>
     <row r="2133" spans="1:2">
       <c r="A2133">
-        <v>-0.1096836066727968</v>
+        <v>-0.1096836066727967</v>
       </c>
       <c r="B2133">
         <v>0.05415045095434179</v>
@@ -17487,7 +17487,7 @@
     </row>
     <row r="2142" spans="1:2">
       <c r="A2142">
-        <v>-0.1217313898196337</v>
+        <v>-0.1217313898196336</v>
       </c>
       <c r="B2142">
         <v>0.135325824584168</v>
@@ -18023,7 +18023,7 @@
     </row>
     <row r="2209" spans="1:2">
       <c r="A2209">
-        <v>0.04347854374959292</v>
+        <v>0.04347854374959293</v>
       </c>
       <c r="B2209">
         <v>-0.01529862324396047</v>
@@ -18103,7 +18103,7 @@
     </row>
     <row r="2219" spans="1:2">
       <c r="A2219">
-        <v>0.0648671503722329</v>
+        <v>0.06486715037223288</v>
       </c>
       <c r="B2219">
         <v>-0.03506810661034443</v>
@@ -18135,7 +18135,7 @@
     </row>
     <row r="2223" spans="1:2">
       <c r="A2223">
-        <v>0.0777120411410229</v>
+        <v>0.07771204114102288</v>
       </c>
       <c r="B2223">
         <v>-0.03884737548521944</v>
@@ -18207,7 +18207,7 @@
     </row>
     <row r="2232" spans="1:2">
       <c r="A2232">
-        <v>0.09403494614373356</v>
+        <v>0.09403494614373355</v>
       </c>
       <c r="B2232">
         <v>-0.04928892295706255</v>
@@ -18231,7 +18231,7 @@
     </row>
     <row r="2235" spans="1:2">
       <c r="A2235">
-        <v>0.09594357791249308</v>
+        <v>0.09594357791249307</v>
       </c>
       <c r="B2235">
         <v>-0.06027413750971</v>
@@ -18271,7 +18271,7 @@
     </row>
     <row r="2240" spans="1:2">
       <c r="A2240">
-        <v>0.09704131078110775</v>
+        <v>0.09704131078110774</v>
       </c>
       <c r="B2240">
         <v>-0.1114273298169266</v>
@@ -18287,7 +18287,7 @@
     </row>
     <row r="2242" spans="1:2">
       <c r="A2242">
-        <v>0.09867745648998646</v>
+        <v>0.09867745648998645</v>
       </c>
       <c r="B2242">
         <v>-0.098332124020867</v>
@@ -18303,7 +18303,7 @@
     </row>
     <row r="2244" spans="1:2">
       <c r="A2244">
-        <v>0.09940509081208643</v>
+        <v>0.09940509081208641</v>
       </c>
       <c r="B2244">
         <v>-0.08280175415865987</v>
@@ -18447,7 +18447,7 @@
     </row>
     <row r="2262" spans="1:2">
       <c r="A2262">
-        <v>0.1010759386640987</v>
+        <v>0.1010759386640988</v>
       </c>
       <c r="B2262">
         <v>-0.09622096478020525</v>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="2265" spans="1:2">
       <c r="A2265">
-        <v>0.09755804164997922</v>
+        <v>0.09755804164997921</v>
       </c>
       <c r="B2265">
         <v>-0.09292542105205692</v>
@@ -18479,7 +18479,7 @@
     </row>
     <row r="2266" spans="1:2">
       <c r="A2266">
-        <v>0.09585432383946529</v>
+        <v>0.09585432383946528</v>
       </c>
       <c r="B2266">
         <v>-0.104815910269088</v>
@@ -18591,7 +18591,7 @@
     </row>
     <row r="2280" spans="1:2">
       <c r="A2280">
-        <v>0.07396049539525905</v>
+        <v>0.07396049539525906</v>
       </c>
       <c r="B2280">
         <v>-0.1001389749452297</v>
@@ -18607,7 +18607,7 @@
     </row>
     <row r="2282" spans="1:2">
       <c r="A2282">
-        <v>0.07202980162334316</v>
+        <v>0.07202980162334315</v>
       </c>
       <c r="B2282">
         <v>-0.08261724941024129</v>
@@ -18647,7 +18647,7 @@
     </row>
     <row r="2287" spans="1:2">
       <c r="A2287">
-        <v>0.0642408616670949</v>
+        <v>0.06424086166709489</v>
       </c>
       <c r="B2287">
         <v>-0.08793718393485639</v>
@@ -18671,7 +18671,7 @@
     </row>
     <row r="2290" spans="1:2">
       <c r="A2290">
-        <v>0.05761185469343378</v>
+        <v>0.05761185469343379</v>
       </c>
       <c r="B2290">
         <v>-0.08522291749206445</v>
@@ -18703,7 +18703,7 @@
     </row>
     <row r="2294" spans="1:2">
       <c r="A2294">
-        <v>0.05202548727874665</v>
+        <v>0.05202548727874664</v>
       </c>
       <c r="B2294">
         <v>-0.080929640132128</v>
@@ -18711,7 +18711,7 @@
     </row>
     <row r="2295" spans="1:2">
       <c r="A2295">
-        <v>0.05090612644451002</v>
+        <v>0.05090612644451003</v>
       </c>
       <c r="B2295">
         <v>-0.06148587165238695</v>
@@ -18751,7 +18751,7 @@
     </row>
     <row r="2300" spans="1:2">
       <c r="A2300">
-        <v>0.04513793478663443</v>
+        <v>0.04513793478663442</v>
       </c>
       <c r="B2300">
         <v>-0.06197265795430829</v>
@@ -18951,7 +18951,7 @@
     </row>
     <row r="2325" spans="1:2">
       <c r="A2325">
-        <v>0.02580912866050898</v>
+        <v>0.02580912866050897</v>
       </c>
       <c r="B2325">
         <v>-0.03847455264423072</v>
@@ -18999,7 +18999,7 @@
     </row>
     <row r="2331" spans="1:2">
       <c r="A2331">
-        <v>0.02184373578093883</v>
+        <v>0.02184373578093882</v>
       </c>
       <c r="B2331">
         <v>-0.03166648516025417</v>
@@ -19263,7 +19263,7 @@
     </row>
     <row r="2364" spans="1:2">
       <c r="A2364">
-        <v>0.01588549731815311</v>
+        <v>0.0158854973181531</v>
       </c>
       <c r="B2364">
         <v>-0.0007654687970615193</v>
@@ -19343,7 +19343,7 @@
     </row>
     <row r="2374" spans="1:2">
       <c r="A2374">
-        <v>0.02042575628683929</v>
+        <v>0.0204257562868393</v>
       </c>
       <c r="B2374">
         <v>0.002810811013599146</v>
@@ -19471,7 +19471,7 @@
     </row>
     <row r="2390" spans="1:2">
       <c r="A2390">
-        <v>0.02356838292655614</v>
+        <v>0.02356838292655615</v>
       </c>
       <c r="B2390">
         <v>-0.007428832878559</v>
@@ -19519,7 +19519,7 @@
     </row>
     <row r="2396" spans="1:2">
       <c r="A2396">
-        <v>0.02852910134679321</v>
+        <v>0.02852910134679322</v>
       </c>
       <c r="B2396">
         <v>0.0008700052396597435</v>
@@ -19631,7 +19631,7 @@
     </row>
     <row r="2410" spans="1:2">
       <c r="A2410">
-        <v>0.04920020165931308</v>
+        <v>0.04920020165931307</v>
       </c>
       <c r="B2410">
         <v>0.00149846174160384</v>
@@ -19647,7 +19647,7 @@
     </row>
     <row r="2412" spans="1:2">
       <c r="A2412">
-        <v>0.05150099023398536</v>
+        <v>0.05150099023398535</v>
       </c>
       <c r="B2412">
         <v>-0.01942461276736696</v>
@@ -19775,7 +19775,7 @@
     </row>
     <row r="2428" spans="1:2">
       <c r="A2428">
-        <v>0.06493012967596742</v>
+        <v>0.06493012967596744</v>
       </c>
       <c r="B2428">
         <v>-0.05342634792959622</v>
@@ -19831,7 +19831,7 @@
     </row>
     <row r="2435" spans="1:2">
       <c r="A2435">
-        <v>0.06849425284980354</v>
+        <v>0.06849425284980352</v>
       </c>
       <c r="B2435">
         <v>-0.0303493604509546</v>
@@ -20727,7 +20727,7 @@
     </row>
     <row r="2547" spans="1:2">
       <c r="A2547">
-        <v>-0.001303273015470866</v>
+        <v>-0.001303273015472541</v>
       </c>
       <c r="B2547">
         <v>-0.01776699075073385</v>
@@ -21223,7 +21223,7 @@
     </row>
     <row r="2609" spans="1:2">
       <c r="A2609">
-        <v>-0.07068645833378281</v>
+        <v>-0.0706864583337828</v>
       </c>
       <c r="B2609">
         <v>0.04748420576323653</v>
@@ -21303,7 +21303,7 @@
     </row>
     <row r="2619" spans="1:2">
       <c r="A2619">
-        <v>-0.08900008566160014</v>
+        <v>-0.08900008566160016</v>
       </c>
       <c r="B2619">
         <v>0.06111073321548766</v>
@@ -21311,7 +21311,7 @@
     </row>
     <row r="2620" spans="1:2">
       <c r="A2620">
-        <v>-0.0914735925963121</v>
+        <v>-0.09147359259631209</v>
       </c>
       <c r="B2620">
         <v>0.02594916761669008</v>
@@ -21439,7 +21439,7 @@
     </row>
     <row r="2636" spans="1:2">
       <c r="A2636">
-        <v>-0.09482737176367842</v>
+        <v>-0.09482737176367843</v>
       </c>
       <c r="B2636">
         <v>0.08784310963152198</v>
@@ -21487,7 +21487,7 @@
     </row>
     <row r="2642" spans="1:2">
       <c r="A2642">
-        <v>-0.09611345932536428</v>
+        <v>-0.09611345932536426</v>
       </c>
       <c r="B2642">
         <v>0.1245082136411972</v>
@@ -21495,7 +21495,7 @@
     </row>
     <row r="2643" spans="1:2">
       <c r="A2643">
-        <v>-0.09735498810891122</v>
+        <v>-0.09735498810891123</v>
       </c>
       <c r="B2643">
         <v>0.09326153666998271</v>
@@ -21527,7 +21527,7 @@
     </row>
     <row r="2647" spans="1:2">
       <c r="A2647">
-        <v>-0.09880439998125534</v>
+        <v>-0.09880439998125536</v>
       </c>
       <c r="B2647">
         <v>0.09446069072892938</v>
@@ -21559,7 +21559,7 @@
     </row>
     <row r="2651" spans="1:2">
       <c r="A2651">
-        <v>-0.09806293837130289</v>
+        <v>-0.09806293837130288</v>
       </c>
       <c r="B2651">
         <v>0.0961386363572716</v>
@@ -21567,7 +21567,7 @@
     </row>
     <row r="2652" spans="1:2">
       <c r="A2652">
-        <v>-0.09659283620931364</v>
+        <v>-0.09659283620931362</v>
       </c>
       <c r="B2652">
         <v>0.1064223167814333</v>
@@ -21599,7 +21599,7 @@
     </row>
     <row r="2656" spans="1:2">
       <c r="A2656">
-        <v>-0.09252669775560664</v>
+        <v>-0.09252669775560662</v>
       </c>
       <c r="B2656">
         <v>0.08009101107300687</v>
@@ -21623,7 +21623,7 @@
     </row>
     <row r="2659" spans="1:2">
       <c r="A2659">
-        <v>-0.08895816726668807</v>
+        <v>-0.08895816726668808</v>
       </c>
       <c r="B2659">
         <v>0.07652189242087326</v>
@@ -21647,7 +21647,7 @@
     </row>
     <row r="2662" spans="1:2">
       <c r="A2662">
-        <v>-0.08319989594467776</v>
+        <v>-0.08319989594467775</v>
       </c>
       <c r="B2662">
         <v>0.1052427679485533</v>
@@ -21655,7 +21655,7 @@
     </row>
     <row r="2663" spans="1:2">
       <c r="A2663">
-        <v>-0.08188766315369254</v>
+        <v>-0.08188766315369253</v>
       </c>
       <c r="B2663">
         <v>0.08592830849922573</v>
@@ -21687,7 +21687,7 @@
     </row>
     <row r="2667" spans="1:2">
       <c r="A2667">
-        <v>-0.07398123204141321</v>
+        <v>-0.0739812320414132</v>
       </c>
       <c r="B2667">
         <v>0.09257237749048342</v>
@@ -21719,7 +21719,7 @@
     </row>
     <row r="2671" spans="1:2">
       <c r="A2671">
-        <v>-0.06713847410924992</v>
+        <v>-0.06713847410924993</v>
       </c>
       <c r="B2671">
         <v>0.09221491890722167</v>
@@ -21743,7 +21743,7 @@
     </row>
     <row r="2674" spans="1:2">
       <c r="A2674">
-        <v>-0.06192741400760741</v>
+        <v>-0.0619274140076074</v>
       </c>
       <c r="B2674">
         <v>0.08541709109006357</v>
@@ -21807,7 +21807,7 @@
     </row>
     <row r="2682" spans="1:2">
       <c r="A2682">
-        <v>-0.04596236135075276</v>
+        <v>-0.04596236135075277</v>
       </c>
       <c r="B2682">
         <v>0.08098254219876821</v>
@@ -21823,7 +21823,7 @@
     </row>
     <row r="2684" spans="1:2">
       <c r="A2684">
-        <v>-0.04255068073886384</v>
+        <v>-0.04255068073886383</v>
       </c>
       <c r="B2684">
         <v>0.07124869068473849</v>
@@ -21855,7 +21855,7 @@
     </row>
     <row r="2688" spans="1:2">
       <c r="A2688">
-        <v>-0.03776552657856693</v>
+        <v>-0.03776552657856692</v>
       </c>
       <c r="B2688">
         <v>0.06068018680096898</v>
@@ -22031,7 +22031,7 @@
     </row>
     <row r="2710" spans="1:2">
       <c r="A2710">
-        <v>-0.006320602617013686</v>
+        <v>-0.006320602617013685</v>
       </c>
       <c r="B2710">
         <v>0.03362939592387759</v>
@@ -22055,7 +22055,7 @@
     </row>
     <row r="2713" spans="1:2">
       <c r="A2713">
-        <v>-0.002657850797226274</v>
+        <v>-0.002657850797226275</v>
       </c>
       <c r="B2713">
         <v>0.03146570166627827</v>
@@ -22151,7 +22151,7 @@
     </row>
     <row r="2725" spans="1:2">
       <c r="A2725">
-        <v>0.005561155944832863</v>
+        <v>0.005561155944832864</v>
       </c>
       <c r="B2725">
         <v>0.002592389349829638</v>
@@ -22183,7 +22183,7 @@
     </row>
     <row r="2729" spans="1:2">
       <c r="A2729">
-        <v>0.008406607622661369</v>
+        <v>0.008406607622661367</v>
       </c>
       <c r="B2729">
         <v>0.01114513691730323</v>
@@ -22391,7 +22391,7 @@
     </row>
     <row r="2755" spans="1:2">
       <c r="A2755">
-        <v>0.02702540450096971</v>
+        <v>0.0270254045009697</v>
       </c>
       <c r="B2755">
         <v>-0.02047869109026479</v>
@@ -22447,7 +22447,7 @@
     </row>
     <row r="2762" spans="1:2">
       <c r="A2762">
-        <v>0.03281422292694426</v>
+        <v>0.03281422292694427</v>
       </c>
       <c r="B2762">
         <v>-0.02403689706950374</v>
@@ -22471,7 +22471,7 @@
     </row>
     <row r="2765" spans="1:2">
       <c r="A2765">
-        <v>0.03500738598659865</v>
+        <v>0.03500738598659866</v>
       </c>
       <c r="B2765">
         <v>-0.02024008729645432</v>
@@ -22607,7 +22607,7 @@
     </row>
     <row r="2782" spans="1:2">
       <c r="A2782">
-        <v>0.04511563568540318</v>
+        <v>0.04511563568540317</v>
       </c>
       <c r="B2782">
         <v>-0.005131543902574087</v>
@@ -22791,7 +22791,7 @@
     </row>
     <row r="2805" spans="1:2">
       <c r="A2805">
-        <v>0.06382537588876266</v>
+        <v>0.06382537588876265</v>
       </c>
       <c r="B2805">
         <v>0.005220405251169957</v>
@@ -23095,7 +23095,7 @@
     </row>
     <row r="2843" spans="1:2">
       <c r="A2843">
-        <v>0.05738225088469724</v>
+        <v>0.05738225088469725</v>
       </c>
       <c r="B2843">
         <v>-0.0606923727276385</v>
@@ -23111,7 +23111,7 @@
     </row>
     <row r="2845" spans="1:2">
       <c r="A2845">
-        <v>0.05402881222582735</v>
+        <v>0.05402881222582736</v>
       </c>
       <c r="B2845">
         <v>-0.02702808161071513</v>
@@ -23167,7 +23167,7 @@
     </row>
     <row r="2852" spans="1:2">
       <c r="A2852">
-        <v>0.04715570041796247</v>
+        <v>0.04715570041796246</v>
       </c>
       <c r="B2852">
         <v>-0.06721801585112797</v>
@@ -23239,7 +23239,7 @@
     </row>
     <row r="2861" spans="1:2">
       <c r="A2861">
-        <v>0.04172082675707933</v>
+        <v>0.04172082675707934</v>
       </c>
       <c r="B2861">
         <v>-0.05490530421152862</v>
@@ -23271,7 +23271,7 @@
     </row>
     <row r="2865" spans="1:2">
       <c r="A2865">
-        <v>0.03971088481009538</v>
+        <v>0.03971088481009537</v>
       </c>
       <c r="B2865">
         <v>-0.04480134408784942</v>
@@ -23295,7 +23295,7 @@
     </row>
     <row r="2868" spans="1:2">
       <c r="A2868">
-        <v>0.03814709465744978</v>
+        <v>0.03814709465744979</v>
       </c>
       <c r="B2868">
         <v>-0.02701469688736946</v>
@@ -23311,7 +23311,7 @@
     </row>
     <row r="2870" spans="1:2">
       <c r="A2870">
-        <v>0.03671058235257836</v>
+        <v>0.03671058235257837</v>
       </c>
       <c r="B2870">
         <v>-0.04540864072663719</v>
@@ -23327,7 +23327,7 @@
     </row>
     <row r="2872" spans="1:2">
       <c r="A2872">
-        <v>0.0372787728728336</v>
+        <v>0.03727877287283361</v>
       </c>
       <c r="B2872">
         <v>-0.01717343979320951</v>
@@ -23431,7 +23431,7 @@
     </row>
     <row r="2885" spans="1:2">
       <c r="A2885">
-        <v>0.0222110562017387</v>
+        <v>0.02221105620173869</v>
       </c>
       <c r="B2885">
         <v>-0.02985322793574152</v>
@@ -23439,7 +23439,7 @@
     </row>
     <row r="2886" spans="1:2">
       <c r="A2886">
-        <v>0.02133281721435636</v>
+        <v>0.02133281721435635</v>
       </c>
       <c r="B2886">
         <v>-0.03778745898156721</v>
@@ -23527,7 +23527,7 @@
     </row>
     <row r="2897" spans="1:2">
       <c r="A2897">
-        <v>0.01518122004518695</v>
+        <v>0.01518122004518696</v>
       </c>
       <c r="B2897">
         <v>-0.01169409612852323</v>
@@ -23623,7 +23623,7 @@
     </row>
     <row r="2909" spans="1:2">
       <c r="A2909">
-        <v>0.005572724458389303</v>
+        <v>0.005572724458389304</v>
       </c>
       <c r="B2909">
         <v>-0.008939239627565598</v>
@@ -23671,7 +23671,7 @@
     </row>
     <row r="2915" spans="1:2">
       <c r="A2915">
-        <v>0.004936638162024528</v>
+        <v>0.004936638162024529</v>
       </c>
       <c r="B2915">
         <v>-0.01144256568107593</v>
@@ -23679,7 +23679,7 @@
     </row>
     <row r="2916" spans="1:2">
       <c r="A2916">
-        <v>0.004855556022738483</v>
+        <v>0.004855556022738482</v>
       </c>
       <c r="B2916">
         <v>-0.01472628522487529</v>
@@ -23767,7 +23767,7 @@
     </row>
     <row r="2927" spans="1:2">
       <c r="A2927">
-        <v>0.006465782986580329</v>
+        <v>0.00646578298658033</v>
       </c>
       <c r="B2927">
         <v>0.002039542030455088</v>
@@ -23775,7 +23775,7 @@
     </row>
     <row r="2928" spans="1:2">
       <c r="A2928">
-        <v>0.006871060481370497</v>
+        <v>0.006871060481370498</v>
       </c>
       <c r="B2928">
         <v>0.0001181594721009205</v>
@@ -23935,7 +23935,7 @@
     </row>
     <row r="2948" spans="1:2">
       <c r="A2948">
-        <v>0.009783980513143893</v>
+        <v>0.009783980513143895</v>
       </c>
       <c r="B2948">
         <v>-0.005626249418934748</v>
@@ -23943,7 +23943,7 @@
     </row>
     <row r="2949" spans="1:2">
       <c r="A2949">
-        <v>0.009452631811382289</v>
+        <v>0.009452631811382287</v>
       </c>
       <c r="B2949">
         <v>-0.007586567204433514</v>
@@ -23951,7 +23951,7 @@
     </row>
     <row r="2950" spans="1:2">
       <c r="A2950">
-        <v>0.008915730607466589</v>
+        <v>0.008915730607466591</v>
       </c>
       <c r="B2950">
         <v>-0.009782419709389423</v>
@@ -23999,7 +23999,7 @@
     </row>
     <row r="2956" spans="1:2">
       <c r="A2956">
-        <v>0.005519961667575079</v>
+        <v>0.00551996166757508</v>
       </c>
       <c r="B2956">
         <v>-0.0161773394480873</v>
@@ -24007,7 +24007,7 @@
     </row>
     <row r="2957" spans="1:2">
       <c r="A2957">
-        <v>0.005261039489488566</v>
+        <v>0.005261039489488567</v>
       </c>
       <c r="B2957">
         <v>-0.01621165987173345</v>
@@ -24015,7 +24015,7 @@
     </row>
     <row r="2958" spans="1:2">
       <c r="A2958">
-        <v>0.005278540908760057</v>
+        <v>0.005278540908760058</v>
       </c>
       <c r="B2958">
         <v>-0.01542002063620096</v>
@@ -24031,7 +24031,7 @@
     </row>
     <row r="2960" spans="1:2">
       <c r="A2960">
-        <v>0.005483248494838515</v>
+        <v>0.005483248494838514</v>
       </c>
       <c r="B2960">
         <v>-0.01301062522575336</v>
@@ -24055,7 +24055,7 @@
     </row>
     <row r="2963" spans="1:2">
       <c r="A2963">
-        <v>0.006247638122969282</v>
+        <v>0.006247638122969283</v>
       </c>
       <c r="B2963">
         <v>-0.008405759491936671</v>
@@ -24079,7 +24079,7 @@
     </row>
     <row r="2966" spans="1:2">
       <c r="A2966">
-        <v>0.007580716107469372</v>
+        <v>0.007580716107469371</v>
       </c>
       <c r="B2966">
         <v>-0.002817339573001121</v>
@@ -24111,7 +24111,7 @@
     </row>
     <row r="2970" spans="1:2">
       <c r="A2970">
-        <v>0.007363965430277175</v>
+        <v>0.007363965430277174</v>
       </c>
       <c r="B2970">
         <v>-0.001029331128651556</v>
@@ -24143,7 +24143,7 @@
     </row>
     <row r="2974" spans="1:2">
       <c r="A2974">
-        <v>0.004521042528326685</v>
+        <v>0.004521042528326684</v>
       </c>
       <c r="B2974">
         <v>-0.005953001108096601</v>
@@ -24183,7 +24183,7 @@
     </row>
     <row r="2979" spans="1:2">
       <c r="A2979">
-        <v>0.0003280885292482627</v>
+        <v>0.0003280885292482626</v>
       </c>
       <c r="B2979">
         <v>-0.0119565465892828</v>
@@ -24247,7 +24247,7 @@
     </row>
     <row r="2987" spans="1:2">
       <c r="A2987">
-        <v>0.0006608427419539774</v>
+        <v>0.0006608427419539776</v>
       </c>
       <c r="B2987">
         <v>-0.002317700584331561</v>
@@ -24383,7 +24383,7 @@
     </row>
     <row r="3004" spans="1:2">
       <c r="A3004">
-        <v>-0.003117683190615031</v>
+        <v>-0.003117683190615032</v>
       </c>
       <c r="B3004">
         <v>-0.006495997076095605</v>
@@ -24519,7 +24519,7 @@
     </row>
     <row r="3021" spans="1:2">
       <c r="A3021">
-        <v>0.0006740092039041755</v>
+        <v>0.0006740092039041756</v>
       </c>
       <c r="B3021">
         <v>0.005455839828733211</v>
@@ -24527,7 +24527,7 @@
     </row>
     <row r="3022" spans="1:2">
       <c r="A3022">
-        <v>0.0003602402475161042</v>
+        <v>0.0003602402475161041</v>
       </c>
       <c r="B3022">
         <v>0.00335499125396499</v>
@@ -24583,7 +24583,7 @@
     </row>
     <row r="3029" spans="1:2">
       <c r="A3029">
-        <v>-0.0008470335612879857</v>
+        <v>-0.0008470335612879856</v>
       </c>
       <c r="B3029">
         <v>-0.002748889708061419</v>
@@ -24887,7 +24887,7 @@
     </row>
     <row r="3067" spans="1:2">
       <c r="A3067">
-        <v>0.03056961028199529</v>
+        <v>0.0305696102819953</v>
       </c>
       <c r="B3067">
         <v>-0.03575081060418572</v>
@@ -24943,7 +24943,7 @@
     </row>
     <row r="3074" spans="1:2">
       <c r="A3074">
-        <v>0.04214031795477607</v>
+        <v>0.04214031795477608</v>
       </c>
       <c r="B3074">
         <v>-0.01539165791948705</v>
@@ -24975,7 +24975,7 @@
     </row>
     <row r="3078" spans="1:2">
       <c r="A3078">
-        <v>0.04733562663398291</v>
+        <v>0.04733562663398292</v>
       </c>
       <c r="B3078">
         <v>-0.0270914845781296</v>
@@ -25055,7 +25055,7 @@
     </row>
     <row r="3088" spans="1:2">
       <c r="A3088">
-        <v>0.05908334265542804</v>
+        <v>0.05908334265542803</v>
       </c>
       <c r="B3088">
         <v>-0.04429778211492463</v>
@@ -25103,7 +25103,7 @@
     </row>
     <row r="3094" spans="1:2">
       <c r="A3094">
-        <v>0.05908659925804261</v>
+        <v>0.0590865992580426</v>
       </c>
       <c r="B3094">
         <v>-0.06240967128668684</v>
@@ -25119,7 +25119,7 @@
     </row>
     <row r="3096" spans="1:2">
       <c r="A3096">
-        <v>0.06023149935940901</v>
+        <v>0.060231499359409</v>
       </c>
       <c r="B3096">
         <v>-0.05099507430914541</v>
@@ -25191,7 +25191,7 @@
     </row>
     <row r="3105" spans="1:2">
       <c r="A3105">
-        <v>0.07112879573168908</v>
+        <v>0.07112879573168909</v>
       </c>
       <c r="B3105">
         <v>-0.03319757671261625</v>
@@ -25215,7 +25215,7 @@
     </row>
     <row r="3108" spans="1:2">
       <c r="A3108">
-        <v>0.07656831993160593</v>
+        <v>0.07656831993160594</v>
       </c>
       <c r="B3108">
         <v>-0.02233258841766705</v>
@@ -25263,7 +25263,7 @@
     </row>
     <row r="3114" spans="1:2">
       <c r="A3114">
-        <v>0.08214742474916795</v>
+        <v>0.08214742474916793</v>
       </c>
       <c r="B3114">
         <v>-0.06568966357085326</v>
@@ -25311,7 +25311,7 @@
     </row>
     <row r="3120" spans="1:2">
       <c r="A3120">
-        <v>0.08593692369458603</v>
+        <v>0.08593692369458601</v>
       </c>
       <c r="B3120">
         <v>-0.06897665124097685</v>
@@ -25343,7 +25343,7 @@
     </row>
     <row r="3124" spans="1:2">
       <c r="A3124">
-        <v>0.08703704010156132</v>
+        <v>0.08703704010156134</v>
       </c>
       <c r="B3124">
         <v>-0.08730036220009518</v>
@@ -25423,7 +25423,7 @@
     </row>
     <row r="3134" spans="1:2">
       <c r="A3134">
-        <v>0.09183868854421309</v>
+        <v>0.09183868854421311</v>
       </c>
       <c r="B3134">
         <v>-0.09697951286991158</v>
@@ -25439,7 +25439,7 @@
     </row>
     <row r="3136" spans="1:2">
       <c r="A3136">
-        <v>0.09587767381336348</v>
+        <v>0.09587767381336347</v>
       </c>
       <c r="B3136">
         <v>-0.06813358669357061</v>
@@ -26711,7 +26711,7 @@
     </row>
     <row r="3295" spans="1:2">
       <c r="A3295">
-        <v>-0.05709316117785644</v>
+        <v>-0.05709316117785643</v>
       </c>
       <c r="B3295">
         <v>0.02688112771396067</v>
@@ -26735,7 +26735,7 @@
     </row>
     <row r="3298" spans="1:2">
       <c r="A3298">
-        <v>-0.05780300253232822</v>
+        <v>-0.05780300253232821</v>
       </c>
       <c r="B3298">
         <v>0.0228141014717691</v>
@@ -26887,7 +26887,7 @@
     </row>
     <row r="3317" spans="1:2">
       <c r="A3317">
-        <v>-0.07951685777437451</v>
+        <v>-0.07951685777437452</v>
       </c>
       <c r="B3317">
         <v>0.01751603559192327</v>
@@ -26895,7 +26895,7 @@
     </row>
     <row r="3318" spans="1:2">
       <c r="A3318">
-        <v>-0.08053575307756763</v>
+        <v>-0.08053575307756765</v>
       </c>
       <c r="B3318">
         <v>0.03650858531114931</v>
@@ -26919,7 +26919,7 @@
     </row>
     <row r="3321" spans="1:2">
       <c r="A3321">
-        <v>-0.08406175655045017</v>
+        <v>-0.08406175655045016</v>
       </c>
       <c r="B3321">
         <v>0.02630173226164034</v>
@@ -26959,7 +26959,7 @@
     </row>
     <row r="3326" spans="1:2">
       <c r="A3326">
-        <v>-0.08420012738860277</v>
+        <v>-0.08420012738860279</v>
       </c>
       <c r="B3326">
         <v>0.0661666816548121</v>
@@ -26975,7 +26975,7 @@
     </row>
     <row r="3328" spans="1:2">
       <c r="A3328">
-        <v>-0.08441784874875968</v>
+        <v>-0.08441784874875967</v>
       </c>
       <c r="B3328">
         <v>0.04376794458088495</v>
@@ -27015,7 +27015,7 @@
     </row>
     <row r="3333" spans="1:2">
       <c r="A3333">
-        <v>-0.0787979064069546</v>
+        <v>-0.07879790640695458</v>
       </c>
       <c r="B3333">
         <v>0.08896760540512094</v>
@@ -27095,7 +27095,7 @@
     </row>
     <row r="3343" spans="1:2">
       <c r="A3343">
-        <v>-0.07502101680221127</v>
+        <v>-0.07502101680221125</v>
       </c>
       <c r="B3343">
         <v>0.07140705976947848</v>
@@ -27111,7 +27111,7 @@
     </row>
     <row r="3345" spans="1:2">
       <c r="A3345">
-        <v>-0.07289836351616655</v>
+        <v>-0.07289836351616653</v>
       </c>
       <c r="B3345">
         <v>0.09820628268722897</v>
@@ -27159,7 +27159,7 @@
     </row>
     <row r="3351" spans="1:2">
       <c r="A3351">
-        <v>-0.06950602538067585</v>
+        <v>-0.06950602538067584</v>
       </c>
       <c r="B3351">
         <v>0.06738334065231433</v>
@@ -27207,7 +27207,7 @@
     </row>
     <row r="3357" spans="1:2">
       <c r="A3357">
-        <v>-0.06744646723217798</v>
+        <v>-0.067446467232178</v>
       </c>
       <c r="B3357">
         <v>0.03003795952742871</v>
@@ -27375,7 +27375,7 @@
     </row>
     <row r="3378" spans="1:2">
       <c r="A3378">
-        <v>-0.03694876289813757</v>
+        <v>-0.03694876289813756</v>
       </c>
       <c r="B3378">
         <v>0.05346904443514156</v>
@@ -27431,7 +27431,7 @@
     </row>
     <row r="3385" spans="1:2">
       <c r="A3385">
-        <v>-0.03511608338777806</v>
+        <v>-0.03511608338777807</v>
       </c>
       <c r="B3385">
         <v>0.02302512277070168</v>
@@ -27439,7 +27439,7 @@
     </row>
     <row r="3386" spans="1:2">
       <c r="A3386">
-        <v>-0.03566263426930728</v>
+        <v>-0.03566263426930729</v>
       </c>
       <c r="B3386">
         <v>0.02804287973616315</v>
@@ -27455,7 +27455,7 @@
     </row>
     <row r="3388" spans="1:2">
       <c r="A3388">
-        <v>-0.03543884927945335</v>
+        <v>-0.03543884927945334</v>
       </c>
       <c r="B3388">
         <v>0.03857758422811752</v>
@@ -27479,7 +27479,7 @@
     </row>
     <row r="3391" spans="1:2">
       <c r="A3391">
-        <v>-0.03499436775820709</v>
+        <v>-0.0349943677582071</v>
       </c>
       <c r="B3391">
         <v>0.02608819215082114</v>
@@ -27487,7 +27487,7 @@
     </row>
     <row r="3392" spans="1:2">
       <c r="A3392">
-        <v>-0.03415144290693737</v>
+        <v>-0.03415144290693736</v>
       </c>
       <c r="B3392">
         <v>0.03315817039654689</v>
@@ -27711,7 +27711,7 @@
     </row>
     <row r="3420" spans="1:2">
       <c r="A3420">
-        <v>-0.01791632034478562</v>
+        <v>-0.01791632034478563</v>
       </c>
       <c r="B3420">
         <v>0.009648414806145311</v>
@@ -27719,7 +27719,7 @@
     </row>
     <row r="3421" spans="1:2">
       <c r="A3421">
-        <v>-0.0181198387489042</v>
+        <v>-0.01811983874890421</v>
       </c>
       <c r="B3421">
         <v>0.01410626045956498</v>
@@ -27815,7 +27815,7 @@
     </row>
     <row r="3433" spans="1:2">
       <c r="A3433">
-        <v>-0.016207070804094</v>
+        <v>-0.01620707080409399</v>
       </c>
       <c r="B3433">
         <v>0.008733756828960715</v>
@@ -28143,7 +28143,7 @@
     </row>
     <row r="3474" spans="1:2">
       <c r="A3474">
-        <v>-0.008784880928230675</v>
+        <v>-0.008784880928230673</v>
       </c>
       <c r="B3474">
         <v>0.01625785548364966</v>
@@ -28175,7 +28175,7 @@
     </row>
     <row r="3478" spans="1:2">
       <c r="A3478">
-        <v>-0.005461111683609198</v>
+        <v>-0.005461111683609197</v>
       </c>
       <c r="B3478">
         <v>0.02041643553639272</v>
@@ -28199,7 +28199,7 @@
     </row>
     <row r="3481" spans="1:2">
       <c r="A3481">
-        <v>-0.00361118056114702</v>
+        <v>-0.003611180561147019</v>
       </c>
       <c r="B3481">
         <v>0.02028737907899991</v>
@@ -28207,7 +28207,7 @@
     </row>
     <row r="3482" spans="1:2">
       <c r="A3482">
-        <v>-0.00348629236633773</v>
+        <v>-0.003486292366337731</v>
       </c>
       <c r="B3482">
         <v>0.01946307245063394</v>
@@ -28255,7 +28255,7 @@
     </row>
     <row r="3488" spans="1:2">
       <c r="A3488">
-        <v>-0.004454046259200022</v>
+        <v>-0.004454046259200021</v>
       </c>
       <c r="B3488">
         <v>0.007139162872968008</v>
@@ -28263,7 +28263,7 @@
     </row>
     <row r="3489" spans="1:2">
       <c r="A3489">
-        <v>-0.004831616923907675</v>
+        <v>-0.004831616923907674</v>
       </c>
       <c r="B3489">
         <v>0.005175280407044625</v>
@@ -28287,7 +28287,7 @@
     </row>
     <row r="3492" spans="1:2">
       <c r="A3492">
-        <v>-0.005880023729148554</v>
+        <v>-0.005880023729148555</v>
       </c>
       <c r="B3492">
         <v>-0.0006421335234367831</v>
@@ -28351,7 +28351,7 @@
     </row>
     <row r="3500" spans="1:2">
       <c r="A3500">
-        <v>-0.001520443578149074</v>
+        <v>-0.001520443578149075</v>
       </c>
       <c r="B3500">
         <v>0.005816975243276623</v>
@@ -28575,7 +28575,7 @@
     </row>
     <row r="3528" spans="1:2">
       <c r="A3528">
-        <v>0.003875901883959153</v>
+        <v>0.003875901883959152</v>
       </c>
       <c r="B3528">
         <v>0.007032875121417703</v>
@@ -28583,7 +28583,7 @@
     </row>
     <row r="3529" spans="1:2">
       <c r="A3529">
-        <v>0.004094156448634924</v>
+        <v>0.004094156448634923</v>
       </c>
       <c r="B3529">
         <v>0.00747155206275707</v>
@@ -28623,7 +28623,7 @@
     </row>
     <row r="3534" spans="1:2">
       <c r="A3534">
-        <v>0.002439222188194988</v>
+        <v>0.002439222188194987</v>
       </c>
       <c r="B3534">
         <v>0.001379181553889275</v>
@@ -28671,7 +28671,7 @@
     </row>
     <row r="3540" spans="1:2">
       <c r="A3540">
-        <v>-0.002210680984748403</v>
+        <v>-0.002210680984748404</v>
       </c>
       <c r="B3540">
         <v>-0.01005999914710731</v>
@@ -28831,7 +28831,7 @@
     </row>
     <row r="3560" spans="1:2">
       <c r="A3560">
-        <v>-0.000504436054458088</v>
+        <v>-0.0005044360544580881</v>
       </c>
       <c r="B3560">
         <v>0.002296811482284333</v>
@@ -28855,7 +28855,7 @@
     </row>
     <row r="3563" spans="1:2">
       <c r="A3563">
-        <v>-0.002939325883777388</v>
+        <v>-0.002939325883777387</v>
       </c>
       <c r="B3563">
         <v>-0.00401142156865042</v>
@@ -28975,7 +28975,7 @@
     </row>
     <row r="3578" spans="1:2">
       <c r="A3578">
-        <v>0.0008841187654714936</v>
+        <v>0.0008841187654714937</v>
       </c>
       <c r="B3578">
         <v>0.00815488405417053</v>
@@ -29071,7 +29071,7 @@
     </row>
     <row r="3590" spans="1:2">
       <c r="A3590">
-        <v>-0.003449797092700315</v>
+        <v>-0.003449797092700314</v>
       </c>
       <c r="B3590">
         <v>-0.004286413762607744</v>
@@ -29143,7 +29143,7 @@
     </row>
     <row r="3599" spans="1:2">
       <c r="A3599">
-        <v>0.00161086032732088</v>
+        <v>0.001610860327320879</v>
       </c>
       <c r="B3599">
         <v>0.009486328559618507</v>
@@ -29175,7 +29175,7 @@
     </row>
     <row r="3603" spans="1:2">
       <c r="A3603">
-        <v>0.0007709720092712114</v>
+        <v>0.0007709720092712113</v>
       </c>
       <c r="B3603">
         <v>0.005600343191853874</v>
@@ -29271,7 +29271,7 @@
     </row>
     <row r="3615" spans="1:2">
       <c r="A3615">
-        <v>-0.00526278535577916</v>
+        <v>-0.005262785355779159</v>
       </c>
       <c r="B3615">
         <v>-0.007900773118884707</v>
@@ -29279,7 +29279,7 @@
     </row>
     <row r="3616" spans="1:2">
       <c r="A3616">
-        <v>-0.004913229916129178</v>
+        <v>-0.004913229916129177</v>
       </c>
       <c r="B3616">
         <v>-0.006477069321327633</v>
@@ -29295,7 +29295,7 @@
     </row>
     <row r="3618" spans="1:2">
       <c r="A3618">
-        <v>-0.004054659422127994</v>
+        <v>-0.004054659422127995</v>
       </c>
       <c r="B3618">
         <v>-0.002859198672791941</v>
@@ -29471,7 +29471,7 @@
     </row>
     <row r="3640" spans="1:2">
       <c r="A3640">
-        <v>-0.007073954861903417</v>
+        <v>-0.007073954861903416</v>
       </c>
       <c r="B3640">
         <v>-0.007759833351712153</v>
@@ -29607,7 +29607,7 @@
     </row>
     <row r="3657" spans="1:2">
       <c r="A3657">
-        <v>-0.002676834926355003</v>
+        <v>-0.002676834926355004</v>
       </c>
       <c r="B3657">
         <v>0.004846558190035211</v>
@@ -29647,7 +29647,7 @@
     </row>
     <row r="3662" spans="1:2">
       <c r="A3662">
-        <v>-0.006550321196115042</v>
+        <v>-0.006550321196115041</v>
       </c>
       <c r="B3662">
         <v>-0.006510865341865291</v>
@@ -29671,7 +29671,7 @@
     </row>
     <row r="3665" spans="1:2">
       <c r="A3665">
-        <v>-0.007041066471955808</v>
+        <v>-0.007041066471955809</v>
       </c>
       <c r="B3665">
         <v>-0.007347236643668431</v>
@@ -29727,7 +29727,7 @@
     </row>
     <row r="3672" spans="1:2">
       <c r="A3672">
-        <v>-0.003347132388208568</v>
+        <v>-0.003347132388208567</v>
       </c>
       <c r="B3672">
         <v>0.004239385887833791</v>
@@ -29735,7 +29735,7 @@
     </row>
     <row r="3673" spans="1:2">
       <c r="A3673">
-        <v>-0.002500225961619434</v>
+        <v>-0.002500225961619435</v>
       </c>
       <c r="B3673">
         <v>0.006634645400210637</v>
@@ -29799,7 +29799,7 @@
     </row>
     <row r="3681" spans="1:2">
       <c r="A3681">
-        <v>0.0004494012943280123</v>
+        <v>0.0004494012943280122</v>
       </c>
       <c r="B3681">
         <v>0.01054600846511811</v>
@@ -29983,7 +29983,7 @@
     </row>
     <row r="3704" spans="1:2">
       <c r="A3704">
-        <v>0.002618240963161642</v>
+        <v>0.002618240963161643</v>
       </c>
       <c r="B3704">
         <v>0.007863837990364608</v>
@@ -30167,7 +30167,7 @@
     </row>
     <row r="3727" spans="1:2">
       <c r="A3727">
-        <v>0.004046878169410814</v>
+        <v>0.004046878169410815</v>
       </c>
       <c r="B3727">
         <v>0.01255562431419577</v>
@@ -30191,7 +30191,7 @@
     </row>
     <row r="3730" spans="1:2">
       <c r="A3730">
-        <v>0.003965102771929942</v>
+        <v>0.003965102771929941</v>
       </c>
       <c r="B3730">
         <v>0.01095597494671363</v>
@@ -30375,7 +30375,7 @@
     </row>
     <row r="3753" spans="1:2">
       <c r="A3753">
-        <v>0.0009030088522213144</v>
+        <v>0.0009030088522213145</v>
       </c>
       <c r="B3753">
         <v>0.007340097538676815</v>
@@ -30511,7 +30511,7 @@
     </row>
     <row r="3770" spans="1:2">
       <c r="A3770">
-        <v>-0.005877865304577144</v>
+        <v>-0.005877865304577143</v>
       </c>
       <c r="B3770">
         <v>-0.007805373139466276</v>
@@ -30567,7 +30567,7 @@
     </row>
     <row r="3777" spans="1:2">
       <c r="A3777">
-        <v>-0.002177512580150844</v>
+        <v>-0.002177512580150845</v>
       </c>
       <c r="B3777">
         <v>0.005539665220450907</v>
@@ -30639,7 +30639,7 @@
     </row>
     <row r="3786" spans="1:2">
       <c r="A3786">
-        <v>-0.0001804990491784122</v>
+        <v>-0.0001804990491784123</v>
       </c>
       <c r="B3786">
         <v>0.008087914278874564</v>
@@ -30951,7 +30951,7 @@
     </row>
     <row r="3825" spans="1:2">
       <c r="A3825">
-        <v>9.496086339313842E-05</v>
+        <v>9.496086339313844E-05</v>
       </c>
       <c r="B3825">
         <v>0.001555112684530791</v>
@@ -31095,7 +31095,7 @@
     </row>
     <row r="3843" spans="1:2">
       <c r="A3843">
-        <v>-0.004468219467314308</v>
+        <v>-0.004468219467314309</v>
       </c>
       <c r="B3843">
         <v>-0.0097891745735188</v>
@@ -31191,7 +31191,7 @@
     </row>
     <row r="3855" spans="1:2">
       <c r="A3855">
-        <v>0.002188158673548387</v>
+        <v>0.002188158673548388</v>
       </c>
       <c r="B3855">
         <v>0.01230286592816832</v>
@@ -31295,7 +31295,7 @@
     </row>
     <row r="3868" spans="1:2">
       <c r="A3868">
-        <v>-0.004847458471740746</v>
+        <v>-0.004847458471740745</v>
       </c>
       <c r="B3868">
         <v>-0.01082669541968873</v>
@@ -31583,7 +31583,7 @@
     </row>
     <row r="3904" spans="1:2">
       <c r="A3904">
-        <v>-0.001466045064914389</v>
+        <v>-0.00146604506491439</v>
       </c>
       <c r="B3904">
         <v>0.005080397768353784</v>
@@ -31879,7 +31879,7 @@
     </row>
     <row r="3941" spans="1:2">
       <c r="A3941">
-        <v>0.002546041961438815</v>
+        <v>0.002546041961438816</v>
       </c>
       <c r="B3941">
         <v>0.001158311431953329</v>
@@ -31895,7 +31895,7 @@
     </row>
     <row r="3943" spans="1:2">
       <c r="A3943">
-        <v>0.0009354769489644632</v>
+        <v>0.0009354769489644631</v>
       </c>
       <c r="B3943">
         <v>-0.003243831616744686</v>
@@ -32023,7 +32023,7 @@
     </row>
     <row r="3959" spans="1:2">
       <c r="A3959">
-        <v>0.002469488677889067</v>
+        <v>0.002469488677889066</v>
       </c>
       <c r="B3959">
         <v>0.007124696471682235</v>
@@ -32039,7 +32039,7 @@
     </row>
     <row r="3961" spans="1:2">
       <c r="A3961">
-        <v>0.002249797369814705</v>
+        <v>0.002249797369814706</v>
       </c>
       <c r="B3961">
         <v>0.006657167613476567</v>
@@ -32079,7 +32079,7 @@
     </row>
     <row r="3966" spans="1:2">
       <c r="A3966">
-        <v>-0.0008231799447512441</v>
+        <v>-0.000823179944751244</v>
       </c>
       <c r="B3966">
         <v>-0.00146575176788577</v>
@@ -32367,7 +32367,7 @@
     </row>
     <row r="4002" spans="1:2">
       <c r="A4002">
-        <v>-0.005630517224144975</v>
+        <v>-0.005630517224144976</v>
       </c>
       <c r="B4002">
         <v>-0.01001448380173731</v>
@@ -32439,7 +32439,7 @@
     </row>
     <row r="4011" spans="1:2">
       <c r="A4011">
-        <v>0.0003873131846216722</v>
+        <v>0.0003873131846216723</v>
       </c>
       <c r="B4011">
         <v>0.009333053553747916</v>
@@ -32447,7 +32447,7 @@
     </row>
     <row r="4012" spans="1:2">
       <c r="A4012">
-        <v>0.0009136036120744205</v>
+        <v>0.0009136036120744204</v>
       </c>
       <c r="B4012">
         <v>0.0106473482328564</v>
@@ -32495,7 +32495,7 @@
     </row>
     <row r="4018" spans="1:2">
       <c r="A4018">
-        <v>0.0006973488711221937</v>
+        <v>0.0006973488711221938</v>
       </c>
       <c r="B4018">
         <v>0.007453007442452808</v>
@@ -32527,7 +32527,7 @@
     </row>
     <row r="4022" spans="1:2">
       <c r="A4022">
-        <v>-0.001848479763966702</v>
+        <v>-0.001848479763966703</v>
       </c>
       <c r="B4022">
         <v>-0.001415775010784159</v>
@@ -32583,7 +32583,7 @@
     </row>
     <row r="4029" spans="1:2">
       <c r="A4029">
-        <v>-0.005799454954268882</v>
+        <v>-0.005799454954268883</v>
       </c>
       <c r="B4029">
         <v>-0.01136170467728714</v>
@@ -32807,7 +32807,7 @@
     </row>
     <row r="4057" spans="1:2">
       <c r="A4057">
-        <v>-0.00312839826385835</v>
+        <v>-0.003128398263858351</v>
       </c>
       <c r="B4057">
         <v>-0.005195143777105393</v>
@@ -32847,7 +32847,7 @@
     </row>
     <row r="4062" spans="1:2">
       <c r="A4062">
-        <v>0.0004751972644564215</v>
+        <v>0.0004751972644564216</v>
       </c>
       <c r="B4062">
         <v>0.004378047283823072</v>
@@ -32855,7 +32855,7 @@
     </row>
     <row r="4063" spans="1:2">
       <c r="A4063">
-        <v>0.001599503076132467</v>
+        <v>0.001599503076132468</v>
       </c>
       <c r="B4063">
         <v>0.007086008694185963</v>
@@ -32871,7 +32871,7 @@
     </row>
     <row r="4065" spans="1:2">
       <c r="A4065">
-        <v>0.003224740304985109</v>
+        <v>0.003224740304985108</v>
       </c>
       <c r="B4065">
         <v>0.01058437745416096</v>
@@ -32895,7 +32895,7 @@
     </row>
     <row r="4068" spans="1:2">
       <c r="A4068">
-        <v>0.004108201986247591</v>
+        <v>0.00410820198624759</v>
       </c>
       <c r="B4068">
         <v>0.01104333572107219</v>
@@ -33039,7 +33039,7 @@
     </row>
     <row r="4086" spans="1:2">
       <c r="A4086">
-        <v>-0.0009155206545310641</v>
+        <v>-0.0009155206545310642</v>
       </c>
       <c r="B4086">
         <v>-0.005776374438903886</v>
@@ -33079,7 +33079,7 @@
     </row>
     <row r="4091" spans="1:2">
       <c r="A4091">
-        <v>0.00322209002771213</v>
+        <v>0.003222090027712129</v>
       </c>
       <c r="B4091">
         <v>0.006867623507117671</v>
@@ -33159,7 +33159,7 @@
     </row>
     <row r="4101" spans="1:2">
       <c r="A4101">
-        <v>0.003685590621565805</v>
+        <v>0.003685590621565804</v>
       </c>
       <c r="B4101">
         <v>0.003778126726266429</v>
@@ -33239,7 +33239,7 @@
     </row>
     <row r="4111" spans="1:2">
       <c r="A4111">
-        <v>-0.001110784503883504</v>
+        <v>-0.001110784503883505</v>
       </c>
       <c r="B4111">
         <v>-0.009712524054156013</v>
@@ -33279,7 +33279,7 @@
     </row>
     <row r="4116" spans="1:2">
       <c r="A4116">
-        <v>0.001471513816455007</v>
+        <v>0.001471513816455006</v>
       </c>
       <c r="B4116">
         <v>-0.0006081480105111225</v>
@@ -33303,7 +33303,7 @@
     </row>
     <row r="4119" spans="1:2">
       <c r="A4119">
-        <v>0.003549287966571471</v>
+        <v>0.003549287966571472</v>
       </c>
       <c r="B4119">
         <v>0.005569652525383439</v>
@@ -33327,7 +33327,7 @@
     </row>
     <row r="4122" spans="1:2">
       <c r="A4122">
-        <v>0.003705032023869811</v>
+        <v>0.003705032023869812</v>
       </c>
       <c r="B4122">
         <v>0.00609880775574112</v>
@@ -33391,7 +33391,7 @@
     </row>
     <row r="4130" spans="1:2">
       <c r="A4130">
-        <v>-0.002024206255706962</v>
+        <v>-0.002024206255706963</v>
       </c>
       <c r="B4130">
         <v>-0.008614512921081285</v>
@@ -33407,7 +33407,7 @@
     </row>
     <row r="4132" spans="1:2">
       <c r="A4132">
-        <v>-0.003049962384593398</v>
+        <v>-0.003049962384593397</v>
       </c>
       <c r="B4132">
         <v>-0.01046942981776056</v>
@@ -33511,7 +33511,7 @@
     </row>
     <row r="4145" spans="1:2">
       <c r="A4145">
-        <v>0.003581915652726904</v>
+        <v>0.003581915652726905</v>
       </c>
       <c r="B4145">
         <v>0.01237633482072376</v>
@@ -33559,7 +33559,7 @@
     </row>
     <row r="4151" spans="1:2">
       <c r="A4151">
-        <v>0.003807503654412685</v>
+        <v>0.003807503654412684</v>
       </c>
       <c r="B4151">
         <v>0.009316912479408579</v>
@@ -33807,7 +33807,7 @@
     </row>
     <row r="4182" spans="1:2">
       <c r="A4182">
-        <v>0.0003573829019321231</v>
+        <v>0.0003573829019321232</v>
       </c>
       <c r="B4182">
         <v>-0.007098936984347048</v>
@@ -33839,7 +33839,7 @@
     </row>
     <row r="4186" spans="1:2">
       <c r="A4186">
-        <v>-0.002998171120181891</v>
+        <v>-0.002998171120181892</v>
       </c>
       <c r="B4186">
         <v>-0.0143800450757281</v>
@@ -33927,7 +33927,7 @@
     </row>
     <row r="4197" spans="1:2">
       <c r="A4197">
-        <v>0.0007439910235880957</v>
+        <v>0.0007439910235880958</v>
       </c>
       <c r="B4197">
         <v>0.004779586037297001</v>
@@ -34055,7 +34055,7 @@
     </row>
     <row r="4213" spans="1:2">
       <c r="A4213">
-        <v>-0.003339800270991228</v>
+        <v>-0.003339800270991205</v>
       </c>
       <c r="B4213">
         <v>-0.006615469048428579</v>
@@ -34135,7 +34135,7 @@
     </row>
     <row r="4223" spans="1:2">
       <c r="A4223">
-        <v>0.003229753733866528</v>
+        <v>0.003229753733866527</v>
       </c>
       <c r="B4223">
         <v>0.01022522112438473</v>
@@ -34487,7 +34487,7 @@
     </row>
     <row r="4267" spans="1:2">
       <c r="A4267">
-        <v>-0.0009240761733905309</v>
+        <v>-0.0009240761733905308</v>
       </c>
       <c r="B4267">
         <v>-0.004434975264155483</v>
@@ -34511,7 +34511,7 @@
     </row>
     <row r="4270" spans="1:2">
       <c r="A4270">
-        <v>0.001160108062389906</v>
+        <v>0.001160108062389905</v>
       </c>
       <c r="B4270">
         <v>0.001982467175408509</v>
@@ -34551,7 +34551,7 @@
     </row>
     <row r="4275" spans="1:2">
       <c r="A4275">
-        <v>0.004075894392297549</v>
+        <v>0.004075894392297548</v>
       </c>
       <c r="B4275">
         <v>0.009196428501264897</v>
@@ -34663,7 +34663,7 @@
     </row>
     <row r="4289" spans="1:2">
       <c r="A4289">
-        <v>-0.003215957623324964</v>
+        <v>-0.003215957623324963</v>
       </c>
       <c r="B4289">
         <v>-0.01258558976547075</v>
@@ -34719,7 +34719,7 @@
     </row>
     <row r="4296" spans="1:2">
       <c r="A4296">
-        <v>-0.0006813369872581926</v>
+        <v>-0.0006813369872581927</v>
       </c>
       <c r="B4296">
         <v>-0.001482024177756003</v>
@@ -34791,7 +34791,7 @@
     </row>
     <row r="4305" spans="1:2">
       <c r="A4305">
-        <v>0.004345825884839432</v>
+        <v>0.004345825884839433</v>
       </c>
       <c r="B4305">
         <v>0.01093338934772436</v>
@@ -34815,7 +34815,7 @@
     </row>
     <row r="4308" spans="1:2">
       <c r="A4308">
-        <v>0.00354611483056371</v>
+        <v>0.003546114830563711</v>
       </c>
       <c r="B4308">
         <v>0.00665803310639479</v>
@@ -34903,7 +34903,7 @@
     </row>
     <row r="4319" spans="1:2">
       <c r="A4319">
-        <v>-0.0007611605343706711</v>
+        <v>-0.000761160534370671</v>
       </c>
       <c r="B4319">
         <v>-0.00804283222077018</v>
@@ -34951,7 +34951,7 @@
     </row>
     <row r="4325" spans="1:2">
       <c r="A4325">
-        <v>0.003677770280352483</v>
+        <v>0.003677770280351465</v>
       </c>
       <c r="B4325">
         <v>0.004155399278955585</v>
@@ -35343,7 +35343,7 @@
     </row>
     <row r="4374" spans="1:2">
       <c r="A4374">
-        <v>0.002331390949398913</v>
+        <v>0.002331390949398912</v>
       </c>
       <c r="B4374">
         <v>0.002756738193848918</v>
@@ -35399,7 +35399,7 @@
     </row>
     <row r="4381" spans="1:2">
       <c r="A4381">
-        <v>0.0055609675002094</v>
+        <v>0.005560967500209401</v>
       </c>
       <c r="B4381">
         <v>0.009099416492778012</v>
@@ -35567,7 +35567,7 @@
     </row>
     <row r="4402" spans="1:2">
       <c r="A4402">
-        <v>0.006302332324843325</v>
+        <v>0.006302332324843324</v>
       </c>
       <c r="B4402">
         <v>0.01043807030854627</v>
@@ -35591,7 +35591,7 @@
     </row>
     <row r="4405" spans="1:2">
       <c r="A4405">
-        <v>0.008860604406590641</v>
+        <v>0.008860604406590642</v>
       </c>
       <c r="B4405">
         <v>0.01484790487136678</v>
@@ -35599,7 +35599,7 @@
     </row>
     <row r="4406" spans="1:2">
       <c r="A4406">
-        <v>0.009822940024658704</v>
+        <v>0.009822940024658706</v>
       </c>
       <c r="B4406">
         <v>0.01355580759398212</v>
@@ -35815,7 +35815,7 @@
     </row>
     <row r="4433" spans="1:2">
       <c r="A4433">
-        <v>0.0364464281849439</v>
+        <v>0.03644642818494391</v>
       </c>
       <c r="B4433">
         <v>-0.03469690489638388</v>
@@ -35831,7 +35831,7 @@
     </row>
     <row r="4435" spans="1:2">
       <c r="A4435">
-        <v>0.03896696652173208</v>
+        <v>0.03896696652173209</v>
       </c>
       <c r="B4435">
         <v>-0.03028932613306523</v>
@@ -35839,7 +35839,7 @@
     </row>
     <row r="4436" spans="1:2">
       <c r="A4436">
-        <v>0.04051650636444643</v>
+        <v>0.04051650636444644</v>
       </c>
       <c r="B4436">
         <v>-0.04401142702543748</v>
@@ -35855,7 +35855,7 @@
     </row>
     <row r="4438" spans="1:2">
       <c r="A4438">
-        <v>0.04500841410976125</v>
+        <v>0.04500841410976126</v>
       </c>
       <c r="B4438">
         <v>-0.03365598051407748</v>
@@ -35863,7 +35863,7 @@
     </row>
     <row r="4439" spans="1:2">
       <c r="A4439">
-        <v>0.04790645471363869</v>
+        <v>0.0479064547136387</v>
       </c>
       <c r="B4439">
         <v>-0.04462785751540643</v>
@@ -35879,7 +35879,7 @@
     </row>
     <row r="4441" spans="1:2">
       <c r="A4441">
-        <v>0.05372209476678942</v>
+        <v>0.05372209476678941</v>
       </c>
       <c r="B4441">
         <v>-0.03010501939192345</v>
@@ -35919,7 +35919,7 @@
     </row>
     <row r="4446" spans="1:2">
       <c r="A4446">
-        <v>0.06780158137824084</v>
+        <v>0.06780158137823909</v>
       </c>
       <c r="B4446">
         <v>-0.05146516269103429</v>
@@ -35959,7 +35959,7 @@
     </row>
     <row r="4451" spans="1:2">
       <c r="A4451">
-        <v>0.07783770448639044</v>
+        <v>0.07783770448639042</v>
       </c>
       <c r="B4451">
         <v>-0.04706447527262014</v>
@@ -35991,7 +35991,7 @@
     </row>
     <row r="4455" spans="1:2">
       <c r="A4455">
-        <v>0.08044689867955368</v>
+        <v>0.08044689867955367</v>
       </c>
       <c r="B4455">
         <v>-0.07796659575095344</v>
@@ -36015,7 +36015,7 @@
     </row>
     <row r="4458" spans="1:2">
       <c r="A4458">
-        <v>0.08369579535765091</v>
+        <v>0.08369579535765093</v>
       </c>
       <c r="B4458">
         <v>-0.08493552522724812</v>
@@ -36039,7 +36039,7 @@
     </row>
     <row r="4461" spans="1:2">
       <c r="A4461">
-        <v>0.08631623811963025</v>
+        <v>0.08631623811963027</v>
       </c>
       <c r="B4461">
         <v>-0.09010388517506485</v>
@@ -36055,7 +36055,7 @@
     </row>
     <row r="4463" spans="1:2">
       <c r="A4463">
-        <v>0.08837424854173993</v>
+        <v>0.08837424854173992</v>
       </c>
       <c r="B4463">
         <v>-0.07191244253358064</v>
@@ -36111,7 +36111,7 @@
     </row>
     <row r="4470" spans="1:2">
       <c r="A4470">
-        <v>0.09527509801070805</v>
+        <v>0.09527509801070806</v>
       </c>
       <c r="B4470">
         <v>-0.08120745147274189</v>
@@ -36207,7 +36207,7 @@
     </row>
     <row r="4482" spans="1:2">
       <c r="A4482">
-        <v>0.1121924735416621</v>
+        <v>0.1121924735416622</v>
       </c>
       <c r="B4482">
         <v>-0.09770142360915868</v>
@@ -36215,7 +36215,7 @@
     </row>
     <row r="4483" spans="1:2">
       <c r="A4483">
-        <v>0.1134645806135866</v>
+        <v>0.1134645806135865</v>
       </c>
       <c r="B4483">
         <v>-0.04509356917123331</v>
@@ -36295,7 +36295,7 @@
     </row>
     <row r="4493" spans="1:2">
       <c r="A4493">
-        <v>0.1012627509062413</v>
+        <v>0.1012627509062414</v>
       </c>
       <c r="B4493">
         <v>-0.1549777524511562</v>
@@ -36327,7 +36327,7 @@
     </row>
     <row r="4497" spans="1:2">
       <c r="A4497">
-        <v>0.09737499589569629</v>
+        <v>0.0973749958956963</v>
       </c>
       <c r="B4497">
         <v>-0.1082936890855519</v>
@@ -36335,7 +36335,7 @@
     </row>
     <row r="4498" spans="1:2">
       <c r="A4498">
-        <v>0.098006317322233</v>
+        <v>0.09800631732223299</v>
       </c>
       <c r="B4498">
         <v>-0.1245699751647589</v>
@@ -36415,7 +36415,7 @@
     </row>
     <row r="4508" spans="1:2">
       <c r="A4508">
-        <v>0.09604920189045263</v>
+        <v>0.09604920189045262</v>
       </c>
       <c r="B4508">
         <v>-0.08565323332525621</v>
@@ -36487,7 +36487,7 @@
     </row>
     <row r="4517" spans="1:2">
       <c r="A4517">
-        <v>0.09006476126538571</v>
+        <v>0.09006476126538569</v>
       </c>
       <c r="B4517">
         <v>-0.08937510963672146</v>
@@ -36503,7 +36503,7 @@
     </row>
     <row r="4519" spans="1:2">
       <c r="A4519">
-        <v>0.08584476251786316</v>
+        <v>0.08584476251786317</v>
       </c>
       <c r="B4519">
         <v>-0.07022536588410455</v>
@@ -36511,7 +36511,7 @@
     </row>
     <row r="4520" spans="1:2">
       <c r="A4520">
-        <v>0.08437829410948938</v>
+        <v>0.0843782941094894</v>
       </c>
       <c r="B4520">
         <v>-0.08283067199639316</v>
@@ -36519,7 +36519,7 @@
     </row>
     <row r="4521" spans="1:2">
       <c r="A4521">
-        <v>0.08202433415251702</v>
+        <v>0.08202433415251692</v>
       </c>
       <c r="B4521">
         <v>-0.09571439493947143</v>
@@ -36583,7 +36583,7 @@
     </row>
     <row r="4529" spans="1:2">
       <c r="A4529">
-        <v>0.06453334819484605</v>
+        <v>0.06453334819484603</v>
       </c>
       <c r="B4529">
         <v>-0.1034873484101468</v>
@@ -36727,7 +36727,7 @@
     </row>
     <row r="4547" spans="1:2">
       <c r="A4547">
-        <v>0.04372013613759098</v>
+        <v>0.04372013613759097</v>
       </c>
       <c r="B4547">
         <v>-0.04761751699781813</v>
@@ -36735,7 +36735,7 @@
     </row>
     <row r="4548" spans="1:2">
       <c r="A4548">
-        <v>0.04229488437081144</v>
+        <v>0.04229488437081143</v>
       </c>
       <c r="B4548">
         <v>-0.05326332887440532</v>
@@ -36823,7 +36823,7 @@
     </row>
     <row r="4559" spans="1:2">
       <c r="A4559">
-        <v>0.02413321707012169</v>
+        <v>0.02413321707012168</v>
       </c>
       <c r="B4559">
         <v>-0.0525820183513197</v>
@@ -37663,7 +37663,7 @@
     </row>
     <row r="4664" spans="1:2">
       <c r="A4664">
-        <v>0.001257863817214923</v>
+        <v>0.001257863817214926</v>
       </c>
       <c r="B4664">
         <v>0.008844506782029526</v>
@@ -37935,7 +37935,7 @@
     </row>
     <row r="4698" spans="1:2">
       <c r="A4698">
-        <v>0.001927206649483179</v>
+        <v>0.001927206649483133</v>
       </c>
       <c r="B4698">
         <v>-0.001350906991383294</v>
@@ -40311,7 +40311,7 @@
     </row>
     <row r="4995" spans="1:2">
       <c r="A4995">
-        <v>0.05586119525666942</v>
+        <v>0.05586119525666943</v>
       </c>
       <c r="B4995">
         <v>-0.04143336174202839</v>
@@ -40343,7 +40343,7 @@
     </row>
     <row r="4999" spans="1:2">
       <c r="A4999">
-        <v>0.05589945343868201</v>
+        <v>0.05589945343868202</v>
       </c>
       <c r="B4999">
         <v>-0.04509538925467282</v>
@@ -40567,7 +40567,7 @@
     </row>
     <row r="5027" spans="1:2">
       <c r="A5027">
-        <v>0.08120430252098411</v>
+        <v>0.08120430252098372</v>
       </c>
       <c r="B5027">
         <v>-0.06232460687432129</v>
@@ -40687,7 +40687,7 @@
     </row>
     <row r="5042" spans="1:2">
       <c r="A5042">
-        <v>0.09220899989233661</v>
+        <v>0.09220899989233662</v>
       </c>
       <c r="B5042">
         <v>-0.06365992985424951</v>
@@ -40783,7 +40783,7 @@
     </row>
     <row r="5054" spans="1:2">
       <c r="A5054">
-        <v>0.1017748254093129</v>
+        <v>0.1017748254093127</v>
       </c>
       <c r="B5054">
         <v>-0.0842113570621299</v>
@@ -40847,7 +40847,7 @@
     </row>
     <row r="5062" spans="1:2">
       <c r="A5062">
-        <v>0.1006878745109114</v>
+        <v>0.1006878745109113</v>
       </c>
       <c r="B5062">
         <v>-0.08205791572213883</v>
@@ -40927,7 +40927,7 @@
     </row>
     <row r="5072" spans="1:2">
       <c r="A5072">
-        <v>0.0950965238959639</v>
+        <v>0.09509652389596392</v>
       </c>
       <c r="B5072">
         <v>-0.1010652864107446</v>
@@ -40935,7 +40935,7 @@
     </row>
     <row r="5073" spans="1:2">
       <c r="A5073">
-        <v>0.09574556618639199</v>
+        <v>0.095745566186392</v>
       </c>
       <c r="B5073">
         <v>-0.08778908066612834</v>
@@ -40943,7 +40943,7 @@
     </row>
     <row r="5074" spans="1:2">
       <c r="A5074">
-        <v>0.09536894911239996</v>
+        <v>0.09536894911239994</v>
       </c>
       <c r="B5074">
         <v>-0.0923035163425614</v>
@@ -40951,7 +40951,7 @@
     </row>
     <row r="5075" spans="1:2">
       <c r="A5075">
-        <v>0.09515634195194225</v>
+        <v>0.09515634195194227</v>
       </c>
       <c r="B5075">
         <v>-0.08019401034023321</v>
@@ -40967,7 +40967,7 @@
     </row>
     <row r="5077" spans="1:2">
       <c r="A5077">
-        <v>0.09493223228981107</v>
+        <v>0.09493223228981108</v>
       </c>
       <c r="B5077">
         <v>-0.08736949075486189</v>
@@ -40991,7 +40991,7 @@
     </row>
     <row r="5080" spans="1:2">
       <c r="A5080">
-        <v>0.09349234426879879</v>
+        <v>0.09349234426879878</v>
       </c>
       <c r="B5080">
         <v>-0.07023573586099552</v>
@@ -41047,7 +41047,7 @@
     </row>
     <row r="5087" spans="1:2">
       <c r="A5087">
-        <v>0.08381543926745336</v>
+        <v>0.08381543926745337</v>
       </c>
       <c r="B5087">
         <v>-0.0847841302553376</v>
@@ -41063,7 +41063,7 @@
     </row>
     <row r="5089" spans="1:2">
       <c r="A5089">
-        <v>0.08012865733003771</v>
+        <v>0.08012865733003773</v>
       </c>
       <c r="B5089">
         <v>-0.08477397382703611</v>
@@ -41119,7 +41119,7 @@
     </row>
     <row r="5096" spans="1:2">
       <c r="A5096">
-        <v>0.06676207124135763</v>
+        <v>0.06676207124135762</v>
       </c>
       <c r="B5096">
         <v>-0.08713467116270346</v>
@@ -41151,7 +41151,7 @@
     </row>
     <row r="5100" spans="1:2">
       <c r="A5100">
-        <v>0.05982095589597117</v>
+        <v>0.05982095589597116</v>
       </c>
       <c r="B5100">
         <v>-0.07931338620197792</v>
@@ -41159,7 +41159,7 @@
     </row>
     <row r="5101" spans="1:2">
       <c r="A5101">
-        <v>0.05911973313391052</v>
+        <v>0.05911973313391051</v>
       </c>
       <c r="B5101">
         <v>-0.08094026866183235</v>
@@ -41183,7 +41183,7 @@
     </row>
     <row r="5104" spans="1:2">
       <c r="A5104">
-        <v>0.05825354511391201</v>
+        <v>0.058253545113912</v>
       </c>
       <c r="B5104">
         <v>-0.06951797263671189</v>
@@ -41223,7 +41223,7 @@
     </row>
     <row r="5109" spans="1:2">
       <c r="A5109">
-        <v>0.05679957431419158</v>
+        <v>0.05679957431419157</v>
       </c>
       <c r="B5109">
         <v>-0.04964298259274269</v>
@@ -41303,7 +41303,7 @@
     </row>
     <row r="5119" spans="1:2">
       <c r="A5119">
-        <v>0.04637672293258378</v>
+        <v>0.04637672293258356</v>
       </c>
       <c r="B5119">
         <v>-0.04444642718345637</v>
@@ -41319,7 +41319,7 @@
     </row>
     <row r="5121" spans="1:2">
       <c r="A5121">
-        <v>0.04458956825483066</v>
+        <v>0.04458956825483067</v>
       </c>
       <c r="B5121">
         <v>-0.0425023604586805</v>
@@ -41583,7 +41583,7 @@
     </row>
     <row r="5154" spans="1:2">
       <c r="A5154">
-        <v>0.02676827560284505</v>
+        <v>0.02676827560284506</v>
       </c>
       <c r="B5154">
         <v>-0.01294215628411211</v>
@@ -41727,7 +41727,7 @@
     </row>
     <row r="5172" spans="1:2">
       <c r="A5172">
-        <v>0.03198199303800089</v>
+        <v>0.03198199303800088</v>
       </c>
       <c r="B5172">
         <v>-0.02327757863136926</v>
@@ -41807,7 +41807,7 @@
     </row>
     <row r="5182" spans="1:2">
       <c r="A5182">
-        <v>0.04656073646654074</v>
+        <v>0.04656073646654073</v>
       </c>
       <c r="B5182">
         <v>-0.02804844957488006</v>
@@ -41823,7 +41823,7 @@
     </row>
     <row r="5184" spans="1:2">
       <c r="A5184">
-        <v>0.05005610266981707</v>
+        <v>0.05005610266981708</v>
       </c>
       <c r="B5184">
         <v>-0.02420519162488777</v>
@@ -41871,7 +41871,7 @@
     </row>
     <row r="5190" spans="1:2">
       <c r="A5190">
-        <v>0.0596111200121697</v>
+        <v>0.05961112001216969</v>
       </c>
       <c r="B5190">
         <v>-0.04107211787460141</v>
@@ -41911,7 +41911,7 @@
     </row>
     <row r="5195" spans="1:2">
       <c r="A5195">
-        <v>0.06927235106905305</v>
+        <v>0.06927235106905304</v>
       </c>
       <c r="B5195">
         <v>-0.04330051084939734</v>
@@ -41919,7 +41919,7 @@
     </row>
     <row r="5196" spans="1:2">
       <c r="A5196">
-        <v>0.07112830230215635</v>
+        <v>0.07112830230215633</v>
       </c>
       <c r="B5196">
         <v>-0.05492962911464172</v>
@@ -42007,7 +42007,7 @@
     </row>
     <row r="5207" spans="1:2">
       <c r="A5207">
-        <v>0.09262205593704778</v>
+        <v>0.0926220559370478</v>
       </c>
       <c r="B5207">
         <v>-0.07183066051204223</v>
@@ -42039,7 +42039,7 @@
     </row>
     <row r="5211" spans="1:2">
       <c r="A5211">
-        <v>0.09798318760745781</v>
+        <v>0.09798318760745782</v>
       </c>
       <c r="B5211">
         <v>-0.06216355256248862</v>
@@ -42519,7 +42519,7 @@
     </row>
     <row r="5271" spans="1:2">
       <c r="A5271">
-        <v>0.09931056204440403</v>
+        <v>0.09931056204440401</v>
       </c>
       <c r="B5271">
         <v>-0.1265303940510361</v>
@@ -42543,7 +42543,7 @@
     </row>
     <row r="5274" spans="1:2">
       <c r="A5274">
-        <v>0.0931817926835001</v>
+        <v>0.09318179268350009</v>
       </c>
       <c r="B5274">
         <v>-0.1239387434358781</v>
@@ -42591,7 +42591,7 @@
     </row>
     <row r="5280" spans="1:2">
       <c r="A5280">
-        <v>0.08559373172550069</v>
+        <v>0.08559373172550068</v>
       </c>
       <c r="B5280">
         <v>-0.1029633838757587</v>
@@ -42631,7 +42631,7 @@
     </row>
     <row r="5285" spans="1:2">
       <c r="A5285">
-        <v>0.08072890300183047</v>
+        <v>0.08072890300183048</v>
       </c>
       <c r="B5285">
         <v>-0.1001870620878602</v>
@@ -42655,7 +42655,7 @@
     </row>
     <row r="5288" spans="1:2">
       <c r="A5288">
-        <v>0.07903645575518908</v>
+        <v>0.0790364557551891</v>
       </c>
       <c r="B5288">
         <v>-0.08684471614437328</v>
@@ -42911,7 +42911,7 @@
     </row>
     <row r="5320" spans="1:2">
       <c r="A5320">
-        <v>0.04163457768680827</v>
+        <v>0.04163457768680828</v>
       </c>
       <c r="B5320">
         <v>-0.04922683896456093</v>
@@ -44847,7 +44847,7 @@
     </row>
     <row r="5562" spans="1:2">
       <c r="A5562">
-        <v>-0.05716155686659553</v>
+        <v>-0.05716155686659554</v>
       </c>
       <c r="B5562">
         <v>0.0466343479441278</v>
@@ -44919,7 +44919,7 @@
     </row>
     <row r="5571" spans="1:2">
       <c r="A5571">
-        <v>-0.06125482032260218</v>
+        <v>-0.06125482032260219</v>
       </c>
       <c r="B5571">
         <v>0.0469354925161527</v>
@@ -45023,7 +45023,7 @@
     </row>
     <row r="5584" spans="1:2">
       <c r="A5584">
-        <v>-0.05795282455547035</v>
+        <v>-0.05795282455547036</v>
       </c>
       <c r="B5584">
         <v>0.07298821847512782</v>
@@ -45031,7 +45031,7 @@
     </row>
     <row r="5585" spans="1:2">
       <c r="A5585">
-        <v>-0.057908689090796</v>
+        <v>-0.05790868909079599</v>
       </c>
       <c r="B5585">
         <v>0.0565315367580248</v>
@@ -45095,7 +45095,7 @@
     </row>
     <row r="5593" spans="1:2">
       <c r="A5593">
-        <v>-0.05843252518198956</v>
+        <v>-0.05843252518198957</v>
       </c>
       <c r="B5593">
         <v>0.06918132935084964</v>
@@ -45143,7 +45143,7 @@
     </row>
     <row r="5599" spans="1:2">
       <c r="A5599">
-        <v>-0.06129238806158213</v>
+        <v>-0.06129238806158212</v>
       </c>
       <c r="B5599">
         <v>0.05989749140342226</v>
@@ -45207,7 +45207,7 @@
     </row>
     <row r="5607" spans="1:2">
       <c r="A5607">
-        <v>-0.05909792623170504</v>
+        <v>-0.05909792623170505</v>
       </c>
       <c r="B5607">
         <v>0.0542296886666791</v>
@@ -45303,7 +45303,7 @@
     </row>
     <row r="5619" spans="1:2">
       <c r="A5619">
-        <v>-0.05591428075295045</v>
+        <v>-0.05591428075295044</v>
       </c>
       <c r="B5619">
         <v>0.04807711835931716</v>
@@ -45327,7 +45327,7 @@
     </row>
     <row r="5622" spans="1:2">
       <c r="A5622">
-        <v>-0.05803017559672102</v>
+        <v>-0.05803017559672103</v>
       </c>
       <c r="B5622">
         <v>0.0379763630274228</v>
@@ -45343,7 +45343,7 @@
     </row>
     <row r="5624" spans="1:2">
       <c r="A5624">
-        <v>-0.05845875816752474</v>
+        <v>-0.05845875816752473</v>
       </c>
       <c r="B5624">
         <v>0.05725228694314843</v>
@@ -45375,7 +45375,7 @@
     </row>
     <row r="5628" spans="1:2">
       <c r="A5628">
-        <v>-0.05806901468119603</v>
+        <v>-0.05806901468119604</v>
       </c>
       <c r="B5628">
         <v>0.06418983937204192</v>
@@ -45407,7 +45407,7 @@
     </row>
     <row r="5632" spans="1:2">
       <c r="A5632">
-        <v>-0.05748092230398895</v>
+        <v>-0.05748092230398896</v>
       </c>
       <c r="B5632">
         <v>0.03944180738871506</v>
@@ -45479,7 +45479,7 @@
     </row>
     <row r="5641" spans="1:2">
       <c r="A5641">
-        <v>-0.05856933528839823</v>
+        <v>-0.05856933528839822</v>
       </c>
       <c r="B5641">
         <v>0.06246850062385745</v>
@@ -45503,7 +45503,7 @@
     </row>
     <row r="5644" spans="1:2">
       <c r="A5644">
-        <v>-0.05998820728514801</v>
+        <v>-0.059988207285148</v>
       </c>
       <c r="B5644">
         <v>0.05641205646743686</v>
@@ -45527,7 +45527,7 @@
     </row>
     <row r="5647" spans="1:2">
       <c r="A5647">
-        <v>-0.06218413532595532</v>
+        <v>-0.06218413532595533</v>
       </c>
       <c r="B5647">
         <v>0.04836102008654874</v>
@@ -45591,7 +45591,7 @@
     </row>
     <row r="5655" spans="1:2">
       <c r="A5655">
-        <v>-0.06344208923423336</v>
+        <v>-0.06344208923423335</v>
       </c>
       <c r="B5655">
         <v>0.06337040175792685</v>
@@ -45599,7 +45599,7 @@
     </row>
     <row r="5656" spans="1:2">
       <c r="A5656">
-        <v>-0.06394159060359229</v>
+        <v>-0.06394159060359231</v>
       </c>
       <c r="B5656">
         <v>0.03422471935220184</v>
@@ -45607,7 +45607,7 @@
     </row>
     <row r="5657" spans="1:2">
       <c r="A5657">
-        <v>-0.06360078857965792</v>
+        <v>-0.06360078857965794</v>
       </c>
       <c r="B5657">
         <v>0.048887495895789</v>
@@ -45703,7 +45703,7 @@
     </row>
     <row r="5669" spans="1:2">
       <c r="A5669">
-        <v>-0.05656253911083455</v>
+        <v>-0.05656253911083454</v>
       </c>
       <c r="B5669">
         <v>0.08426831162394866</v>
@@ -45711,7 +45711,7 @@
     </row>
     <row r="5670" spans="1:2">
       <c r="A5670">
-        <v>-0.05798652364247235</v>
+        <v>-0.05798652364247236</v>
       </c>
       <c r="B5670">
         <v>0.04722722595716489</v>
@@ -45727,7 +45727,7 @@
     </row>
     <row r="5672" spans="1:2">
       <c r="A5672">
-        <v>-0.05831251803832631</v>
+        <v>-0.0583125180383263</v>
       </c>
       <c r="B5672">
         <v>0.07183067256844566</v>
@@ -45767,7 +45767,7 @@
     </row>
     <row r="5677" spans="1:2">
       <c r="A5677">
-        <v>-0.06399103680851712</v>
+        <v>-0.0639910368085171</v>
       </c>
       <c r="B5677">
         <v>0.02429993546693998</v>
@@ -45839,7 +45839,7 @@
     </row>
     <row r="5686" spans="1:2">
       <c r="A5686">
-        <v>-0.06703827084767923</v>
+        <v>-0.06703827084767924</v>
       </c>
       <c r="B5686">
         <v>0.04638332076569318</v>
@@ -45879,7 +45879,7 @@
     </row>
     <row r="5691" spans="1:2">
       <c r="A5691">
-        <v>-0.06507871162398984</v>
+        <v>-0.06507871162398986</v>
       </c>
       <c r="B5691">
         <v>0.01322460845245876</v>
@@ -45951,7 +45951,7 @@
     </row>
     <row r="5700" spans="1:2">
       <c r="A5700">
-        <v>-0.06601245087794039</v>
+        <v>-0.0660124508779404</v>
       </c>
       <c r="B5700">
         <v>0.04133246544223734</v>
@@ -46039,7 +46039,7 @@
     </row>
     <row r="5711" spans="1:2">
       <c r="A5711">
-        <v>-0.07022414856430068</v>
+        <v>-0.07022414856430066</v>
       </c>
       <c r="B5711">
         <v>0.02207199901502888</v>
@@ -46047,7 +46047,7 @@
     </row>
     <row r="5712" spans="1:2">
       <c r="A5712">
-        <v>-0.06994955596938324</v>
+        <v>-0.06994955596938325</v>
       </c>
       <c r="B5712">
         <v>0.04394489490795372</v>
@@ -46055,7 +46055,7 @@
     </row>
     <row r="5713" spans="1:2">
       <c r="A5713">
-        <v>-0.06879664125890195</v>
+        <v>-0.06879664125890193</v>
       </c>
       <c r="B5713">
         <v>0.06533510737179604</v>
@@ -46079,7 +46079,7 @@
     </row>
     <row r="5716" spans="1:2">
       <c r="A5716">
-        <v>-0.06844957357737314</v>
+        <v>-0.06844957357737315</v>
       </c>
       <c r="B5716">
         <v>0.05110165405997735</v>
@@ -46111,7 +46111,7 @@
     </row>
     <row r="5720" spans="1:2">
       <c r="A5720">
-        <v>-0.06593823165576923</v>
+        <v>-0.06593823165576924</v>
       </c>
       <c r="B5720">
         <v>0.06092242848066931</v>
@@ -46295,7 +46295,7 @@
     </row>
     <row r="5743" spans="1:2">
       <c r="A5743">
-        <v>-0.0719460691040622</v>
+        <v>-0.07194606910406222</v>
       </c>
       <c r="B5743">
         <v>0.03584150522547791</v>
@@ -46911,7 +46911,7 @@
     </row>
     <row r="5820" spans="1:2">
       <c r="A5820">
-        <v>-0.01160315808516005</v>
+        <v>-0.01160315808516006</v>
       </c>
       <c r="B5820">
         <v>0.009019324233900505</v>
@@ -47023,7 +47023,7 @@
     </row>
     <row r="5834" spans="1:2">
       <c r="A5834">
-        <v>-0.008381018547494956</v>
+        <v>-0.008381018547494954</v>
       </c>
       <c r="B5834">
         <v>0.01718943877838086</v>
@@ -47103,7 +47103,7 @@
     </row>
     <row r="5844" spans="1:2">
       <c r="A5844">
-        <v>-0.004284286247250758</v>
+        <v>-0.004284286247250757</v>
       </c>
       <c r="B5844">
         <v>0.01428754450929404</v>
@@ -47167,7 +47167,7 @@
     </row>
     <row r="5852" spans="1:2">
       <c r="A5852">
-        <v>-0.003106250399803746</v>
+        <v>-0.003106250399803747</v>
       </c>
       <c r="B5852">
         <v>0.01043107989869263</v>
@@ -47247,7 +47247,7 @@
     </row>
     <row r="5862" spans="1:2">
       <c r="A5862">
-        <v>-0.003581315219783427</v>
+        <v>-0.003581315219783426</v>
       </c>
       <c r="B5862">
         <v>0.00677286927803511</v>
@@ -47263,7 +47263,7 @@
     </row>
     <row r="5864" spans="1:2">
       <c r="A5864">
-        <v>-0.001953681845539721</v>
+        <v>-0.001953681845539722</v>
       </c>
       <c r="B5864">
         <v>0.009878204175560956</v>
@@ -47279,7 +47279,7 @@
     </row>
     <row r="5866" spans="1:2">
       <c r="A5866">
-        <v>-0.0006349369222985132</v>
+        <v>-0.0006349369222985133</v>
       </c>
       <c r="B5866">
         <v>0.01374191674375513</v>
@@ -47423,7 +47423,7 @@
     </row>
     <row r="5884" spans="1:2">
       <c r="A5884">
-        <v>0.005113915154706503</v>
+        <v>0.005113915154706504</v>
       </c>
       <c r="B5884">
         <v>0.01625027938440304</v>
@@ -48095,7 +48095,7 @@
     </row>
     <row r="5968" spans="1:2">
       <c r="A5968">
-        <v>0.06243166581101062</v>
+        <v>0.06243166581101061</v>
       </c>
       <c r="B5968">
         <v>-0.03323222391761416</v>
@@ -48143,7 +48143,7 @@
     </row>
     <row r="5974" spans="1:2">
       <c r="A5974">
-        <v>0.06908705427260103</v>
+        <v>0.06908705427260105</v>
       </c>
       <c r="B5974">
         <v>0.001144295199457801</v>
@@ -48175,7 +48175,7 @@
     </row>
     <row r="5978" spans="1:2">
       <c r="A5978">
-        <v>0.06826467550949156</v>
+        <v>0.06826467550949157</v>
       </c>
       <c r="B5978">
         <v>-0.01096720331130241</v>
@@ -48263,7 +48263,7 @@
     </row>
     <row r="5989" spans="1:2">
       <c r="A5989">
-        <v>0.06088674433728601</v>
+        <v>0.06088674433728602</v>
       </c>
       <c r="B5989">
         <v>-0.03435750581360741</v>
@@ -48407,7 +48407,7 @@
     </row>
     <row r="6007" spans="1:2">
       <c r="A6007">
-        <v>0.06274004872496547</v>
+        <v>0.06274004872496548</v>
       </c>
       <c r="B6007">
         <v>-0.05886875422737115</v>
@@ -48455,7 +48455,7 @@
     </row>
     <row r="6013" spans="1:2">
       <c r="A6013">
-        <v>0.05795646835890507</v>
+        <v>0.05795646835890508</v>
       </c>
       <c r="B6013">
         <v>-0.03399110410477491</v>
@@ -48511,7 +48511,7 @@
     </row>
     <row r="6020" spans="1:2">
       <c r="A6020">
-        <v>0.05080571491871435</v>
+        <v>0.05080571491871434</v>
       </c>
       <c r="B6020">
         <v>-0.07442589077333661</v>
@@ -48527,7 +48527,7 @@
     </row>
     <row r="6022" spans="1:2">
       <c r="A6022">
-        <v>0.05136096016419636</v>
+        <v>0.05136096016419635</v>
       </c>
       <c r="B6022">
         <v>-0.04504000690243171</v>
@@ -48615,7 +48615,7 @@
     </row>
     <row r="6033" spans="1:2">
       <c r="A6033">
-        <v>0.04502678756918937</v>
+        <v>0.04502678756918936</v>
       </c>
       <c r="B6033">
         <v>-0.02253043714072422</v>
@@ -48623,7 +48623,7 @@
     </row>
     <row r="6034" spans="1:2">
       <c r="A6034">
-        <v>0.04378837102703638</v>
+        <v>0.04378837102703637</v>
       </c>
       <c r="B6034">
         <v>-0.03510019082370031</v>
@@ -48679,7 +48679,7 @@
     </row>
     <row r="6041" spans="1:2">
       <c r="A6041">
-        <v>0.03718886570293237</v>
+        <v>0.03718886570293236</v>
       </c>
       <c r="B6041">
         <v>-0.02167989108893931</v>
@@ -48711,7 +48711,7 @@
     </row>
     <row r="6045" spans="1:2">
       <c r="A6045">
-        <v>0.03451450541325479</v>
+        <v>0.03451450541325478</v>
       </c>
       <c r="B6045">
         <v>-0.01764401271535121</v>
@@ -49063,7 +49063,7 @@
     </row>
     <row r="6089" spans="1:2">
       <c r="A6089">
-        <v>0.01544229223759142</v>
+        <v>0.01544229223759141</v>
       </c>
       <c r="B6089">
         <v>-0.007841230587143588</v>
@@ -49111,7 +49111,7 @@
     </row>
     <row r="6095" spans="1:2">
       <c r="A6095">
-        <v>0.01469181865675827</v>
+        <v>0.01469181865675826</v>
       </c>
       <c r="B6095">
         <v>-2.16816421616528E-05</v>
@@ -49159,7 +49159,7 @@
     </row>
     <row r="6101" spans="1:2">
       <c r="A6101">
-        <v>0.008650220827681607</v>
+        <v>0.008650220827681606</v>
       </c>
       <c r="B6101">
         <v>-0.02056964598074185</v>
@@ -49215,7 +49215,7 @@
     </row>
     <row r="6108" spans="1:2">
       <c r="A6108">
-        <v>0.006237138038565292</v>
+        <v>0.006237138038565291</v>
       </c>
       <c r="B6108">
         <v>-0.01814047979357536</v>
@@ -49247,7 +49247,7 @@
     </row>
     <row r="6112" spans="1:2">
       <c r="A6112">
-        <v>0.005124515693175573</v>
+        <v>0.005124515693175572</v>
       </c>
       <c r="B6112">
         <v>-0.01691267591691581</v>
@@ -49255,7 +49255,7 @@
     </row>
     <row r="6113" spans="1:2">
       <c r="A6113">
-        <v>0.00477946474905886</v>
+        <v>0.004779464749058859</v>
       </c>
       <c r="B6113">
         <v>-0.01841727311974806</v>
@@ -49271,7 +49271,7 @@
     </row>
     <row r="6115" spans="1:2">
       <c r="A6115">
-        <v>0.003972917589214053</v>
+        <v>0.003972917589214054</v>
       </c>
       <c r="B6115">
         <v>-0.01509533983646882</v>
@@ -49399,7 +49399,7 @@
     </row>
     <row r="6131" spans="1:2">
       <c r="A6131">
-        <v>0.005311235742388284</v>
+        <v>0.005311235742388285</v>
       </c>
       <c r="B6131">
         <v>0.0002789032107686218</v>
@@ -49463,7 +49463,7 @@
     </row>
     <row r="6139" spans="1:2">
       <c r="A6139">
-        <v>-0.0005967645342455886</v>
+        <v>-0.0005967645342455885</v>
       </c>
       <c r="B6139">
         <v>-0.01260046710853402</v>
@@ -49495,7 +49495,7 @@
     </row>
     <row r="6143" spans="1:2">
       <c r="A6143">
-        <v>-0.002946084074331951</v>
+        <v>-0.00294608407433195</v>
       </c>
       <c r="B6143">
         <v>-0.01465786617076636</v>
@@ -49511,7 +49511,7 @@
     </row>
     <row r="6145" spans="1:2">
       <c r="A6145">
-        <v>-0.003587752627182858</v>
+        <v>-0.003587752627182859</v>
       </c>
       <c r="B6145">
         <v>-0.01742292197312789</v>
@@ -49575,7 +49575,7 @@
     </row>
     <row r="6153" spans="1:2">
       <c r="A6153">
-        <v>-0.006870615471587809</v>
+        <v>-0.006870615471587808</v>
       </c>
       <c r="B6153">
         <v>-0.01217597329145015</v>
@@ -49583,7 +49583,7 @@
     </row>
     <row r="6154" spans="1:2">
       <c r="A6154">
-        <v>-0.006843969601010392</v>
+        <v>-0.006843969601010393</v>
       </c>
       <c r="B6154">
         <v>-0.007384482439598994</v>
@@ -49631,7 +49631,7 @@
     </row>
     <row r="6160" spans="1:2">
       <c r="A6160">
-        <v>-0.009651749145766853</v>
+        <v>-0.009651749145766851</v>
       </c>
       <c r="B6160">
         <v>-0.007272332968650375</v>
@@ -49727,7 +49727,7 @@
     </row>
     <row r="6172" spans="1:2">
       <c r="A6172">
-        <v>-0.01507473976294466</v>
+        <v>-0.01507473976294467</v>
       </c>
       <c r="B6172">
         <v>-0.002584508326746171</v>
@@ -50239,7 +50239,7 @@
     </row>
     <row r="6236" spans="1:2">
       <c r="A6236">
-        <v>-0.02294819430364101</v>
+        <v>-0.02294819430364102</v>
       </c>
       <c r="B6236">
         <v>0.0224385865907899</v>
@@ -50255,7 +50255,7 @@
     </row>
     <row r="6238" spans="1:2">
       <c r="A6238">
-        <v>-0.02236091310458834</v>
+        <v>-0.02236091310458835</v>
       </c>
       <c r="B6238">
         <v>0.01980622773680807</v>
@@ -50263,7 +50263,7 @@
     </row>
     <row r="6239" spans="1:2">
       <c r="A6239">
-        <v>-0.02193063234966977</v>
+        <v>-0.02193063234966976</v>
       </c>
       <c r="B6239">
         <v>0.02185128333146524</v>
@@ -50335,7 +50335,7 @@
     </row>
     <row r="6248" spans="1:2">
       <c r="A6248">
-        <v>-0.01773340996533152</v>
+        <v>-0.01773340996533151</v>
       </c>
       <c r="B6248">
         <v>0.02252512959814412</v>
@@ -50543,7 +50543,7 @@
     </row>
     <row r="6274" spans="1:2">
       <c r="A6274">
-        <v>-0.005067977336152431</v>
+        <v>-0.00506797733615243</v>
       </c>
       <c r="B6274">
         <v>0.01736715853743176</v>
@@ -50551,7 +50551,7 @@
     </row>
     <row r="6275" spans="1:2">
       <c r="A6275">
-        <v>-0.004825451418004113</v>
+        <v>-0.004825451418004114</v>
       </c>
       <c r="B6275">
         <v>0.01602588775798575</v>
@@ -50559,7 +50559,7 @@
     </row>
     <row r="6276" spans="1:2">
       <c r="A6276">
-        <v>-0.004599718084449103</v>
+        <v>-0.004599718084449102</v>
       </c>
       <c r="B6276">
         <v>0.01528427264327537</v>
@@ -50623,7 +50623,7 @@
     </row>
     <row r="6284" spans="1:2">
       <c r="A6284">
-        <v>-0.0065897579605631</v>
+        <v>-0.006589757960563101</v>
       </c>
       <c r="B6284">
         <v>-0.000360667595916464</v>
@@ -50631,7 +50631,7 @@
     </row>
     <row r="6285" spans="1:2">
       <c r="A6285">
-        <v>-0.006532190284196619</v>
+        <v>-0.006532190284196618</v>
       </c>
       <c r="B6285">
         <v>-0.001418645406387142</v>
@@ -50671,7 +50671,7 @@
     </row>
     <row r="6290" spans="1:2">
       <c r="A6290">
-        <v>-0.00328247946457547</v>
+        <v>-0.003282479464575469</v>
       </c>
       <c r="B6290">
         <v>0.003019189908386455</v>
@@ -50695,7 +50695,7 @@
     </row>
     <row r="6293" spans="1:2">
       <c r="A6293">
-        <v>-4.655891828975349E-05</v>
+        <v>-4.65589182897535E-05</v>
       </c>
       <c r="B6293">
         <v>0.008132160546332479</v>
@@ -50783,7 +50783,7 @@
     </row>
     <row r="6304" spans="1:2">
       <c r="A6304">
-        <v>-6.801322531440863E-06</v>
+        <v>-6.801322531440864E-06</v>
       </c>
       <c r="B6304">
         <v>-0.00606908720392374</v>
@@ -50799,7 +50799,7 @@
     </row>
     <row r="6306" spans="1:2">
       <c r="A6306">
-        <v>-0.0003805391284553776</v>
+        <v>-0.0003805391284553775</v>
       </c>
       <c r="B6306">
         <v>-0.00869256197567525</v>
@@ -50839,7 +50839,7 @@
     </row>
     <row r="6311" spans="1:2">
       <c r="A6311">
-        <v>0.0006217115732024004</v>
+        <v>0.0006217115732024005</v>
       </c>
       <c r="B6311">
         <v>-0.007127033669963367</v>
@@ -50847,7 +50847,7 @@
     </row>
     <row r="6312" spans="1:2">
       <c r="A6312">
-        <v>0.0009031026537967262</v>
+        <v>0.0009031026537967263</v>
       </c>
       <c r="B6312">
         <v>-0.005310457435900418</v>
@@ -51015,7 +51015,7 @@
     </row>
     <row r="6333" spans="1:2">
       <c r="A6333">
-        <v>-0.00729913161446468</v>
+        <v>-0.007299131614464681</v>
       </c>
       <c r="B6333">
         <v>-0.004093479921149168</v>
@@ -51031,7 +51031,7 @@
     </row>
     <row r="6335" spans="1:2">
       <c r="A6335">
-        <v>-0.009361296846860117</v>
+        <v>-0.009361296846860118</v>
       </c>
       <c r="B6335">
         <v>-0.005699098151235482</v>
@@ -51143,7 +51143,7 @@
     </row>
     <row r="6349" spans="1:2">
       <c r="A6349">
-        <v>-0.02413286100110895</v>
+        <v>-0.02413286100110894</v>
       </c>
       <c r="B6349">
         <v>0.0009505486470646751</v>
@@ -51183,7 +51183,7 @@
     </row>
     <row r="6354" spans="1:2">
       <c r="A6354">
-        <v>-0.02663939399203239</v>
+        <v>-0.02663939399203238</v>
       </c>
       <c r="B6354">
         <v>0.01235475658861906</v>
@@ -51239,7 +51239,7 @@
     </row>
     <row r="6361" spans="1:2">
       <c r="A6361">
-        <v>-0.03089726858384865</v>
+        <v>-0.03089726858384866</v>
       </c>
       <c r="B6361">
         <v>0.03049108906081033</v>
@@ -51255,7 +51255,7 @@
     </row>
     <row r="6363" spans="1:2">
       <c r="A6363">
-        <v>-0.03307104380625574</v>
+        <v>-0.03307104380625573</v>
       </c>
       <c r="B6363">
         <v>0.02791467618932719</v>
@@ -51399,7 +51399,7 @@
     </row>
     <row r="6381" spans="1:2">
       <c r="A6381">
-        <v>-0.0513405525999225</v>
+        <v>-0.05134055259992249</v>
       </c>
       <c r="B6381">
         <v>0.03122031776811696</v>
@@ -51479,7 +51479,7 @@
     </row>
     <row r="6391" spans="1:2">
       <c r="A6391">
-        <v>-0.0559321801168397</v>
+        <v>-0.05593218011683969</v>
       </c>
       <c r="B6391">
         <v>0.0473042910280852</v>
@@ -51495,7 +51495,7 @@
     </row>
     <row r="6393" spans="1:2">
       <c r="A6393">
-        <v>-0.05673974846231955</v>
+        <v>-0.05673974846231954</v>
       </c>
       <c r="B6393">
         <v>0.04663012101626984</v>
@@ -51511,7 +51511,7 @@
     </row>
     <row r="6395" spans="1:2">
       <c r="A6395">
-        <v>-0.05741234054917663</v>
+        <v>-0.05741234054917662</v>
       </c>
       <c r="B6395">
         <v>0.04561896521888809</v>
@@ -51519,7 +51519,7 @@
     </row>
     <row r="6396" spans="1:2">
       <c r="A6396">
-        <v>-0.05855642743449439</v>
+        <v>-0.0585564274344944</v>
       </c>
       <c r="B6396">
         <v>0.05175393433771092</v>
@@ -51575,7 +51575,7 @@
     </row>
     <row r="6403" spans="1:2">
       <c r="A6403">
-        <v>-0.06738852503750867</v>
+        <v>-0.06738852503750868</v>
       </c>
       <c r="B6403">
         <v>0.04203846701235747</v>
@@ -51615,7 +51615,7 @@
     </row>
     <row r="6408" spans="1:2">
       <c r="A6408">
-        <v>-0.06999493060536055</v>
+        <v>-0.06999493060536056</v>
       </c>
       <c r="B6408">
         <v>0.04711914966575748</v>
@@ -51663,7 +51663,7 @@
     </row>
     <row r="6414" spans="1:2">
       <c r="A6414">
-        <v>-0.06937380866048432</v>
+        <v>-0.06937380866048433</v>
       </c>
       <c r="B6414">
         <v>0.06410341494066518</v>
@@ -51671,7 +51671,7 @@
     </row>
     <row r="6415" spans="1:2">
       <c r="A6415">
-        <v>-0.0686768461367358</v>
+        <v>-0.06867684613673582</v>
       </c>
       <c r="B6415">
         <v>0.05815621146244165</v>
@@ -51695,7 +51695,7 @@
     </row>
     <row r="6418" spans="1:2">
       <c r="A6418">
-        <v>-0.0666727669544204</v>
+        <v>-0.06667276695442041</v>
       </c>
       <c r="B6418">
         <v>0.06744178030736547</v>
@@ -51743,7 +51743,7 @@
     </row>
     <row r="6424" spans="1:2">
       <c r="A6424">
-        <v>-0.06251837840865718</v>
+        <v>-0.06251837840865716</v>
       </c>
       <c r="B6424">
         <v>0.07724312309645098</v>
@@ -51831,7 +51831,7 @@
     </row>
     <row r="6435" spans="1:2">
       <c r="A6435">
-        <v>-0.06277171186103034</v>
+        <v>-0.06277171186103035</v>
       </c>
       <c r="B6435">
         <v>0.04406675113818537</v>
@@ -51855,7 +51855,7 @@
     </row>
     <row r="6438" spans="1:2">
       <c r="A6438">
-        <v>-0.06232261862749361</v>
+        <v>-0.06232261862749362</v>
       </c>
       <c r="B6438">
         <v>0.04205693925934906</v>
@@ -51879,7 +51879,7 @@
     </row>
     <row r="6441" spans="1:2">
       <c r="A6441">
-        <v>-0.05937997531414574</v>
+        <v>-0.05937997531414575</v>
       </c>
       <c r="B6441">
         <v>0.0466859507117956</v>
@@ -51919,7 +51919,7 @@
     </row>
     <row r="6446" spans="1:2">
       <c r="A6446">
-        <v>-0.05244322807829012</v>
+        <v>-0.05244322807829011</v>
       </c>
       <c r="B6446">
         <v>0.05522943400448677</v>
@@ -51951,7 +51951,7 @@
     </row>
     <row r="6450" spans="1:2">
       <c r="A6450">
-        <v>-0.04886200552279142</v>
+        <v>-0.04886200552279143</v>
       </c>
       <c r="B6450">
         <v>0.05130481165569334</v>
@@ -51967,7 +51967,7 @@
     </row>
     <row r="6452" spans="1:2">
       <c r="A6452">
-        <v>-0.04773697242784171</v>
+        <v>-0.0477369724278417</v>
       </c>
       <c r="B6452">
         <v>0.05768642129516754</v>
@@ -51991,7 +51991,7 @@
     </row>
     <row r="6455" spans="1:2">
       <c r="A6455">
-        <v>-0.04613287264316722</v>
+        <v>-0.04613287264316721</v>
       </c>
       <c r="B6455">
         <v>0.04653205076154032</v>
@@ -52007,7 +52007,7 @@
     </row>
     <row r="6457" spans="1:2">
       <c r="A6457">
-        <v>-0.0453462140979283</v>
+        <v>-0.04534621409792831</v>
       </c>
       <c r="B6457">
         <v>0.0514229649193978</v>
@@ -52015,7 +52015,7 @@
     </row>
     <row r="6458" spans="1:2">
       <c r="A6458">
-        <v>-0.04486956599326183</v>
+        <v>-0.04486956599326184</v>
       </c>
       <c r="B6458">
         <v>0.04472323326433969</v>
@@ -52063,7 +52063,7 @@
     </row>
     <row r="6464" spans="1:2">
       <c r="A6464">
-        <v>-0.04274362367399874</v>
+        <v>-0.04274362367399875</v>
       </c>
       <c r="B6464">
         <v>0.04034262584010406</v>
@@ -52223,7 +52223,7 @@
     </row>
     <row r="6484" spans="1:2">
       <c r="A6484">
-        <v>-0.03451767169884637</v>
+        <v>-0.03451767169884636</v>
       </c>
       <c r="B6484">
         <v>0.03549574266550248</v>
@@ -52319,7 +52319,7 @@
     </row>
     <row r="6496" spans="1:2">
       <c r="A6496">
-        <v>-0.02667591954946202</v>
+        <v>-0.02667591954946201</v>
       </c>
       <c r="B6496">
         <v>0.03602559877918576</v>
@@ -52391,7 +52391,7 @@
     </row>
     <row r="6505" spans="1:2">
       <c r="A6505">
-        <v>-0.0252874793269668</v>
+        <v>-0.02528747932696679</v>
       </c>
       <c r="B6505">
         <v>0.02539851215569877</v>
@@ -52503,7 +52503,7 @@
     </row>
     <row r="6519" spans="1:2">
       <c r="A6519">
-        <v>-0.01505914694031122</v>
+        <v>-0.01505914694031123</v>
       </c>
       <c r="B6519">
         <v>0.02506666441696348</v>
@@ -52663,7 +52663,7 @@
     </row>
     <row r="6539" spans="1:2">
       <c r="A6539">
-        <v>-0.01226060153741906</v>
+        <v>-0.01226060153741905</v>
       </c>
       <c r="B6539">
         <v>0.01466810783738293</v>
@@ -52703,7 +52703,7 @@
     </row>
     <row r="6544" spans="1:2">
       <c r="A6544">
-        <v>-0.005952262693013412</v>
+        <v>-0.005952262693013411</v>
       </c>
       <c r="B6544">
         <v>0.02563101545758917</v>
@@ -52919,7 +52919,7 @@
     </row>
     <row r="6571" spans="1:2">
       <c r="A6571">
-        <v>0.006108547644116632</v>
+        <v>0.006108547644116631</v>
       </c>
       <c r="B6571">
         <v>0.006271270094912129</v>
@@ -52959,7 +52959,7 @@
     </row>
     <row r="6576" spans="1:2">
       <c r="A6576">
-        <v>0.009263118421613294</v>
+        <v>0.009263118421613295</v>
       </c>
       <c r="B6576">
         <v>0.00629968983127549</v>
@@ -52975,7 +52975,7 @@
     </row>
     <row r="6578" spans="1:2">
       <c r="A6578">
-        <v>0.01006304315558419</v>
+        <v>0.01006304315558418</v>
       </c>
       <c r="B6578">
         <v>0.005353191137949853</v>
@@ -53207,7 +53207,7 @@
     </row>
     <row r="6607" spans="1:2">
       <c r="A6607">
-        <v>0.01707735393028077</v>
+        <v>0.01707735393028076</v>
       </c>
       <c r="B6607">
         <v>-0.01639153540975435</v>
@@ -53223,7 +53223,7 @@
     </row>
     <row r="6609" spans="1:2">
       <c r="A6609">
-        <v>0.01846395209129849</v>
+        <v>0.01846395209129848</v>
       </c>
       <c r="B6609">
         <v>-0.01307883543843191</v>
@@ -53455,7 +53455,7 @@
     </row>
     <row r="6638" spans="1:2">
       <c r="A6638">
-        <v>0.03450904123852755</v>
+        <v>0.03450904123852756</v>
       </c>
       <c r="B6638">
         <v>-0.01420930497680484</v>
@@ -53471,7 +53471,7 @@
     </row>
     <row r="6640" spans="1:2">
       <c r="A6640">
-        <v>0.03610297570329077</v>
+        <v>0.03610297570329078</v>
       </c>
       <c r="B6640">
         <v>-0.02121566128959884</v>
@@ -53527,7 +53527,7 @@
     </row>
     <row r="6647" spans="1:2">
       <c r="A6647">
-        <v>0.03971642703564353</v>
+        <v>0.03971642703564352</v>
       </c>
       <c r="B6647">
         <v>-0.02533962495387776</v>
@@ -53607,7 +53607,7 @@
     </row>
     <row r="6657" spans="1:2">
       <c r="A6657">
-        <v>0.04638461538697932</v>
+        <v>0.04638461538697933</v>
       </c>
       <c r="B6657">
         <v>-0.03061583205809537</v>
@@ -53615,7 +53615,7 @@
     </row>
     <row r="6658" spans="1:2">
       <c r="A6658">
-        <v>0.04683058520893382</v>
+        <v>0.04683058520893383</v>
       </c>
       <c r="B6658">
         <v>-0.02469648795116797</v>
@@ -53655,7 +53655,7 @@
     </row>
     <row r="6663" spans="1:2">
       <c r="A6663">
-        <v>0.04733594692357831</v>
+        <v>0.0473359469235783</v>
       </c>
       <c r="B6663">
         <v>-0.03300510639739285</v>
@@ -53711,7 +53711,7 @@
     </row>
     <row r="6670" spans="1:2">
       <c r="A6670">
-        <v>0.05202827852199724</v>
+        <v>0.05202827852199723</v>
       </c>
       <c r="B6670">
         <v>-0.0418955442175335</v>
@@ -53719,7 +53719,7 @@
     </row>
     <row r="6671" spans="1:2">
       <c r="A6671">
-        <v>0.05274607964855567</v>
+        <v>0.05274607964855568</v>
       </c>
       <c r="B6671">
         <v>-0.03453477121271975</v>
@@ -53735,7 +53735,7 @@
     </row>
     <row r="6673" spans="1:2">
       <c r="A6673">
-        <v>0.05302603472822796</v>
+        <v>0.05302603472822797</v>
       </c>
       <c r="B6673">
         <v>-0.03374321928915824</v>
@@ -53743,7 +53743,7 @@
     </row>
     <row r="6674" spans="1:2">
       <c r="A6674">
-        <v>0.05381799469993578</v>
+        <v>0.05381799469993579</v>
       </c>
       <c r="B6674">
         <v>-0.03887531157888224</v>
@@ -53823,7 +53823,7 @@
     </row>
     <row r="6684" spans="1:2">
       <c r="A6684">
-        <v>0.05787224046338031</v>
+        <v>0.05787224046338032</v>
       </c>
       <c r="B6684">
         <v>-0.04385791005030137</v>
@@ -53831,7 +53831,7 @@
     </row>
     <row r="6685" spans="1:2">
       <c r="A6685">
-        <v>0.05753201269215265</v>
+        <v>0.05753201269215264</v>
       </c>
       <c r="B6685">
         <v>-0.05156293599731976</v>
@@ -54079,7 +54079,7 @@
     </row>
     <row r="6716" spans="1:2">
       <c r="A6716">
-        <v>0.03085066833868796</v>
+        <v>0.03085066833868795</v>
       </c>
       <c r="B6716">
         <v>-0.08362974277506297</v>
@@ -54087,7 +54087,7 @@
     </row>
     <row r="6717" spans="1:2">
       <c r="A6717">
-        <v>0.02716614832138776</v>
+        <v>0.02716614832138775</v>
       </c>
       <c r="B6717">
         <v>-0.09169748225496299</v>
@@ -54183,7 +54183,7 @@
     </row>
     <row r="6729" spans="1:2">
       <c r="A6729">
-        <v>-0.0117685573305679</v>
+        <v>-0.01176855733056789</v>
       </c>
       <c r="B6729">
         <v>-0.02187085299385583</v>
@@ -54191,7 +54191,7 @@
     </row>
     <row r="6730" spans="1:2">
       <c r="A6730">
-        <v>-0.01568448878006466</v>
+        <v>-0.01568448878006467</v>
       </c>
       <c r="B6730">
         <v>-0.0355479159547043</v>
@@ -54223,7 +54223,7 @@
     </row>
     <row r="6734" spans="1:2">
       <c r="A6734">
-        <v>-0.03186111142886414</v>
+        <v>-0.03186111142886413</v>
       </c>
       <c r="B6734">
         <v>0.002463402195464592</v>
@@ -54311,7 +54311,7 @@
     </row>
     <row r="6745" spans="1:2">
       <c r="A6745">
-        <v>-0.08293915960990364</v>
+        <v>-0.08293915960990365</v>
       </c>
       <c r="B6745">
         <v>0.04028672333176209</v>
@@ -54327,7 +54327,7 @@
     </row>
     <row r="6747" spans="1:2">
       <c r="A6747">
-        <v>-0.09203458952393817</v>
+        <v>-0.09203458952393818</v>
       </c>
       <c r="B6747">
         <v>0.03186040776800558</v>
@@ -54495,7 +54495,7 @@
     </row>
     <row r="6768" spans="1:2">
       <c r="A6768">
-        <v>-0.1239307319906464</v>
+        <v>-0.1239307319906465</v>
       </c>
       <c r="B6768">
         <v>0.1705536453248788</v>
@@ -54679,7 +54679,7 @@
     </row>
     <row r="6791" spans="1:2">
       <c r="A6791">
-        <v>-0.07775162945965103</v>
+        <v>-0.07775162945965104</v>
       </c>
       <c r="B6791">
         <v>0.1180771398310521</v>
@@ -54871,7 +54871,7 @@
     </row>
     <row r="6815" spans="1:2">
       <c r="A6815">
-        <v>0.007763873687534414</v>
+        <v>0.007763873687534415</v>
       </c>
       <c r="B6815">
         <v>0.0217169475991037</v>
@@ -54935,7 +54935,7 @@
     </row>
     <row r="6823" spans="1:2">
       <c r="A6823">
-        <v>0.03313247021597994</v>
+        <v>0.03313247021597995</v>
       </c>
       <c r="B6823">
         <v>0.008539272134790554</v>
@@ -55015,7 +55015,7 @@
     </row>
     <row r="6833" spans="1:2">
       <c r="A6833">
-        <v>0.05566339474592015</v>
+        <v>0.05566339474592016</v>
       </c>
       <c r="B6833">
         <v>-0.03009209992892847</v>
@@ -55031,7 +55031,7 @@
     </row>
     <row r="6835" spans="1:2">
       <c r="A6835">
-        <v>0.0604811728616191</v>
+        <v>0.06048117286161909</v>
       </c>
       <c r="B6835">
         <v>-0.01792404271209325</v>
@@ -55071,7 +55071,7 @@
     </row>
     <row r="6840" spans="1:2">
       <c r="A6840">
-        <v>0.07154978643473367</v>
+        <v>0.07154978643473368</v>
       </c>
       <c r="B6840">
         <v>-0.04992499027192254</v>
@@ -55111,7 +55111,7 @@
     </row>
     <row r="6845" spans="1:2">
       <c r="A6845">
-        <v>0.08641448764055099</v>
+        <v>0.086414487640551</v>
       </c>
       <c r="B6845">
         <v>-0.02726304775619504</v>
@@ -55127,7 +55127,7 @@
     </row>
     <row r="6847" spans="1:2">
       <c r="A6847">
-        <v>0.08934951868810251</v>
+        <v>0.08934951868810252</v>
       </c>
       <c r="B6847">
         <v>-0.01009954116404677</v>
@@ -55151,7 +55151,7 @@
     </row>
     <row r="6850" spans="1:2">
       <c r="A6850">
-        <v>0.09355149427887588</v>
+        <v>0.09355149427887589</v>
       </c>
       <c r="B6850">
         <v>-0.01393718413600142</v>
@@ -55175,7 +55175,7 @@
     </row>
     <row r="6853" spans="1:2">
       <c r="A6853">
-        <v>0.09773362254051873</v>
+        <v>0.09773362254051875</v>
       </c>
       <c r="B6853">
         <v>-0.07696747805742943</v>
@@ -55183,7 +55183,7 @@
     </row>
     <row r="6854" spans="1:2">
       <c r="A6854">
-        <v>0.09921035963181908</v>
+        <v>0.0992103596318191</v>
       </c>
       <c r="B6854">
         <v>-0.04241056688466216</v>
@@ -55199,7 +55199,7 @@
     </row>
     <row r="6856" spans="1:2">
       <c r="A6856">
-        <v>0.09958416242544066</v>
+        <v>0.09958416242544067</v>
       </c>
       <c r="B6856">
         <v>-0.08742214913948976</v>
@@ -55239,7 +55239,7 @@
     </row>
     <row r="6861" spans="1:2">
       <c r="A6861">
-        <v>0.09850485579118418</v>
+        <v>0.09850485579118419</v>
       </c>
       <c r="B6861">
         <v>-0.09072682175376912</v>
@@ -55263,7 +55263,7 @@
     </row>
     <row r="6864" spans="1:2">
       <c r="A6864">
-        <v>0.09805519535681559</v>
+        <v>0.09805519535681557</v>
       </c>
       <c r="B6864">
         <v>-0.09633469040693976</v>
@@ -55295,7 +55295,7 @@
     </row>
     <row r="6868" spans="1:2">
       <c r="A6868">
-        <v>0.09913070938207301</v>
+        <v>0.099130709382073</v>
       </c>
       <c r="B6868">
         <v>-0.109956353306734</v>
@@ -55359,7 +55359,7 @@
     </row>
     <row r="6876" spans="1:2">
       <c r="A6876">
-        <v>0.09974078704652141</v>
+        <v>0.09974078704652142</v>
       </c>
       <c r="B6876">
         <v>-0.1170495567181078</v>
@@ -55367,7 +55367,7 @@
     </row>
     <row r="6877" spans="1:2">
       <c r="A6877">
-        <v>0.0993384882496807</v>
+        <v>0.09933848824968071</v>
       </c>
       <c r="B6877">
         <v>-0.08606232740621644</v>
@@ -55383,7 +55383,7 @@
     </row>
     <row r="6879" spans="1:2">
       <c r="A6879">
-        <v>0.09787539626574389</v>
+        <v>0.09787539626574387</v>
       </c>
       <c r="B6879">
         <v>-0.1104290993620949</v>
@@ -55391,7 +55391,7 @@
     </row>
     <row r="6880" spans="1:2">
       <c r="A6880">
-        <v>0.09690448508166401</v>
+        <v>0.09690448508166402</v>
       </c>
       <c r="B6880">
         <v>-0.07997747869954619</v>
@@ -55399,7 +55399,7 @@
     </row>
     <row r="6881" spans="1:2">
       <c r="A6881">
-        <v>0.09710450365033145</v>
+        <v>0.09710450365033144</v>
       </c>
       <c r="B6881">
         <v>-0.09054846063321476</v>
@@ -55423,7 +55423,7 @@
     </row>
     <row r="6884" spans="1:2">
       <c r="A6884">
-        <v>0.09363267524340473</v>
+        <v>0.09363267524340474</v>
       </c>
       <c r="B6884">
         <v>-0.08522856876407259</v>
@@ -55455,7 +55455,7 @@
     </row>
     <row r="6888" spans="1:2">
       <c r="A6888">
-        <v>0.08884829163444528</v>
+        <v>0.0888482916344453</v>
       </c>
       <c r="B6888">
         <v>-0.09026713877150305</v>
@@ -55495,7 +55495,7 @@
     </row>
     <row r="6893" spans="1:2">
       <c r="A6893">
-        <v>0.08187207610336653</v>
+        <v>0.08187207610336654</v>
       </c>
       <c r="B6893">
         <v>-0.1019739457775981</v>
@@ -55519,7 +55519,7 @@
     </row>
     <row r="6896" spans="1:2">
       <c r="A6896">
-        <v>0.07899383986675725</v>
+        <v>0.07899383986675723</v>
       </c>
       <c r="B6896">
         <v>-0.09199817269875821</v>
@@ -55559,7 +55559,7 @@
     </row>
     <row r="6901" spans="1:2">
       <c r="A6901">
-        <v>0.07081060734292528</v>
+        <v>0.0708106073429253</v>
       </c>
       <c r="B6901">
         <v>-0.07246634957468734</v>
@@ -55591,7 +55591,7 @@
     </row>
     <row r="6905" spans="1:2">
       <c r="A6905">
-        <v>0.06445918194873966</v>
+        <v>0.06445918194873965</v>
       </c>
       <c r="B6905">
         <v>-0.07505236544468774</v>
@@ -55639,7 +55639,7 @@
     </row>
     <row r="6911" spans="1:2">
       <c r="A6911">
-        <v>0.05754827223152898</v>
+        <v>0.05754827223152899</v>
       </c>
       <c r="B6911">
         <v>-0.05665498421331927</v>
@@ -55647,7 +55647,7 @@
     </row>
     <row r="6912" spans="1:2">
       <c r="A6912">
-        <v>0.05716358298672915</v>
+        <v>0.05716358298672914</v>
       </c>
       <c r="B6912">
         <v>-0.06143435167988809</v>
@@ -55719,7 +55719,7 @@
     </row>
     <row r="6921" spans="1:2">
       <c r="A6921">
-        <v>0.04510549539323275</v>
+        <v>0.04510549539323274</v>
       </c>
       <c r="B6921">
         <v>-0.04457587521057826</v>
@@ -55823,7 +55823,7 @@
     </row>
     <row r="6934" spans="1:2">
       <c r="A6934">
-        <v>0.03552807741982882</v>
+        <v>0.03552807741982881</v>
       </c>
       <c r="B6934">
         <v>-0.04048495196205293</v>
@@ -55831,7 +55831,7 @@
     </row>
     <row r="6935" spans="1:2">
       <c r="A6935">
-        <v>0.03512861198897727</v>
+        <v>0.03512861198897726</v>
       </c>
       <c r="B6935">
         <v>-0.02686906779525966</v>
@@ -55847,7 +55847,7 @@
     </row>
     <row r="6937" spans="1:2">
       <c r="A6937">
-        <v>0.03507651527431043</v>
+        <v>0.03507651527431044</v>
       </c>
       <c r="B6937">
         <v>-0.03175692672090991</v>
@@ -55991,7 +55991,7 @@
     </row>
     <row r="6955" spans="1:2">
       <c r="A6955">
-        <v>0.02366265767063491</v>
+        <v>0.02366265767063492</v>
       </c>
       <c r="B6955">
         <v>-0.02878622299783817</v>
@@ -56015,7 +56015,7 @@
     </row>
     <row r="6958" spans="1:2">
       <c r="A6958">
-        <v>0.021650098478784</v>
+        <v>0.02165009847878401</v>
       </c>
       <c r="B6958">
         <v>-0.02715801224643943</v>
@@ -56135,7 +56135,7 @@
     </row>
     <row r="6973" spans="1:2">
       <c r="A6973">
-        <v>0.01789375018334335</v>
+        <v>0.01789375018334336</v>
       </c>
       <c r="B6973">
         <v>-0.003272585672991823</v>
@@ -56191,7 +56191,7 @@
     </row>
     <row r="6980" spans="1:2">
       <c r="A6980">
-        <v>0.01854203485145818</v>
+        <v>0.01854203485145817</v>
       </c>
       <c r="B6980">
         <v>0.002361469331621624</v>
@@ -56231,7 +56231,7 @@
     </row>
     <row r="6985" spans="1:2">
       <c r="A6985">
-        <v>0.01849824529876241</v>
+        <v>0.01849824529876242</v>
       </c>
       <c r="B6985">
         <v>-0.006220773406736324</v>
@@ -56343,7 +56343,7 @@
     </row>
     <row r="6999" spans="1:2">
       <c r="A6999">
-        <v>0.02421098937295299</v>
+        <v>0.024210989372953</v>
       </c>
       <c r="B6999">
         <v>-0.009157846883845799</v>
@@ -56463,7 +56463,7 @@
     </row>
     <row r="7014" spans="1:2">
       <c r="A7014">
-        <v>0.03486265897434873</v>
+        <v>0.03486265897434872</v>
       </c>
       <c r="B7014">
         <v>-0.01018848575568487</v>
@@ -56471,7 +56471,7 @@
     </row>
     <row r="7015" spans="1:2">
       <c r="A7015">
-        <v>0.03524038681397869</v>
+        <v>0.03524038681397868</v>
       </c>
       <c r="B7015">
         <v>-0.01948036077896553</v>
@@ -56503,7 +56503,7 @@
     </row>
     <row r="7019" spans="1:2">
       <c r="A7019">
-        <v>0.03966067937082748</v>
+        <v>0.03966067937082749</v>
       </c>
       <c r="B7019">
         <v>0.002771612040783467</v>
@@ -56519,7 +56519,7 @@
     </row>
     <row r="7021" spans="1:2">
       <c r="A7021">
-        <v>0.04248798673619746</v>
+        <v>0.04248798673619745</v>
       </c>
       <c r="B7021">
         <v>-0.01492957933417483</v>
@@ -56551,7 +56551,7 @@
     </row>
     <row r="7025" spans="1:2">
       <c r="A7025">
-        <v>0.04350802846659502</v>
+        <v>0.04350802846659501</v>
       </c>
       <c r="B7025">
         <v>-0.03033055162935305</v>
@@ -56567,7 +56567,7 @@
     </row>
     <row r="7027" spans="1:2">
       <c r="A7027">
-        <v>0.04574458566031349</v>
+        <v>0.04574458566031348</v>
       </c>
       <c r="B7027">
         <v>-0.02017706582176437</v>
@@ -56671,7 +56671,7 @@
     </row>
     <row r="7040" spans="1:2">
       <c r="A7040">
-        <v>0.06054757398696273</v>
+        <v>0.06054757398696272</v>
       </c>
       <c r="B7040">
         <v>-0.02207625549011727</v>
@@ -56679,7 +56679,7 @@
     </row>
     <row r="7041" spans="1:2">
       <c r="A7041">
-        <v>0.06149834455739421</v>
+        <v>0.0614983445573942</v>
       </c>
       <c r="B7041">
         <v>-0.03310226691556473</v>
@@ -56783,7 +56783,7 @@
     </row>
     <row r="7054" spans="1:2">
       <c r="A7054">
-        <v>0.06798450398574488</v>
+        <v>0.06798450398574486</v>
       </c>
       <c r="B7054">
         <v>-0.06107173241651775</v>
@@ -56799,7 +56799,7 @@
     </row>
     <row r="7056" spans="1:2">
       <c r="A7056">
-        <v>0.06952429531292445</v>
+        <v>0.06952429531292446</v>
       </c>
       <c r="B7056">
         <v>-0.04715856960817533</v>
@@ -58263,7 +58263,7 @@
     </row>
     <row r="7239" spans="1:2">
       <c r="A7239">
-        <v>-0.08809801281878946</v>
+        <v>-0.08809801281878947</v>
       </c>
       <c r="B7239">
         <v>0.02788002004873125</v>
@@ -58567,7 +58567,7 @@
     </row>
     <row r="7277" spans="1:2">
       <c r="A7277">
-        <v>-0.09151319901922278</v>
+        <v>-0.09151319901922279</v>
       </c>
       <c r="B7277">
         <v>0.09367876286825716</v>
@@ -58607,7 +58607,7 @@
     </row>
     <row r="7282" spans="1:2">
       <c r="A7282">
-        <v>-0.08329607055088072</v>
+        <v>-0.0832960705508807</v>
       </c>
       <c r="B7282">
         <v>0.07933474622343972</v>
@@ -58615,7 +58615,7 @@
     </row>
     <row r="7283" spans="1:2">
       <c r="A7283">
-        <v>-0.08148507464385453</v>
+        <v>-0.08148507464385454</v>
       </c>
       <c r="B7283">
         <v>0.08893827982824387</v>
@@ -58735,7 +58735,7 @@
     </row>
     <row r="7298" spans="1:2">
       <c r="A7298">
-        <v>-0.04906056644933289</v>
+        <v>-0.0490605664493329</v>
       </c>
       <c r="B7298">
         <v>0.08964949345695361</v>
@@ -58751,7 +58751,7 @@
     </row>
     <row r="7300" spans="1:2">
       <c r="A7300">
-        <v>-0.04647637495535148</v>
+        <v>-0.04647637495535147</v>
       </c>
       <c r="B7300">
         <v>0.0756980156611764</v>
@@ -58871,7 +58871,7 @@
     </row>
     <row r="7315" spans="1:2">
       <c r="A7315">
-        <v>-0.02681704645720846</v>
+        <v>-0.02681704645720847</v>
       </c>
       <c r="B7315">
         <v>0.04522717039523982</v>
@@ -59007,7 +59007,7 @@
     </row>
     <row r="7332" spans="1:2">
       <c r="A7332">
-        <v>-0.009336622112914169</v>
+        <v>-0.00933662211291417</v>
       </c>
       <c r="B7332">
         <v>0.01847896656294434</v>
@@ -59031,7 +59031,7 @@
     </row>
     <row r="7335" spans="1:2">
       <c r="A7335">
-        <v>-0.006808760949068137</v>
+        <v>-0.006808760949068136</v>
       </c>
       <c r="B7335">
         <v>0.01555894551150416</v>
@@ -59063,7 +59063,7 @@
     </row>
     <row r="7339" spans="1:2">
       <c r="A7339">
-        <v>-0.002527308225247929</v>
+        <v>-0.00252730822524793</v>
       </c>
       <c r="B7339">
         <v>0.02193891057065978</v>
@@ -59071,7 +59071,7 @@
     </row>
     <row r="7340" spans="1:2">
       <c r="A7340">
-        <v>-0.0009580406950496635</v>
+        <v>-0.0009580406950496636</v>
       </c>
       <c r="B7340">
         <v>0.01971611289089692</v>
@@ -59167,7 +59167,7 @@
     </row>
     <row r="7352" spans="1:2">
       <c r="A7352">
-        <v>0.01089250437496013</v>
+        <v>0.01089250437496014</v>
       </c>
       <c r="B7352">
         <v>0.002846607538022017</v>
@@ -59391,7 +59391,7 @@
     </row>
     <row r="7380" spans="1:2">
       <c r="A7380">
-        <v>0.03791198331894124</v>
+        <v>0.03791198331894125</v>
       </c>
       <c r="B7380">
         <v>0.007731672700123315</v>
@@ -59399,7 +59399,7 @@
     </row>
     <row r="7381" spans="1:2">
       <c r="A7381">
-        <v>0.03825369043272706</v>
+        <v>0.03825369043272705</v>
       </c>
       <c r="B7381">
         <v>-0.007160483587678623</v>
@@ -59415,7 +59415,7 @@
     </row>
     <row r="7383" spans="1:2">
       <c r="A7383">
-        <v>0.03763865676729103</v>
+        <v>0.03763865676729102</v>
       </c>
       <c r="B7383">
         <v>0.004594285792895114</v>
@@ -59479,7 +59479,7 @@
     </row>
     <row r="7391" spans="1:2">
       <c r="A7391">
-        <v>0.0413257265955586</v>
+        <v>0.04132572659555859</v>
       </c>
       <c r="B7391">
         <v>-0.01810466305754499</v>
@@ -59487,7 +59487,7 @@
     </row>
     <row r="7392" spans="1:2">
       <c r="A7392">
-        <v>0.04248764198081806</v>
+        <v>0.04248764198081805</v>
       </c>
       <c r="B7392">
         <v>-0.03090639679538132</v>
@@ -59543,7 +59543,7 @@
     </row>
     <row r="7399" spans="1:2">
       <c r="A7399">
-        <v>0.04761830599291385</v>
+        <v>0.04761830599291384</v>
       </c>
       <c r="B7399">
         <v>-0.02525689002878728</v>
@@ -59567,7 +59567,7 @@
     </row>
     <row r="7402" spans="1:2">
       <c r="A7402">
-        <v>0.04951632537379413</v>
+        <v>0.04951632537379414</v>
       </c>
       <c r="B7402">
         <v>-0.01280475751512089</v>
@@ -59775,7 +59775,7 @@
     </row>
     <row r="7428" spans="1:2">
       <c r="A7428">
-        <v>0.06004174769014833</v>
+        <v>0.06004174769014834</v>
       </c>
       <c r="B7428">
         <v>0.01835833967643552</v>
@@ -59991,7 +59991,7 @@
     </row>
     <row r="7455" spans="1:2">
       <c r="A7455">
-        <v>0.06271564677770042</v>
+        <v>0.06271564677770043</v>
       </c>
       <c r="B7455">
         <v>-0.05496104448134531</v>
@@ -60007,7 +60007,7 @@
     </row>
     <row r="7457" spans="1:2">
       <c r="A7457">
-        <v>0.06221760600129318</v>
+        <v>0.06221760600129319</v>
       </c>
       <c r="B7457">
         <v>-0.01753803175201174</v>
@@ -60103,7 +60103,7 @@
     </row>
     <row r="7469" spans="1:2">
       <c r="A7469">
-        <v>0.05225139643545154</v>
+        <v>0.05225139643545155</v>
       </c>
       <c r="B7469">
         <v>-0.02544713479369509</v>
@@ -60135,7 +60135,7 @@
     </row>
     <row r="7473" spans="1:2">
       <c r="A7473">
-        <v>0.04646727319341169</v>
+        <v>0.0464672731934117</v>
       </c>
       <c r="B7473">
         <v>-0.08567944465266297</v>
@@ -60143,7 +60143,7 @@
     </row>
     <row r="7474" spans="1:2">
       <c r="A7474">
-        <v>0.04574883313565857</v>
+        <v>0.04574883313565856</v>
       </c>
       <c r="B7474">
         <v>-0.04238493875351157</v>
@@ -60335,7 +60335,7 @@
     </row>
     <row r="7498" spans="1:2">
       <c r="A7498">
-        <v>0.02745848843967442</v>
+        <v>0.02745848843967441</v>
       </c>
       <c r="B7498">
         <v>-0.03909031607781888</v>
@@ -60423,7 +60423,7 @@
     </row>
     <row r="7509" spans="1:2">
       <c r="A7509">
-        <v>0.02326429094638661</v>
+        <v>0.02326429094638662</v>
       </c>
       <c r="B7509">
         <v>-0.01179590615845783</v>
@@ -60607,7 +60607,7 @@
     </row>
     <row r="7532" spans="1:2">
       <c r="A7532">
-        <v>0.01013236606166116</v>
+        <v>0.01013236606166115</v>
       </c>
       <c r="B7532">
         <v>-0.02091021380582436</v>
@@ -60615,7 +60615,7 @@
     </row>
     <row r="7533" spans="1:2">
       <c r="A7533">
-        <v>0.00964673524806514</v>
+        <v>0.009646735248065141</v>
       </c>
       <c r="B7533">
         <v>-0.004631042415180531</v>
@@ -60655,7 +60655,7 @@
     </row>
     <row r="7538" spans="1:2">
       <c r="A7538">
-        <v>0.00924057783829328</v>
+        <v>0.009240577838293282</v>
       </c>
       <c r="B7538">
         <v>-0.005283576527122413</v>
@@ -60671,7 +60671,7 @@
     </row>
     <row r="7540" spans="1:2">
       <c r="A7540">
-        <v>0.009362967436028817</v>
+        <v>0.009362967436028815</v>
       </c>
       <c r="B7540">
         <v>-0.0114177787464973</v>
@@ -60679,7 +60679,7 @@
     </row>
     <row r="7541" spans="1:2">
       <c r="A7541">
-        <v>0.009412904336065323</v>
+        <v>0.009412904336065321</v>
       </c>
       <c r="B7541">
         <v>-0.0138168476842635</v>
@@ -60687,7 +60687,7 @@
     </row>
     <row r="7542" spans="1:2">
       <c r="A7542">
-        <v>0.009734305610887509</v>
+        <v>0.009734305610887511</v>
       </c>
       <c r="B7542">
         <v>-0.001248521615918818</v>
@@ -60719,7 +60719,7 @@
     </row>
     <row r="7546" spans="1:2">
       <c r="A7546">
-        <v>0.01126364248585784</v>
+        <v>0.01126364248585785</v>
       </c>
       <c r="B7546">
         <v>0.003415230229303567</v>
@@ -60807,7 +60807,7 @@
     </row>
     <row r="7557" spans="1:2">
       <c r="A7557">
-        <v>0.01288621356268039</v>
+        <v>0.01288621356268038</v>
       </c>
       <c r="B7557">
         <v>-0.00324906485571308</v>
@@ -60839,7 +60839,7 @@
     </row>
     <row r="7561" spans="1:2">
       <c r="A7561">
-        <v>0.01301411629588027</v>
+        <v>0.01301411629588028</v>
       </c>
       <c r="B7561">
         <v>-0.004039496561958345</v>
@@ -60967,7 +60967,7 @@
     </row>
     <row r="7577" spans="1:2">
       <c r="A7577">
-        <v>0.006906956450425384</v>
+        <v>0.006906956450425383</v>
       </c>
       <c r="B7577">
         <v>-0.01609766905847287</v>
@@ -61039,7 +61039,7 @@
     </row>
     <row r="7586" spans="1:2">
       <c r="A7586">
-        <v>0.008803580380646698</v>
+        <v>0.008803580380646697</v>
       </c>
       <c r="B7586">
         <v>-0.002884643027336153</v>
@@ -61135,7 +61135,7 @@
     </row>
     <row r="7598" spans="1:2">
       <c r="A7598">
-        <v>0.00181005449327462</v>
+        <v>0.001810054493274621</v>
       </c>
       <c r="B7598">
         <v>-0.01197141188556383</v>
@@ -61151,7 +61151,7 @@
     </row>
     <row r="7600" spans="1:2">
       <c r="A7600">
-        <v>0.0009606856483053022</v>
+        <v>0.0009606856483053023</v>
       </c>
       <c r="B7600">
         <v>-0.01167040215333337</v>
@@ -61159,7 +61159,7 @@
     </row>
     <row r="7601" spans="1:2">
       <c r="A7601">
-        <v>0.0006866164513564361</v>
+        <v>0.000686616451356436</v>
       </c>
       <c r="B7601">
         <v>-0.01142848651218475</v>
@@ -61223,7 +61223,7 @@
     </row>
     <row r="7609" spans="1:2">
       <c r="A7609">
-        <v>0.002235011704470843</v>
+        <v>0.002235011704470842</v>
       </c>
       <c r="B7609">
         <v>0.0009392809491055587</v>
@@ -61255,7 +61255,7 @@
     </row>
     <row r="7613" spans="1:2">
       <c r="A7613">
-        <v>0.003282903426345396</v>
+        <v>0.003282903426345395</v>
       </c>
       <c r="B7613">
         <v>0.005304628957628843</v>
@@ -61271,7 +61271,7 @@
     </row>
     <row r="7615" spans="1:2">
       <c r="A7615">
-        <v>0.002628558010851475</v>
+        <v>0.002628558010851474</v>
       </c>
       <c r="B7615">
         <v>0.003870316266831431</v>
@@ -61391,7 +61391,7 @@
     </row>
     <row r="7630" spans="1:2">
       <c r="A7630">
-        <v>-0.0008003210284624024</v>
+        <v>-0.0008003210284624025</v>
       </c>
       <c r="B7630">
         <v>0.000997505477925209</v>
@@ -61399,7 +61399,7 @@
     </row>
     <row r="7631" spans="1:2">
       <c r="A7631">
-        <v>-0.0002283761579774051</v>
+        <v>-0.000228376157977405</v>
       </c>
       <c r="B7631">
         <v>0.002964252590758498</v>
@@ -61407,7 +61407,7 @@
     </row>
     <row r="7632" spans="1:2">
       <c r="A7632">
-        <v>0.0005674853382460896</v>
+        <v>0.0005674853382460895</v>
       </c>
       <c r="B7632">
         <v>0.005083392339719772</v>
@@ -61479,7 +61479,7 @@
     </row>
     <row r="7641" spans="1:2">
       <c r="A7641">
-        <v>0.0009129331676230139</v>
+        <v>0.000912933167623014</v>
       </c>
       <c r="B7641">
         <v>0.005170513313823122</v>
@@ -61615,7 +61615,7 @@
     </row>
     <row r="7658" spans="1:2">
       <c r="A7658">
-        <v>0.003300692611884928</v>
+        <v>0.003300692611884929</v>
       </c>
       <c r="B7658">
         <v>0.0006335921206899187</v>
@@ -61647,7 +61647,7 @@
     </row>
     <row r="7662" spans="1:2">
       <c r="A7662">
-        <v>0.008542717717822985</v>
+        <v>0.008542717717822987</v>
       </c>
       <c r="B7662">
         <v>0.0142654174307868</v>
@@ -61671,7 +61671,7 @@
     </row>
     <row r="7665" spans="1:2">
       <c r="A7665">
-        <v>0.01238471513397919</v>
+        <v>0.01238471513397918</v>
       </c>
       <c r="B7665">
         <v>0.01659369834310453</v>
@@ -61751,7 +61751,7 @@
     </row>
     <row r="7675" spans="1:2">
       <c r="A7675">
-        <v>0.02272967025310624</v>
+        <v>0.02272967025310623</v>
       </c>
       <c r="B7675">
         <v>-0.003709817375595392</v>
@@ -61775,7 +61775,7 @@
     </row>
     <row r="7678" spans="1:2">
       <c r="A7678">
-        <v>0.02477822854950393</v>
+        <v>0.02477822854950392</v>
       </c>
       <c r="B7678">
         <v>-0.01312430627069183</v>
@@ -61863,7 +61863,7 @@
     </row>
     <row r="7689" spans="1:2">
       <c r="A7689">
-        <v>0.03562903388010244</v>
+        <v>0.03562903388010243</v>
       </c>
       <c r="B7689">
         <v>-0.02652738555072531</v>
@@ -61943,7 +61943,7 @@
     </row>
     <row r="7699" spans="1:2">
       <c r="A7699">
-        <v>0.04613591054788637</v>
+        <v>0.04613591054788636</v>
       </c>
       <c r="B7699">
         <v>-0.04527635530076379</v>
@@ -61983,7 +61983,7 @@
     </row>
     <row r="7704" spans="1:2">
       <c r="A7704">
-        <v>0.05245613041675058</v>
+        <v>0.05245613041675059</v>
       </c>
       <c r="B7704">
         <v>-0.03679035987334656</v>
@@ -61991,7 +61991,7 @@
     </row>
     <row r="7705" spans="1:2">
       <c r="A7705">
-        <v>0.05312716180469991</v>
+        <v>0.05312716180469992</v>
       </c>
       <c r="B7705">
         <v>-0.04804032745975473</v>
@@ -61999,7 +61999,7 @@
     </row>
     <row r="7706" spans="1:2">
       <c r="A7706">
-        <v>0.05435932075229859</v>
+        <v>0.05435932075229858</v>
       </c>
       <c r="B7706">
         <v>-0.02601030747959987</v>
@@ -62199,7 +62199,7 @@
     </row>
     <row r="7731" spans="1:2">
       <c r="A7731">
-        <v>0.07698540319623554</v>
+        <v>0.07698540319623555</v>
       </c>
       <c r="B7731">
         <v>-0.03425827150186889</v>
@@ -62319,7 +62319,7 @@
     </row>
     <row r="7746" spans="1:2">
       <c r="A7746">
-        <v>0.0875968845178724</v>
+        <v>0.08759688451787241</v>
       </c>
       <c r="B7746">
         <v>-0.06867994599935567</v>
@@ -62327,7 +62327,7 @@
     </row>
     <row r="7747" spans="1:2">
       <c r="A7747">
-        <v>0.08808755040481273</v>
+        <v>0.08808755040481271</v>
       </c>
       <c r="B7747">
         <v>-0.08400838896556451</v>
@@ -62367,7 +62367,7 @@
     </row>
     <row r="7752" spans="1:2">
       <c r="A7752">
-        <v>0.09784692129532049</v>
+        <v>0.09784692129532048</v>
       </c>
       <c r="B7752">
         <v>-0.04393441998036707</v>
@@ -62535,7 +62535,7 @@
     </row>
     <row r="7773" spans="1:2">
       <c r="A7773">
-        <v>0.100953874937622</v>
+        <v>0.1009538749376219</v>
       </c>
       <c r="B7773">
         <v>-0.1094983540862975</v>
@@ -62543,7 +62543,7 @@
     </row>
     <row r="7774" spans="1:2">
       <c r="A7774">
-        <v>0.09963037450317591</v>
+        <v>0.09963037450317593</v>
       </c>
       <c r="B7774">
         <v>-0.1274675403785097</v>
@@ -63671,7 +63671,7 @@
     </row>
     <row r="7915" spans="1:2">
       <c r="A7915">
-        <v>-0.05056757812824529</v>
+        <v>-0.0505675781282453</v>
       </c>
       <c r="B7915">
         <v>0.02475101763637655</v>
@@ -63847,7 +63847,7 @@
     </row>
     <row r="7937" spans="1:2">
       <c r="A7937">
-        <v>-0.07153707516329141</v>
+        <v>-0.0715370751632914</v>
       </c>
       <c r="B7937">
         <v>0.03815623357245457</v>
@@ -63927,7 +63927,7 @@
     </row>
     <row r="7947" spans="1:2">
       <c r="A7947">
-        <v>-0.08094578565372582</v>
+        <v>-0.0809457856537258</v>
       </c>
       <c r="B7947">
         <v>0.02556157087233624</v>
@@ -64007,7 +64007,7 @@
     </row>
     <row r="7957" spans="1:2">
       <c r="A7957">
-        <v>-0.07551214800248282</v>
+        <v>-0.07551214800248281</v>
       </c>
       <c r="B7957">
         <v>0.09709809610046305</v>
@@ -64047,7 +64047,7 @@
     </row>
     <row r="7962" spans="1:2">
       <c r="A7962">
-        <v>-0.07411611363445494</v>
+        <v>-0.07411611363445496</v>
       </c>
       <c r="B7962">
         <v>0.05910957217033097</v>
@@ -64055,7 +64055,7 @@
     </row>
     <row r="7963" spans="1:2">
       <c r="A7963">
-        <v>-0.07447696539843116</v>
+        <v>-0.07447696539843117</v>
       </c>
       <c r="B7963">
         <v>0.07212736463351765</v>
@@ -64135,7 +64135,7 @@
     </row>
     <row r="7973" spans="1:2">
       <c r="A7973">
-        <v>-0.07116628050084908</v>
+        <v>-0.07116628050084907</v>
       </c>
       <c r="B7973">
         <v>0.03709822366630622</v>
@@ -64159,7 +64159,7 @@
     </row>
     <row r="7976" spans="1:2">
       <c r="A7976">
-        <v>-0.06831367677784873</v>
+        <v>-0.06831367677784872</v>
       </c>
       <c r="B7976">
         <v>0.07433147081438918</v>
@@ -64183,7 +64183,7 @@
     </row>
     <row r="7979" spans="1:2">
       <c r="A7979">
-        <v>-0.06415712373438667</v>
+        <v>-0.06415712373438669</v>
       </c>
       <c r="B7979">
         <v>0.06653525402287253</v>
@@ -64207,7 +64207,7 @@
     </row>
     <row r="7982" spans="1:2">
       <c r="A7982">
-        <v>-0.05827368733549534</v>
+        <v>-0.05827368733549533</v>
       </c>
       <c r="B7982">
         <v>0.06139539649402437</v>
@@ -64311,7 +64311,7 @@
     </row>
     <row r="7995" spans="1:2">
       <c r="A7995">
-        <v>-0.04569083035993756</v>
+        <v>-0.04569083035993757</v>
       </c>
       <c r="B7995">
         <v>0.05483650649954264</v>
@@ -64439,7 +64439,7 @@
     </row>
     <row r="8011" spans="1:2">
       <c r="A8011">
-        <v>-0.0345243330139655</v>
+        <v>-0.03452433301396549</v>
       </c>
       <c r="B8011">
         <v>0.04436784231238455</v>
@@ -64543,7 +64543,7 @@
     </row>
     <row r="8024" spans="1:2">
       <c r="A8024">
-        <v>-0.02383068430971879</v>
+        <v>-0.02383068430971878</v>
       </c>
       <c r="B8024">
         <v>0.01615551667245718</v>
@@ -64647,7 +64647,7 @@
     </row>
     <row r="8037" spans="1:2">
       <c r="A8037">
-        <v>-0.02283318187140406</v>
+        <v>-0.02283318187140407</v>
       </c>
       <c r="B8037">
         <v>0.01155418761326832</v>
@@ -64655,7 +64655,7 @@
     </row>
     <row r="8038" spans="1:2">
       <c r="A8038">
-        <v>-0.02199161493139257</v>
+        <v>-0.02199161493139256</v>
       </c>
       <c r="B8038">
         <v>0.0187860147517851</v>
@@ -64943,7 +64943,7 @@
     </row>
     <row r="8074" spans="1:2">
       <c r="A8074">
-        <v>-0.0116962723722901</v>
+        <v>-0.01169627237229009</v>
       </c>
       <c r="B8074">
         <v>0.02609244897148333</v>
@@ -65071,7 +65071,7 @@
     </row>
     <row r="8090" spans="1:2">
       <c r="A8090">
-        <v>-0.006031302248166127</v>
+        <v>-0.006031302248166126</v>
       </c>
       <c r="B8090">
         <v>0.01588316901414544</v>
@@ -65319,7 +65319,7 @@
     </row>
     <row r="8121" spans="1:2">
       <c r="A8121">
-        <v>-0.003864030129683794</v>
+        <v>-0.003864030129683795</v>
       </c>
       <c r="B8121">
         <v>-0.002983715196550385</v>
@@ -65359,7 +65359,7 @@
     </row>
     <row r="8126" spans="1:2">
       <c r="A8126">
-        <v>-0.003410176733561685</v>
+        <v>-0.003410176733561686</v>
       </c>
       <c r="B8126">
         <v>-0.002290790937716558</v>
@@ -65487,7 +65487,7 @@
     </row>
     <row r="8142" spans="1:2">
       <c r="A8142">
-        <v>-0.0004543914805786473</v>
+        <v>-0.0004543914805786472</v>
       </c>
       <c r="B8142">
         <v>-0.001072037152512806</v>
@@ -65551,7 +65551,7 @@
     </row>
     <row r="8150" spans="1:2">
       <c r="A8150">
-        <v>-0.003441296609363952</v>
+        <v>-0.003441296609363953</v>
       </c>
       <c r="B8150">
         <v>-0.007528245074480466</v>
@@ -65615,7 +65615,7 @@
     </row>
     <row r="8158" spans="1:2">
       <c r="A8158">
-        <v>0.0007015010931400196</v>
+        <v>0.0007015010931400195</v>
       </c>
       <c r="B8158">
         <v>0.006744588168890786</v>
@@ -65767,7 +65767,7 @@
     </row>
     <row r="8177" spans="1:2">
       <c r="A8177">
-        <v>-0.004619715201501853</v>
+        <v>-0.004619715201501852</v>
       </c>
       <c r="B8177">
         <v>-0.007080269506364978</v>
@@ -65831,7 +65831,7 @@
     </row>
     <row r="8185" spans="1:2">
       <c r="A8185">
-        <v>-8.132309650104585E-05</v>
+        <v>-8.132309650104584E-05</v>
       </c>
       <c r="B8185">
         <v>0.008302976500216275</v>
@@ -66007,7 +66007,7 @@
     </row>
     <row r="8207" spans="1:2">
       <c r="A8207">
-        <v>0.0007712661768040615</v>
+        <v>0.0007712661768040614</v>
       </c>
       <c r="B8207">
         <v>0.008638605774495822</v>
@@ -66063,7 +66063,7 @@
     </row>
     <row r="8214" spans="1:2">
       <c r="A8214">
-        <v>0.0002537637609660015</v>
+        <v>0.0002537637609660016</v>
       </c>
       <c r="B8214">
         <v>0.004257476636758462</v>
@@ -66151,7 +66151,7 @@
     </row>
     <row r="8225" spans="1:2">
       <c r="A8225">
-        <v>-0.004633594620617045</v>
+        <v>-0.004633594620617044</v>
       </c>
       <c r="B8225">
         <v>-0.007635833408063064</v>
@@ -66263,7 +66263,7 @@
     </row>
     <row r="8239" spans="1:2">
       <c r="A8239">
-        <v>0.0002209854773181548</v>
+        <v>0.0002209854773181547</v>
       </c>
       <c r="B8239">
         <v>0.007602129562175541</v>
@@ -66271,7 +66271,7 @@
     </row>
     <row r="8240" spans="1:2">
       <c r="A8240">
-        <v>-0.0003883600439565931</v>
+        <v>-0.000388360043956593</v>
       </c>
       <c r="B8240">
         <v>0.005767182831726281</v>
@@ -66311,7 +66311,7 @@
     </row>
     <row r="8245" spans="1:2">
       <c r="A8245">
-        <v>-0.004581017970987176</v>
+        <v>-0.004581017970987177</v>
       </c>
       <c r="B8245">
         <v>-0.006147520398181783</v>
@@ -66335,7 +66335,7 @@
     </row>
     <row r="8248" spans="1:2">
       <c r="A8248">
-        <v>-0.005691386520739063</v>
+        <v>-0.005691386520739062</v>
       </c>
       <c r="B8248">
         <v>-0.00872478255510778</v>
@@ -66439,7 +66439,7 @@
     </row>
     <row r="8261" spans="1:2">
       <c r="A8261">
-        <v>0.0007431126016408146</v>
+        <v>0.0007431126016408147</v>
       </c>
       <c r="B8261">
         <v>0.01195723233673895</v>
@@ -66535,7 +66535,7 @@
     </row>
     <row r="8273" spans="1:2">
       <c r="A8273">
-        <v>-0.005031634408364304</v>
+        <v>-0.005031634408364303</v>
       </c>
       <c r="B8273">
         <v>-0.007181524525392113</v>
@@ -66567,7 +66567,7 @@
     </row>
     <row r="8277" spans="1:2">
       <c r="A8277">
-        <v>-0.004593189031703955</v>
+        <v>-0.004593189031703954</v>
       </c>
       <c r="B8277">
         <v>-0.005365508320851475</v>
@@ -66607,7 +66607,7 @@
     </row>
     <row r="8282" spans="1:2">
       <c r="A8282">
-        <v>-0.001335347940526025</v>
+        <v>-0.001335347940526026</v>
       </c>
       <c r="B8282">
         <v>0.004390228622010994</v>
@@ -66791,7 +66791,7 @@
     </row>
     <row r="8305" spans="1:2">
       <c r="A8305">
-        <v>-0.004397116503895132</v>
+        <v>-0.004397116503895131</v>
       </c>
       <c r="B8305">
         <v>-0.009927742372469517</v>
@@ -66855,7 +66855,7 @@
     </row>
     <row r="8313" spans="1:2">
       <c r="A8313">
-        <v>0.0004057114602274639</v>
+        <v>0.0004057114602274638</v>
       </c>
       <c r="B8313">
         <v>0.007567956774924056</v>
@@ -66863,7 +66863,7 @@
     </row>
     <row r="8314" spans="1:2">
       <c r="A8314">
-        <v>0.000761028697662348</v>
+        <v>0.0007610286976623481</v>
       </c>
       <c r="B8314">
         <v>0.008585810594419208</v>
@@ -66927,7 +66927,7 @@
     </row>
     <row r="8322" spans="1:2">
       <c r="A8322">
-        <v>-0.002176632955741274</v>
+        <v>-0.002176632955741273</v>
       </c>
       <c r="B8322">
         <v>0.0005389998382989702</v>
@@ -66975,7 +66975,7 @@
     </row>
     <row r="8328" spans="1:2">
       <c r="A8328">
-        <v>-0.006415327285507472</v>
+        <v>-0.006415327285507471</v>
       </c>
       <c r="B8328">
         <v>-0.009036803036317487</v>
@@ -66983,7 +66983,7 @@
     </row>
     <row r="8329" spans="1:2">
       <c r="A8329">
-        <v>-0.006572192886258828</v>
+        <v>-0.006572192886258829</v>
       </c>
       <c r="B8329">
         <v>-0.009049043350693786</v>
@@ -66991,7 +66991,7 @@
     </row>
     <row r="8330" spans="1:2">
       <c r="A8330">
-        <v>-0.006436612472292057</v>
+        <v>-0.006436612472292058</v>
       </c>
       <c r="B8330">
         <v>-0.007990866778919248</v>
@@ -67127,7 +67127,7 @@
     </row>
     <row r="8347" spans="1:2">
       <c r="A8347">
-        <v>-0.001796149251136399</v>
+        <v>-0.0017961492511364</v>
       </c>
       <c r="B8347">
         <v>0.005543786664817141</v>
@@ -67191,7 +67191,7 @@
     </row>
     <row r="8355" spans="1:2">
       <c r="A8355">
-        <v>-0.00581876396454223</v>
+        <v>-0.005818763964542229</v>
       </c>
       <c r="B8355">
         <v>-0.006509119074396885</v>
@@ -67415,7 +67415,7 @@
     </row>
     <row r="8383" spans="1:2">
       <c r="A8383">
-        <v>-0.00285885218332644</v>
+        <v>-0.002858852183326441</v>
       </c>
       <c r="B8383">
         <v>-0.01013504673000831</v>
@@ -67527,7 +67527,7 @@
     </row>
     <row r="8397" spans="1:2">
       <c r="A8397">
-        <v>0.004679821365496783</v>
+        <v>0.004679821365496784</v>
       </c>
       <c r="B8397">
         <v>0.0110243369534313</v>
@@ -67687,7 +67687,7 @@
     </row>
     <row r="8417" spans="1:2">
       <c r="A8417">
-        <v>-0.002047252509969862</v>
+        <v>-0.002047252509969861</v>
       </c>
       <c r="B8417">
         <v>-0.003206534244851511</v>
@@ -67703,7 +67703,7 @@
     </row>
     <row r="8419" spans="1:2">
       <c r="A8419">
-        <v>-0.0007256847928946034</v>
+        <v>-0.0007256847928946035</v>
       </c>
       <c r="B8419">
         <v>0.001726209592448846</v>
@@ -67783,7 +67783,7 @@
     </row>
     <row r="8429" spans="1:2">
       <c r="A8429">
-        <v>-0.0009212395346009006</v>
+        <v>-0.0009212395346009005</v>
       </c>
       <c r="B8429">
         <v>0.002847569900726654</v>
@@ -67847,7 +67847,7 @@
     </row>
     <row r="8437" spans="1:2">
       <c r="A8437">
-        <v>-0.006147900987920625</v>
+        <v>-0.006147900987920626</v>
       </c>
       <c r="B8437">
         <v>-0.008750760345597186</v>
@@ -67863,7 +67863,7 @@
     </row>
     <row r="8439" spans="1:2">
       <c r="A8439">
-        <v>-0.005840324631393663</v>
+        <v>-0.005840324631393662</v>
       </c>
       <c r="B8439">
         <v>-0.006781131831995246</v>
@@ -67951,7 +67951,7 @@
     </row>
     <row r="8450" spans="1:2">
       <c r="A8450">
-        <v>0.0007686239298954989</v>
+        <v>0.0007686239298954988</v>
       </c>
       <c r="B8450">
         <v>0.0128602713323982</v>
@@ -68143,7 +68143,7 @@
     </row>
     <row r="8474" spans="1:2">
       <c r="A8474">
-        <v>0.003419409824344515</v>
+        <v>0.003419409824344514</v>
       </c>
       <c r="B8474">
         <v>0.01052549571017636</v>
@@ -68215,7 +68215,7 @@
     </row>
     <row r="8483" spans="1:2">
       <c r="A8483">
-        <v>-0.0006841349318404499</v>
+        <v>-0.0006841349318404501</v>
       </c>
       <c r="B8483">
         <v>-0.005634616599448528</v>
@@ -68271,7 +68271,7 @@
     </row>
     <row r="8490" spans="1:2">
       <c r="A8490">
-        <v>-0.004118449667186053</v>
+        <v>-0.004118449667186052</v>
       </c>
       <c r="B8490">
         <v>-0.01233423505912423</v>
@@ -68279,7 +68279,7 @@
     </row>
     <row r="8491" spans="1:2">
       <c r="A8491">
-        <v>-0.004032392451680878</v>
+        <v>-0.004032392451680879</v>
       </c>
       <c r="B8491">
         <v>-0.01136813300940087</v>
@@ -68343,7 +68343,7 @@
     </row>
     <row r="8499" spans="1:2">
       <c r="A8499">
-        <v>0.0006174449049847427</v>
+        <v>0.0006174449049847428</v>
       </c>
       <c r="B8499">
         <v>0.006871885377081277</v>
@@ -68439,7 +68439,7 @@
     </row>
     <row r="8511" spans="1:2">
       <c r="A8511">
-        <v>-0.004727019854021479</v>
+        <v>-0.004727019854021478</v>
       </c>
       <c r="B8511">
         <v>-0.006530732453651211</v>
@@ -68503,7 +68503,7 @@
     </row>
     <row r="8519" spans="1:2">
       <c r="A8519">
-        <v>-0.00467006589892123</v>
+        <v>-0.004670065898921231</v>
       </c>
       <c r="B8519">
         <v>-0.002873808276703471</v>
@@ -68879,7 +68879,7 @@
     </row>
     <row r="8566" spans="1:2">
       <c r="A8566">
-        <v>-0.001561230108256806</v>
+        <v>-0.001561230108256805</v>
       </c>
       <c r="B8566">
         <v>-0.006613818925055526</v>
@@ -69079,7 +69079,7 @@
     </row>
     <row r="8591" spans="1:2">
       <c r="A8591">
-        <v>0.0007875864699024154</v>
+        <v>0.0007875864699024153</v>
       </c>
       <c r="B8591">
         <v>0.0008051083764577527</v>
@@ -69095,7 +69095,7 @@
     </row>
     <row r="8593" spans="1:2">
       <c r="A8593">
-        <v>-0.0009490544430902973</v>
+        <v>-0.0009490544430902974</v>
       </c>
       <c r="B8593">
         <v>-0.00432192568957479</v>
@@ -69111,7 +69111,7 @@
     </row>
     <row r="8595" spans="1:2">
       <c r="A8595">
-        <v>-0.003011537611581558</v>
+        <v>-0.003011537611581557</v>
       </c>
       <c r="B8595">
         <v>-0.009773357871478261</v>
@@ -69167,7 +69167,7 @@
     </row>
     <row r="8602" spans="1:2">
       <c r="A8602">
-        <v>-0.003657876496805726</v>
+        <v>-0.003657876496805725</v>
       </c>
       <c r="B8602">
         <v>-0.008100792498018983</v>
@@ -69663,7 +69663,7 @@
     </row>
     <row r="8664" spans="1:2">
       <c r="A8664">
-        <v>0.002329549919371749</v>
+        <v>0.00232954991937175</v>
       </c>
       <c r="B8664">
         <v>0.01016209615437091</v>
@@ -69703,7 +69703,7 @@
     </row>
     <row r="8669" spans="1:2">
       <c r="A8669">
-        <v>0.0006842553100361018</v>
+        <v>0.0006842553100361017</v>
       </c>
       <c r="B8669">
         <v>0.004445531168337347</v>
@@ -69719,7 +69719,7 @@
     </row>
     <row r="8671" spans="1:2">
       <c r="A8671">
-        <v>-0.0007774187624631933</v>
+        <v>-0.0007774187624631934</v>
       </c>
       <c r="B8671">
         <v>1.447349705419043E-05</v>
@@ -69727,7 +69727,7 @@
     </row>
     <row r="8672" spans="1:2">
       <c r="A8672">
-        <v>-0.001723883309802981</v>
+        <v>-0.001723883309802982</v>
       </c>
       <c r="B8672">
         <v>-0.002648815936042048</v>
@@ -69751,7 +69751,7 @@
     </row>
     <row r="8675" spans="1:2">
       <c r="A8675">
-        <v>-0.003296605926314147</v>
+        <v>-0.003296605926314148</v>
       </c>
       <c r="B8675">
         <v>-0.006918595325635657</v>
@@ -69831,7 +69831,7 @@
     </row>
     <row r="8685" spans="1:2">
       <c r="A8685">
-        <v>0.002319579631050002</v>
+        <v>0.002319579631050001</v>
       </c>
       <c r="B8685">
         <v>0.008402578588500909</v>
@@ -69983,7 +69983,7 @@
     </row>
     <row r="8704" spans="1:2">
       <c r="A8704">
-        <v>-0.003738597270499133</v>
+        <v>-0.003738597270499134</v>
       </c>
       <c r="B8704">
         <v>-0.0116286050552743</v>
@@ -70015,7 +70015,7 @@
     </row>
     <row r="8708" spans="1:2">
       <c r="A8708">
-        <v>-0.002199621624685372</v>
+        <v>-0.002199621624685371</v>
       </c>
       <c r="B8708">
         <v>-0.004654315389418962</v>
@@ -70103,7 +70103,7 @@
     </row>
     <row r="8719" spans="1:2">
       <c r="A8719">
-        <v>0.002195052195991355</v>
+        <v>0.002195052195991354</v>
       </c>
       <c r="B8719">
         <v>0.008336133958220415</v>
@@ -70191,7 +70191,7 @@
     </row>
     <row r="8730" spans="1:2">
       <c r="A8730">
-        <v>-0.005214851939801701</v>
+        <v>-0.0052148519398017</v>
       </c>
       <c r="B8730">
         <v>-0.01213048867540323</v>
@@ -70343,7 +70343,7 @@
     </row>
     <row r="8749" spans="1:2">
       <c r="A8749">
-        <v>0.0001808511719038739</v>
+        <v>0.000180851171903874</v>
       </c>
       <c r="B8749">
         <v>0.005544350156660549</v>
@@ -70367,7 +70367,7 @@
     </row>
     <row r="8752" spans="1:2">
       <c r="A8752">
-        <v>-0.001977005922966893</v>
+        <v>-0.001977005922967255</v>
       </c>
       <c r="B8752">
         <v>-0.001518048365594105</v>
@@ -70495,7 +70495,7 @@
     </row>
     <row r="8768" spans="1:2">
       <c r="A8768">
-        <v>0.003994008546737971</v>
+        <v>0.003994008546737972</v>
       </c>
       <c r="B8768">
         <v>0.01172462775906791</v>
@@ -70535,7 +70535,7 @@
     </row>
     <row r="8773" spans="1:2">
       <c r="A8773">
-        <v>0.003906146631742001</v>
+        <v>0.003906146631742</v>
       </c>
       <c r="B8773">
         <v>0.007483992066331879</v>
@@ -70599,7 +70599,7 @@
     </row>
     <row r="8781" spans="1:2">
       <c r="A8781">
-        <v>-0.001077509062144007</v>
+        <v>-0.001077509062144008</v>
       </c>
       <c r="B8781">
         <v>-0.010182047207417</v>
@@ -70695,7 +70695,7 @@
     </row>
     <row r="8793" spans="1:2">
       <c r="A8793">
-        <v>0.003973563329975015</v>
+        <v>0.003973563329975016</v>
       </c>
       <c r="B8793">
         <v>0.005810161886353526</v>
@@ -70711,7 +70711,7 @@
     </row>
     <row r="8795" spans="1:2">
       <c r="A8795">
-        <v>0.004310278553497712</v>
+        <v>0.004310278553497892</v>
       </c>
       <c r="B8795">
         <v>0.006670690660310008</v>
@@ -70823,7 +70823,7 @@
     </row>
     <row r="8809" spans="1:2">
       <c r="A8809">
-        <v>-0.001832771559585565</v>
+        <v>-0.001832771559585566</v>
       </c>
       <c r="B8809">
         <v>-0.008114409624299768</v>
@@ -70959,7 +70959,7 @@
     </row>
     <row r="8826" spans="1:2">
       <c r="A8826">
-        <v>0.0002463690321877311</v>
+        <v>0.000246369032187731</v>
       </c>
       <c r="B8826">
         <v>-0.001740806489205049</v>
@@ -70975,7 +70975,7 @@
     </row>
     <row r="8828" spans="1:2">
       <c r="A8828">
-        <v>-0.001557551010540777</v>
+        <v>-0.001557551010540822</v>
       </c>
       <c r="B8828">
         <v>-0.006666628049671885</v>
@@ -71007,7 +71007,7 @@
     </row>
     <row r="8832" spans="1:2">
       <c r="A8832">
-        <v>-0.002299891248973022</v>
+        <v>-0.002299891248972999</v>
       </c>
       <c r="B8832">
         <v>-0.007944741598821636</v>
@@ -71047,7 +71047,7 @@
     </row>
     <row r="8837" spans="1:2">
       <c r="A8837">
-        <v>0.0003330456366432854</v>
+        <v>0.0003330456366432855</v>
       </c>
       <c r="B8837">
         <v>0.0003541387143002339</v>
@@ -71119,7 +71119,7 @@
     </row>
     <row r="8846" spans="1:2">
       <c r="A8846">
-        <v>0.003871857823837323</v>
+        <v>0.003871857823837324</v>
       </c>
       <c r="B8846">
         <v>0.007337353260938428</v>
@@ -71343,7 +71343,7 @@
     </row>
     <row r="8874" spans="1:2">
       <c r="A8874">
-        <v>0.004174587557509477</v>
+        <v>0.004174587557509476</v>
       </c>
       <c r="B8874">
         <v>0.009601753406162317</v>
@@ -71415,7 +71415,7 @@
     </row>
     <row r="8883" spans="1:2">
       <c r="A8883">
-        <v>-0.001475687533594771</v>
+        <v>-0.00147568753359477</v>
       </c>
       <c r="B8883">
         <v>-0.009555679055329946</v>
@@ -71447,7 +71447,7 @@
     </row>
     <row r="8887" spans="1:2">
       <c r="A8887">
-        <v>-0.001451697075054379</v>
+        <v>-0.001451697075054378</v>
       </c>
       <c r="B8887">
         <v>-0.008868126450455094</v>
@@ -71479,7 +71479,7 @@
     </row>
     <row r="8891" spans="1:2">
       <c r="A8891">
-        <v>0.0008031165415160739</v>
+        <v>0.000803116541516074</v>
       </c>
       <c r="B8891">
         <v>-0.001621962867737636</v>
@@ -71503,7 +71503,7 @@
     </row>
     <row r="8894" spans="1:2">
       <c r="A8894">
-        <v>0.00347627520928295</v>
+        <v>0.003476275209282949</v>
       </c>
       <c r="B8894">
         <v>0.00569240772717805</v>
@@ -71591,7 +71591,7 @@
     </row>
     <row r="8905" spans="1:2">
       <c r="A8905">
-        <v>0.0007432227671097281</v>
+        <v>0.000743222767109728</v>
       </c>
       <c r="B8905">
         <v>-0.004469236608731997</v>
@@ -71671,7 +71671,7 @@
     </row>
     <row r="8915" spans="1:2">
       <c r="A8915">
-        <v>0.0008592177068553659</v>
+        <v>0.0008592177068553658</v>
       </c>
       <c r="B8915">
         <v>-0.001915712604474429</v>
@@ -71743,7 +71743,7 @@
     </row>
     <row r="8924" spans="1:2">
       <c r="A8924">
-        <v>0.005849147426275901</v>
+        <v>0.005849147426275902</v>
       </c>
       <c r="B8924">
         <v>0.009427691262637872</v>
@@ -71815,7 +71815,7 @@
     </row>
     <row r="8933" spans="1:2">
       <c r="A8933">
-        <v>0.0005933048284063999</v>
+        <v>0.0005933048284063998</v>
       </c>
       <c r="B8933">
         <v>-0.00932193830870176</v>
@@ -71999,7 +71999,7 @@
     </row>
     <row r="8956" spans="1:2">
       <c r="A8956">
-        <v>0.002279455670652369</v>
+        <v>0.00227945567065237</v>
       </c>
       <c r="B8956">
         <v>-0.004375371035926889</v>
@@ -72159,7 +72159,7 @@
     </row>
     <row r="8976" spans="1:2">
       <c r="A8976">
-        <v>0.005053127527844986</v>
+        <v>0.005053127527844985</v>
       </c>
       <c r="B8976">
         <v>0.01161740959205115</v>
@@ -72191,7 +72191,7 @@
     </row>
     <row r="8980" spans="1:2">
       <c r="A8980">
-        <v>0.004478547657628021</v>
+        <v>0.004478547657628022</v>
       </c>
       <c r="B8980">
         <v>0.007907412130417235</v>
@@ -72271,7 +72271,7 @@
     </row>
     <row r="8990" spans="1:2">
       <c r="A8990">
-        <v>-0.0007909650387444155</v>
+        <v>-0.0007909650387444156</v>
       </c>
       <c r="B8990">
         <v>-0.009744964408001877</v>
@@ -72287,7 +72287,7 @@
     </row>
     <row r="8992" spans="1:2">
       <c r="A8992">
-        <v>-0.0003242985075411001</v>
+        <v>-0.0003242985075411</v>
       </c>
       <c r="B8992">
         <v>-0.008203052332776295</v>
@@ -72367,7 +72367,7 @@
     </row>
     <row r="9002" spans="1:2">
       <c r="A9002">
-        <v>0.006299526171187095</v>
+        <v>0.006299526171187096</v>
       </c>
       <c r="B9002">
         <v>0.00886039137318928</v>
@@ -72383,7 +72383,7 @@
     </row>
     <row r="9004" spans="1:2">
       <c r="A9004">
-        <v>0.006266260195347503</v>
+        <v>0.006266260195347502</v>
       </c>
       <c r="B9004">
         <v>0.00781629236971515</v>
@@ -72391,7 +72391,7 @@
     </row>
     <row r="9005" spans="1:2">
       <c r="A9005">
-        <v>0.006117434566576329</v>
+        <v>0.00611743456657633</v>
       </c>
       <c r="B9005">
         <v>0.006725658771793874</v>
@@ -72711,7 +72711,7 @@
     </row>
     <row r="9045" spans="1:2">
       <c r="A9045">
-        <v>0.024917618838991</v>
+        <v>0.02491761883899099</v>
       </c>
       <c r="B9045">
         <v>-0.03600184998956468</v>
@@ -72743,7 +72743,7 @@
     </row>
     <row r="9049" spans="1:2">
       <c r="A9049">
-        <v>0.02887610295320842</v>
+        <v>0.02887610295320841</v>
       </c>
       <c r="B9049">
         <v>-0.03430853505182085</v>
@@ -72751,7 +72751,7 @@
     </row>
     <row r="9050" spans="1:2">
       <c r="A9050">
-        <v>0.03063163751719629</v>
+        <v>0.0306316375171963</v>
       </c>
       <c r="B9050">
         <v>-0.04516592021186305</v>
@@ -72791,7 +72791,7 @@
     </row>
     <row r="9055" spans="1:2">
       <c r="A9055">
-        <v>0.04270999571383643</v>
+        <v>0.04270999571383644</v>
       </c>
       <c r="B9055">
         <v>-0.0339755764615397</v>
@@ -72799,7 +72799,7 @@
     </row>
     <row r="9056" spans="1:2">
       <c r="A9056">
-        <v>0.0449921986855192</v>
+        <v>0.04499219868551919</v>
       </c>
       <c r="B9056">
         <v>-0.04472768292669649</v>
@@ -72807,7 +72807,7 @@
     </row>
     <row r="9057" spans="1:2">
       <c r="A9057">
-        <v>0.04697801749365348</v>
+        <v>0.04697801749365347</v>
       </c>
       <c r="B9057">
         <v>-0.02153747932112271</v>
@@ -72935,7 +72935,7 @@
     </row>
     <row r="9073" spans="1:2">
       <c r="A9073">
-        <v>0.06995166105540786</v>
+        <v>0.06995166105540787</v>
       </c>
       <c r="B9073">
         <v>-0.0599809626151675</v>
@@ -72999,7 +72999,7 @@
     </row>
     <row r="9081" spans="1:2">
       <c r="A9081">
-        <v>0.08543863385367799</v>
+        <v>0.08543863385367798</v>
       </c>
       <c r="B9081">
         <v>-0.07979982995465562</v>
@@ -73031,7 +73031,7 @@
     </row>
     <row r="9085" spans="1:2">
       <c r="A9085">
-        <v>0.09187172038949655</v>
+        <v>0.09187172038949654</v>
       </c>
       <c r="B9085">
         <v>-0.03314793431957508</v>
@@ -73183,7 +73183,7 @@
     </row>
     <row r="9104" spans="1:2">
       <c r="A9104">
-        <v>0.1096715789309554</v>
+        <v>0.1096715789309555</v>
       </c>
       <c r="B9104">
         <v>-0.08943829305431228</v>
@@ -73319,7 +73319,7 @@
     </row>
     <row r="9121" spans="1:2">
       <c r="A9121">
-        <v>0.1055619284608869</v>
+        <v>0.105561928460887</v>
       </c>
       <c r="B9121">
         <v>-0.1058726171437958</v>
@@ -73431,7 +73431,7 @@
     </row>
     <row r="9135" spans="1:2">
       <c r="A9135">
-        <v>0.08744301143200878</v>
+        <v>0.08744301143200879</v>
       </c>
       <c r="B9135">
         <v>-0.09080179582039527</v>
@@ -73599,7 +73599,7 @@
     </row>
     <row r="9156" spans="1:2">
       <c r="A9156">
-        <v>0.05624002811440744</v>
+        <v>0.05624002811440745</v>
       </c>
       <c r="B9156">
         <v>-0.08107294001527299</v>
@@ -73735,7 +73735,7 @@
     </row>
     <row r="9173" spans="1:2">
       <c r="A9173">
-        <v>0.02885798236481158</v>
+        <v>0.02885798236481159</v>
       </c>
       <c r="B9173">
         <v>-0.04533421512383784</v>
@@ -74407,7 +74407,7 @@
     </row>
     <row r="9257" spans="1:2">
       <c r="A9257">
-        <v>-0.002291652734105118</v>
+        <v>-0.002291652734105096</v>
       </c>
       <c r="B9257">
         <v>-0.006904658878342573</v>
@@ -74495,7 +74495,7 @@
     </row>
     <row r="9268" spans="1:2">
       <c r="A9268">
-        <v>0.00228552298939055</v>
+        <v>0.002285522989390575</v>
       </c>
       <c r="B9268">
         <v>0.007956809208618409</v>
